--- a/java.xlsx
+++ b/java.xlsx
@@ -4,19 +4,211 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tomcat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>SE,EE</t>
+  </si>
+  <si>
+    <t>Java SE(标准版)、Java EE(企业版)、Java ME(微型版)</t>
+  </si>
+  <si>
+    <t>SE允许开发和部署在桌面、服务器、嵌入式环境和实时环境中使用的 Java 应用程序</t>
+  </si>
+  <si>
+    <t>EE帮助开发和部署可移植、健壮、可伸缩且安全的服务器端 Java 应用程序。Java EE 是在 Java SE 的基础上构建的，它提供 Web 服务、组件模型、管理和通信 API，可以用来实现企业级的面向服务体系结构</t>
+  </si>
+  <si>
+    <t>简单来说的话就是：
+Java SE 就是做电脑上的运行软件
+Java EE 就是用来做网站的 （例如JSP、Html5、CSS3）</t>
+  </si>
+  <si>
+    <t>垃圾回收</t>
+  </si>
+  <si>
+    <t>JVM空闲时检查释放</t>
+  </si>
+  <si>
+    <t>跨平台</t>
+  </si>
+  <si>
+    <t>核心是JVM虚拟机</t>
+  </si>
+  <si>
+    <t>编译运行</t>
+  </si>
+  <si>
+    <t>javac test.java   生成class字节码文件
+java test   运行</t>
+  </si>
+  <si>
+    <t>环境变量</t>
+  </si>
+  <si>
+    <t>classpath:  运行时都会去该路径找class路径，因此可在任意路径运行
+JAVA_HOME: jdk目录</t>
+  </si>
+  <si>
+    <t>文档注释</t>
+  </si>
+  <si>
+    <t>/**      
+文档注释   
+@author
+@version
+xxxxxxx
+*/</t>
+  </si>
+  <si>
+    <t>/**      
+文档中方法注释   
+@param  name  姓名  
+@param  age  年龄
+*/</t>
+  </si>
+  <si>
+    <t>javadoc对文档注释进行解析，生成说明文档
+javadoc -d myHello -author -version Hello.java</t>
+  </si>
+  <si>
+    <t>反编译</t>
+  </si>
+  <si>
+    <t>class变java     jd-gui.exe</t>
+  </si>
+  <si>
+    <t>JDK,JRE和JVM</t>
+  </si>
+  <si>
+    <t>JDK:JAVA开发工具包，面向开发者
+JRE：JAVA运行环境，面向用户
+JVM：JAVA虚拟机</t>
+  </si>
+  <si>
+    <t>常用包</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <r>
+      <t>核心类，如String、Math、Sytem和Thread类等，使用这个包</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无需使用import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语句导入，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统会自动导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个包中的所有类</t>
+    </r>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>工具类/接口和集合框架类/接口。如Arrays和List、Set等。国际化，随机数，正则，读写压缩包文件</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>网络编程相关的类/接口</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>输入/输出编程相关的类/接口</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>处理文本、日期、数字和消息的类和接口</t>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>JDBC数据库编程的相关类/接口</t>
+  </si>
+  <si>
+    <t>awt</t>
+  </si>
+  <si>
+    <t>构建图形用户界面(GUI)程序</t>
+  </si>
+  <si>
+    <t>javax.swing</t>
+  </si>
+  <si>
+    <t>新界面包，用于构建平台无关的GUI程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javax </t>
+  </si>
+  <si>
+    <t>以javax开头的包都是扩展包</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>一种规范</t>
+  </si>
+  <si>
+    <t>1、所有属性为private
+2、提供默认构造方法
+3、提供getter和setter
+4、实现serializable接口</t>
+  </si>
   <si>
     <t>equals和==</t>
   </si>
@@ -54,7 +246,30 @@
     <t>final</t>
   </si>
   <si>
-    <t>基本类型变为常量，引用的指向不能改变,方法不能被重写，类不能被继承</t>
+    <r>
+      <t>基本类型变为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，引用的指向不能改变,方法不能被重写，类不能被继承</t>
+    </r>
   </si>
   <si>
     <t>static</t>
@@ -77,12 +292,6 @@
 包括字段，方法和构造函数等信息</t>
   </si>
   <si>
-    <t>JRE和JDK</t>
-  </si>
-  <si>
-    <t>JRE是JVM程序，JDK包含javac编译工具</t>
-  </si>
-  <si>
     <t>Set</t>
   </si>
   <si>
@@ -105,6 +314,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>基于</t>
     </r>
     <r>
@@ -112,6 +328,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>动态</t>
@@ -131,6 +348,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>和 ArrayList 类似，但它是</t>
     </r>
     <r>
@@ -138,6 +362,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>线程安全</t>
@@ -157,6 +382,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>访问速度更慢</t>
@@ -176,6 +402,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>2 倍</t>
@@ -194,6 +421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1.5 倍</t>
@@ -231,6 +459,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>和 HashMap 类似，但它是</t>
     </r>
     <r>
@@ -238,6 +473,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>线程安全</t>
@@ -256,6 +492,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>不应该去使用它</t>
@@ -274,6 +511,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>ConcurrentHashMap</t>
@@ -293,6 +531,27 @@
   </si>
   <si>
     <t>使用双向链表来维护元素的顺序，顺序为插入顺序或者最近最少使用（LRU）顺序</t>
+  </si>
+  <si>
+    <t>WEB服务器</t>
+  </si>
+  <si>
+    <t>Tomcat:轻量级WEB服务器，支持jsp,servlet</t>
+  </si>
+  <si>
+    <t>JBoss</t>
+  </si>
+  <si>
+    <t>WebLogic:Oracle的</t>
+  </si>
+  <si>
+    <t>WebSphere</t>
+  </si>
+  <si>
+    <t>webapps目录</t>
+  </si>
+  <si>
+    <t>存部署的web工程，一个目录一个工程</t>
   </si>
 </sst>
 </file>
@@ -301,11 +560,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,28 +582,105 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,15 +695,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,17 +704,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,80 +718,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -482,187 +747,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,17 +941,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,11 +991,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,18 +1030,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,152 +1043,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,15 +1196,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -995,7 +1266,59 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1189990</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6172200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028315" y="1597025"/>
+          <a:ext cx="4982210" cy="2378075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1279,17 +1602,240 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="118.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="81" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="67.5" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:3">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" ht="54" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A29:A37"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1300,183 +1846,175 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
+      <c r="A7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" spans="1:2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="40.5" spans="1:2">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>33</v>
+      <c r="A26" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>38</v>
+      <c r="A29" t="s">
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:2">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1489,34 +2027,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="95" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194B5062-56C4-4F92-A77E-0740289C7F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC82FB8-BE96-4E0D-8560-2E4D3E55BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
-    <sheet name="Tomcat" sheetId="1" r:id="rId2"/>
-    <sheet name="Mybatis" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Spring" sheetId="4" r:id="rId2"/>
+    <sheet name="Spring MVC" sheetId="6" r:id="rId3"/>
+    <sheet name="Spring Boot" sheetId="7" r:id="rId4"/>
+    <sheet name="Tomcat" sheetId="1" r:id="rId5"/>
+    <sheet name="Mybatis" sheetId="3" r:id="rId6"/>
+    <sheet name="Maven" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="305">
   <si>
     <t>SE,EE</t>
   </si>
@@ -55,10 +58,6 @@
   </si>
   <si>
     <t>编译运行</t>
-  </si>
-  <si>
-    <t>javac test.java   生成class字节码文件
-java test   运行</t>
   </si>
   <si>
     <t>环境变量</t>
@@ -229,10 +228,6 @@
     <t>反射</t>
   </si>
   <si>
-    <t>可以提供运行时的类信息（甚至在该类还没有编译的时候）
-包括字段，方法和构造函数等信息</t>
-  </si>
-  <si>
     <t>有序set，用红黑树实现，查找logN</t>
   </si>
   <si>
@@ -1065,10 +1060,6 @@
   </si>
   <si>
     <t>构造函数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>啥都不写则类中默认有一个不传参的构造函数</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1904,12 +1895,3392 @@
     <t>数据库</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>功能相似</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或相关的类或接口组织在同一个包中，方便类的查找和使用
+2.同一个包中的类名字是不同的，不同的包中的类的名字是可以相同的，当同时调用两个不同包中相同类名的类时，应该加上包名加以区别。因此，包可避免</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名字冲突</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.包声明应该在源文件的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每个源文件只能有一个包声明</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>javac test.java   生成class字节码文件
+javac -d . *.java  一个包的文件都在时编译
+java test   运行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入包内成员：import package1[.package2…].(classname|*);
+两个类在同一个包中，一个使用另一个，可不用import</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动装箱与拆箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动装箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动拆箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Java自动将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原始类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值转换成对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转换成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这个过程叫做装箱，反之将Integer对象转换成int类型值，这个过程叫做拆箱</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int i = 10;
+Integer n = i;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer i = 10;
+int n = i;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代：for (Season myVar : Season.values())</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1) 枚举可以实现一个或多个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Interface） 2) 可以定义新的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3) 可以定义新的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4) 可以定义根据具体枚举值而相异的类
+public enum Season {
+    SPRING, SUMMER, AUTUMN, WINER;    //从0开始递增
+//或者 SPRING(1), SUMMER(2), AUTUMN(3), WINTER(4);
+//Mon("Monday"),Tue("Tuesday"),Wed("Wednesday")
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件编译</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判断条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if语句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现的。根据if判断条件的真假，编译器直接把</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分支为false的代码块消除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。通过该方式实现的条件编译，必须在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法体内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现，而无法在正整个Java类的结构或者类的属性上进行条件编译
+final boolean DEBUG = true;  //通过final常量实现
+if(DEBUG) {  xxxxxx}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言assert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert关键字从JAVA SE 1.4 引入的，为避免和老版本代码中使用了assert关键字导致错误，执行时默认是不启动断言检查的（所有的断言语句都将忽略）
+如果要开启断言检查，则需要用开关-enableassertions或-ea来开启
+assert a == b;
+assert a != b : "ThinkWon";</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载需要注意</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>public static void method(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;String&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> list) {  
+        System.out.println("invoke method(List&lt;String&gt; list)");  
+    }  
+    public static void method(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;Integer&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> list) {  
+        System.out.println("invoke method(List&lt;Integer&gt; list)");  
+    }  
+参数List和List</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擦除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了一样的原生类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，擦除动作导致这两个方法的特征签名变得一模一样</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强for循环不能在内部remove</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for (Student stu : students) {    
+    if (stu.getId() == 2) {
+        students.remove(stu);  }  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">解决：用迭代器删除(remove方法会在删除当前迭代对象的同时维护索引的一致性)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Iterator&lt;xxx&gt; it = students.iterator();
+while (it.hasNext()){
+　　Object obj = it.next();
+　　 if (xxxx){
+   　　it.remove(); </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生成文档，通过代码里标识的元数据生成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javadoc文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+编译检查，通过代码里标识的元数据让编译器在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期间进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检查验证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时通过代码里标识的元数据动态处理，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态生成代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时通过代码里标识的元数据动态处理，例如使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反射注入实例</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自带的标准注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，包括@Override（标明重写某个方法）、@Deprecated（标明某个类或方法过时）和@SuppressWarnings（标明要忽略的警告），使用这些注解后编译器就会进行检查
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，元注解是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于定义注解的注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，包括@Retention（标明注解被保留的阶段）、@Target（标明注解可以使用的地方）、@Inherited（标明注解可继承）、@Documented（标明是否生成javadoc文档）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自定义注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以根据自己的需求定义注解</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自定义注解：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+@Target(ElementType.TYPE)
+@Retention(RetentionPolicy.RUNTIME)
+public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TestAnnotation{
+    int id() default 0;
+    String msg() default "";
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@TestAnnotation(id=3, msg="hello annotation")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public class Test {}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主方法中访问注解：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annotation[] annotations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Man.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class.getAnnotations()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数式接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅有一个抽象方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是可以有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个非抽象方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的接口。
+函数式接口可以被隐式转换为 lambda 表达式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@FunctionalInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+interface GreetingService 
+{
+    void sayMessage(String message);
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注解也叫</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即一种描述数据的数据。用于对代码进行说明，可以对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包、类、接口、字段、方法参数、局部变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等进行注解</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，对于任意一个类，都能够知道这个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有属性和方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；对于任意一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，都能够</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>它的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意方法和属性</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>反射最重要的用途就是开发各种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通用框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+很多框架（比如 Spring）都是配置化的（比如Spring 通过 XML 配置模式装载 Bean），为了保证框架的通用性，他们可能根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配置文件加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这个时候就必须用到反射——</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运行时动态加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要加载的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在运行时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意一个对象所属的类
+在运行时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意一个类的对象
+在运行时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意一个类所具有的成员变量和方法
+在运行时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任意一个对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题：使用反射基本上是一种解释操作，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JVM无法对这些代码进行优化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因此，反射操作的效率要比那些非反射操作</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低得多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。反射机制主要应用在对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>灵活性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩展性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">要求很高的系统框架上，对性能要求高的程序中不建议使用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">限制：使用反射技术要求程序必须在一个没有安全限制的环境中运行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内部暴露</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：由于反射允许代码执行一些在正常情况下不被允许的操作（比如访问私有的属性和方法），所以使用反射可能会导致意料之外的副作用——代码有功能上的错误，降低可移植性。反射代码破坏了抽象性，因此当平台发生改变的时候，代码的行为就有可能也随着变化。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反射机制相关类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Class类对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.知道该类的全路径名，获取 Class 类对象。   Class&lt;?&gt; classBook = Class.forName(“com.jourwon.reflect.Book”);
+2.这种方法只适合在编译前就知道操作的Class。直接通过 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类名.class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的方式得到，该方法最为安全可靠，程序性能更高，这说明任何一个类都有一个隐含的静态成员变量 class
+Class clz = Book.class;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3.使用类</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getClass()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 方法。
+Book book1 = new Book();
+Class&lt;? extends Book&gt; book1Class = book1.getClass();</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Class：代表类的实体，在运行的Java应用程序中表示类和接口
+Field：代表类的成员变量（通过反射获取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>私有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性，方法和构造方法时，需要进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>暴力反射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAccessible(true)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+Method：代表类的方法
+Constructor：代表类的构造方法</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理流程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为多种关系数据库提供</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统一访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，使Java语言程序可以执行SQL语句操作数据库。JDBC通过数据库厂商提供的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDBC驱动程序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建立与数据库的连接</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DriverManager:管理JDBC驱动，获取Connection接口对象
+SQLException
+Connection:创建数据库连接对象，访问之前要先连接
+Statement：执行SQL语句的工具接口
+ResultSet：创建结果集对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一个java文件可以包含</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个java类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但是只能包含</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个public类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的类名必须与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java文件名相同</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过 Callable 和 Future 创建线程
+1. 创建 Callable 接口的实现类，并实现 call() 方法，该 call() 方法将作为线程执行体，并且有返回值。
+2. 创建 Callable 实现类的实例，使用 FutureTask 类来包装 Callable 对象，该 FutureTask 对象封装了该 Callable 对象的 call() 方法的返回值。
+3. 使用 FutureTask 对象作为 Thread 对象的 target 创建并启动新线程。
+4. 调用 FutureTask 对象的 get() 方法来获得子线程执行结束后的返回值。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过继承 Thread 类
+1.创建一个新的类，该类继承 Thread 类
+2.重写run()     (Thread类的run实际上在调用Runnable成员去run)
+3.start()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过实现 Runnable 接口（最简单）
+1.实现 Runnable 接口，重写run()
+2.主函数中实例化Thread，将Runnable对象传入
+或者
+1.实现 Runnable 接口，重写run()     run()可以调用其他方法，使用其他类，并声明变量，就像主线程一样
+2.实例化一个Thread(Runnable threadOb,String threadName);对象
+3.启动线程对象   t.start ();</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized修饰某方法，使其变为临界区
+1.修饰run()
+2.在run内部，使用synchronized(this){    }, 得到同步代码块。判断条件前后各一次，防止有多个线程同时通过第一次检查</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReentrantLock类  (在java.util.concurrent.locks包内)
+if(lock.tryLock){
+  try{}
+  finally {
+  lock.unlock();
+  }  
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>join，暂定当前线程执行，知道调用join方法的线程执行结束
+sleep，阻塞一段时间，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不释放互斥锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+yield，暂停，变为就绪状态，让给优先级相同或更高的</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait，在synchronized方法内使用，使线程阻塞，释放互斥锁
+notify, notifyAll，唤醒等待锁的线程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>add， poll</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制反转IOC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入DI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向切面编程AOP</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>由容器动态的在运行期间将依赖关系注入组件中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：解耦，提升灵活性与可维护性，组件重用频率
+缺点：用反射创建对象，效率有损耗</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现：注解，反射，在xml中记录有哪些类</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>把多个类的公共行为封装到可重用模块，叫Aspect。例如想要在很多方法前后加相似的log输出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心容器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>借助AOP，可以使用各种功能层去包裹核心业务层。这些层以声明的方式灵活地应用到系统中，核心应用甚至根本不知道它们的存在。这是一个非常强大的理念，可以将安全、事务和日志关注点与核心业务逻辑相分离。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactory</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationContext</t>
+  </si>
+  <si>
+    <t>设计的对象由容器控制创建，而不是直接在对象内部直接控制new，即正向</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理bean。可以理解为就是个 HashMap，Key 是 BeanName，Value 是 Bean 实例。通常只提供注册（put），获取（get）这两个功能。我们可以称之为 “低级容器”。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>更常用，可以称之为 “高级容器”。因为他比 BeanFactory 多了更多的功能。他继承了多个接口。因此具备了更多的功能。例如资源的获取，支持多种消息（例如 JSP tag 的支持），对 BeanFactory 多了工具级别的支持等待。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Bean实例：
+ClassPathXmlApplicationContext方法，从类路径classpath下加载xml配置文件
+FileSystemXmlApplicationContext方法，从文件系统中加载配置文件（项目根目录），若想用classpath路径，需加"classpath:"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>容器:bean。Spring提供了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BeanFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个IOC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理bean对象。
+组织和存储其他对象，bean对象</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注解：在类定义上面加注解 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Component（org.springframework.stereotype.Component)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Spring容器识别，自动转换为管理的bean
+其他注解：让用途更清晰，并各自具有特殊功能
+@Repository: 对DAO实现类标注
+@Service：对Service实现类标注
+@Controller：对Controller类标注</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML：设置bean的属性和相互依赖，通常定义id和class属性
+&lt;bean id="user" class="com.demo.model.UserBean"&gt;&lt;/bean&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">java类
+import org.springframework.context.annotation.Bean
+import org.springframework.context.annotation.Configuration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Configuration    为Spring容器提供bean定义信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public class AppConf{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Bean    提供了一个bean的定义信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public CleanAir cleanair(){
+  return new CleanAir();
+}   }
+最后在xml中配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启context扫描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实现bean的配置
+&lt;context:component-scan base-package="com.demo.model"/&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比：java类配置更灵活，复杂一些</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean的注入（怎么实例化，注入）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean配置（怎样声明)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啥都不写（java中允许不写出默认构造函数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则类中默认有一个不传参的构造函数</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xml中配置
+1.属性注入：A类有Iair </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>air</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAir</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">方法。 配置：在&lt;bean id="A"&gt;里面，加
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;property name="air" value或ref="CleanAir"&gt;&lt;property/&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name表示属性名，value设置值，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>填id名称实现对其他类的相互引用
+2.构造函数：A类构造函数传入参数String name,Iair，添加
+  &lt;constructor-arg index="1" ref="CleanAir"&gt;&lt;/constructor-arg&gt;
+  &lt;constructor-arg index="0" value="abc"&gt;&lt;/constructor-arg&gt;
+3.对A的工厂类
+4.常见数据类型注入
+  &lt;List&gt; &lt;value&gt;1&lt;/value&gt; &lt;ref bean="CleanAir"/&gt; &lt;bean class='com.demo.model.CleanAir"/&gt; &lt;/List&gt;
+  &lt;set&gt; ...
+  &lt;map&gt; ...</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注解：
+告诉Spring开启注解：&lt;context:annotation-config /&gt; 或  &lt;context:component-scan base-package="com.demo.model"/&gt;
+常用：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：默认按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注入bean，可对成员变量，方法，构造函数，自动装配，去找相应类型bean，如果只有一个就直接装配，不止一个就按名称查找，找不到抛出异常
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：配合Autowired使用，指定注入哪个
+例：@Autowired
+    @Qualifier(value="cleanair")
+    IAir air
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：默认按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名称匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注入bean，若属性为空，采用标注处变量名作为bean名称。若未指定名称，并且没有同名bean，退化为Autowwired，按类型注入
+例：@Resource(name="CleanAir")
+    IAir air
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：适用于属性的setter方法，表示bean属性要在xml文件配置时进行填充
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：为属性设置默认值</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bean作用域，生命周期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml中Bean的scope属性定义作用域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>单例singleton:每个容器拥有诶已的一个实例
+原型prototype：一个Bean定义，任意多个对象
+使用基于Web的ApplicationContext中可用：
+请求request：一个http请求产生一个Bean对象
+会话session：一个Bean的作用域为HTTPSession的生命周期
+全局会话global session：一个Bean的作用域为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全局HTTPSession</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的生命周期，常用语门户网站场景</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>概念</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>横切关注点：AOP把业务流程分为若干部分，每部分单独处理，组装为完整的业务流，每部分成为关注点
+切面：对关注点的抽象
+连接点：被拦截到的方法（如某方法中要插入日志，权限等）
+切入点：对连接点进行拦截的定义，不一定每个连接点都进行操作
+通知：拦截了连接点之后要执行的代码
+目标对象：动态代理的目标对象
+织入：把切面放到目标对象中，使用动态代理。Aop.framework.ProxyFactory用作织入器
+引入：不改代码同时，为类动态地添加方法或字段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实现原理：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静态代理，动态代理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（可以不用为每个接口单独创建代理，只需和InvocationHandler接口对象bind，或者Proxy(class))。在类上面包装一层，在原类方法前后加固定的一些代码</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典基于代理：
+实现接口MethodBeforeAdvice，AfterReturningAdvice，ThrowsAdvice，即拦截器
+pom中引入依赖spring-aop，spring-context
+xml文件中写注入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AspectJ基于XML配置：AspectJ是面向切面的框架，定义了aop语言，有专门的编译器生产java规范的class文件。
+在xml中添加&lt;aop&gt;…</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAEE体系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层，Web层(Spring MVC)，业务层(Spring)，持久层(MyBatis)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AspectJ基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的配置,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提倡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+配置自动扫描的包&lt;context:component-scan…&gt;，配置&lt;aop:aspectj-autoproxy&gt;
+注解@Aspect定义切面</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个项目的特定版本。
+maven 有自己的版本规范，一般是如下定义 major version、minor version、incremental version-qualifier ，比如 1.2.3-beta-01。要说明的是，maven 自己判断版本的算法是 major、minor、incremental 部分用数字比较，qualifier 部分用字符串比较，所以要小心 alpha-2 和 alpha-15 的比较关系，最好用 alpha-02 的格式。
+maven 在版本管理时候可以使用几个特殊的字符串 SNAPSHOT、LATEST、RELEASE。比如 1.0-SNAPSHOT。各个部分的含义和处理逻辑如下说明：
+SNAPSHOT - 这个版本一般用于开发过程中，表示不稳定的版本。
+LATEST - 指某个特定构件的最新发布，这个发布可能是一个发布版，也可能是一个 snapshot 版，具体看哪个时间最后。
+RELEASE ：指最后一个发布版。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>packaging - 项目的类型，描述了项目打包后的输出，默认是 jar。常见的输出类型为：pom, jar, maven-plugin, ejb, war, ear, rar, par。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifactId</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单独项目的唯一标识符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。比如我们的 tomcat、commons 等。不要在 artifactId 中包含点号(.)。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团体、组织的标识符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。团体标识的约定是，它以创建这个项目的组织名称的逆向域名(reverse domain name)开头。一般对应着 java 的包结构。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven 支持继承功能。子 POM 可以使用 parent 指定父 POM ，然后继承其配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POM 是 Project Object Model 的缩写，即项目对象模型。
+pom.xml 就是 maven 的配置文件，用以描述项目的各种信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>POM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven坐标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">根据 groupId、artifactId、version 组合成 groupId:artifactId:version 来唯一识别一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jar 包</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量处理语句：addBatch(sql)
+executeBatch();</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接数据源，如：数据库。
+  Class.forName("org.sqlite.JDBC");     // 要求JVM查找并加载指定的类，此处加载JDBC驱动
+  Connection c = DriverManager.getConnection("jdbc:sqlite:test.db");
+为数据库传递指令。
+  Statement stmt = conn.createStatement();    或者PreparedStatement ptmt = conn.prepareStatement(sql);
+  stmt.executeUpdate(sql);    //插入更新删除
+  ResultSet rs = stmt.executeQuery( "SELECT * FROM COMPANY;" );    //查找
+  c.commit();   //提交事务    conn.setAutoCommit(false)设置为手动提交，默认的是自动提交
+处理数据库响应并返回的结果。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml中配置DataSourceTransantionManager，设置代理对象TransactionProxyFactoryBean。将目标对象作为name是target的属性注入</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决对象和关系数据库互不匹配现象。通过使用他们之间映射的元数据，将对象自动持久化到关系数据库。
+在库中设计表/代码中设计Model类，直接生成另一边。纽带是mapping
+常用：Hibernate(门槛更高)，MyBatis</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种ORM框架。
+几乎所有JDBC代码（包括sql语句)和手动设置参数，获取结果集，通过xml配置或注解实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Access Object，其主要职能是将访问数据库的代码封装起来，让这些代码不会在其它层出现或者暴露出来给其它层
+提供了对JDBC、Hibernate、MyBatis等DAO层支持。依赖commons-dbcp.jar，commons-pool.jar,spring-jdbc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型（业务模型）-控制器controller-视图（用户界面）
+控制器：接受用户输入，解析反馈给模型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>application.properties或application.yml</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用@Value（常用）：  @Value("${Test.Name}")
+2.依赖注入Environment。  
+创建成员变量
+@Autowired
+private Environment env;
+env.getProperty("键名如Test.Nme")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要部署到多个环境，配置有所不同。环境无关属性放到application.properties，相关的放到application-{profile}.properties，然后在application.properties中通过设置spring.profiles.active=profile，加载不同环境的配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用JdbcDaoSupport提供的JdbcTemplate执行SQL语句
+1.准备Model类（包含若干属性和set,get)
+2.定义接口类执行对Model类的某些操作
+3.继承JdbcDaoSupport类，并实现2的接口，通过getJdbcTemplate，执行相应方法queryForList(sql)
+查询或者使用template.query(sql, new RowMapper&lt;User&gt;())
+RowMapper定义每行记录封装成怎么样的，重写</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User mapRow(ResultSet resultSet, int i)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.数据库名称地址等属性在xml的dataSource属性中设置</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/article/1062946</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化Spring的配置
+可直接使用java的main方法启动内嵌的Tomcaqt，Jetty服务器运行Spring Boot程序，不需要部署war包文件
+提供约定的starter POM简化Maven配置，方便包管理
+运行中应用状态的监控
+内嵌Servlet容器，降低了对环境的要求，可以使用命令直接执行项目，应用可用jar包执行：java -jar
+自动配置Spring、Spring MVC等开源框架
+基本可以完全不使用xml，使用注解配置
+适合做微服务</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1983,6 +5354,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2001,12 +5381,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2015,9 +5398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2043,18 +5423,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2074,15 +5476,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189990</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>1441450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6172200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>6423660</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2105,8 +5507,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028315" y="1597025"/>
-          <a:ext cx="4982210" cy="2378075"/>
+          <a:off x="3094990" y="1539875"/>
+          <a:ext cx="4982210" cy="2538095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2123,13 +5525,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3848100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>111919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>135903</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>687137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2159,6 +5561,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1409699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2017E6D6-02D5-B183-9D73-51C7E09A2A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9852660" y="428592"/>
+          <a:ext cx="5305998" cy="3907187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2453,10 +5921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2467,7 +5935,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -2476,23 +5944,23 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2512,750 +5980,1044 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6" t="s">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="6" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" t="s">
+      <c r="C34" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>32</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" t="s">
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B42" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="6" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="C82" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="18"/>
+    </row>
+    <row r="94" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="C108" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="114" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="14"/>
-    </row>
-    <row r="84" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="C98" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>46</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>47</v>
+      <c r="C136" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A41:A51"/>
-    <mergeCell ref="A76:A80"/>
+  <mergeCells count="31">
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="A124:A130"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="A86:A90"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A63:A69"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3265,6 +7027,342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="136.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="C13" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="216" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="C33" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="C35" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C35" r:id="rId1" xr:uid="{575E13C0-564B-4E33-87BE-521E6F7E38C9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADC6B30-4C05-41E2-822F-2F8A02956522}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="123.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75325BA1-ABEA-4E53-A703-E21091941D44}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="138.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3279,37 +7377,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3322,31 +7420,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="95" customWidth="1"/>
+    <col min="1" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3355,16 +7467,81 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B8157-79BD-4DE2-A06E-1FC139644207}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="140.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="C7" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC82FB8-BE96-4E0D-8560-2E4D3E55BD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE963E38-7E90-4F96-A237-7180BB0CB0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
-    <sheet name="Spring" sheetId="4" r:id="rId2"/>
-    <sheet name="Spring MVC" sheetId="6" r:id="rId3"/>
-    <sheet name="Spring Boot" sheetId="7" r:id="rId4"/>
-    <sheet name="Tomcat" sheetId="1" r:id="rId5"/>
-    <sheet name="Mybatis" sheetId="3" r:id="rId6"/>
-    <sheet name="Maven" sheetId="5" r:id="rId7"/>
+    <sheet name="Tomcat" sheetId="1" r:id="rId2"/>
+    <sheet name="Maven" sheetId="5" r:id="rId3"/>
+    <sheet name="Servlet" sheetId="8" r:id="rId4"/>
+    <sheet name="Spring" sheetId="4" r:id="rId5"/>
+    <sheet name="Spring MVC" sheetId="6" r:id="rId6"/>
+    <sheet name="Spring Boot" sheetId="7" r:id="rId7"/>
+    <sheet name="Mybatis" sheetId="3" r:id="rId8"/>
+    <sheet name="IDEA快捷键" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="398">
   <si>
     <t>SE,EE</t>
   </si>
@@ -354,9 +356,6 @@
     <t>Tomcat:轻量级WEB服务器，支持jsp,servlet</t>
   </si>
   <si>
-    <t>JBoss</t>
-  </si>
-  <si>
     <t>WebLogic:Oracle的</t>
   </si>
   <si>
@@ -789,36 +788,6 @@
       </rPr>
       <t>，用StringBuffer。
 （2）不要使用String类的"+"来进行频繁的拼接，因为那样的性能极差的，应该使用StringBuffer或StringBuilder类，这在Java的优化上是一条比较重要的原则。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>int,double,char等。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>传值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，实参不跟着变。
-基本类型变为引用传参：改为数组或者封装到自定义类</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4313,21 +4282,11 @@
     <t>ApplicationContext</t>
   </si>
   <si>
-    <t>设计的对象由容器控制创建，而不是直接在对象内部直接控制new，即正向</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>生产管理bean。可以理解为就是个 HashMap，Key 是 BeanName，Value 是 Bean 实例。通常只提供注册（put），获取（get）这两个功能。我们可以称之为 “低级容器”。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>更常用，可以称之为 “高级容器”。因为他比 BeanFactory 多了更多的功能。他继承了多个接口。因此具备了更多的功能。例如资源的获取，支持多种消息（例如 JSP tag 的支持），对 BeanFactory 多了工具级别的支持等待。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取Bean实例：
-ClassPathXmlApplicationContext方法，从类路径classpath下加载xml配置文件
-FileSystemXmlApplicationContext方法，从文件系统中加载配置文件（项目根目录），若想用classpath路径，需加"classpath:"</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4407,126 +4366,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">注解：在类定义上面加注解 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Component（org.springframework.stereotype.Component)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，Spring容器识别，自动转换为管理的bean
-其他注解：让用途更清晰，并各自具有特殊功能
-@Repository: 对DAO实现类标注
-@Service：对Service实现类标注
-@Controller：对Controller类标注</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>XML：设置bean的属性和相互依赖，通常定义id和class属性
 &lt;bean id="user" class="com.demo.model.UserBean"&gt;&lt;/bean&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">java类
-import org.springframework.context.annotation.Bean
-import org.springframework.context.annotation.Configuration
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Configuration    为Spring容器提供bean定义信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-public class AppConf{
-  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Bean    提供了一个bean的定义信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  public CleanAir cleanair(){
-  return new CleanAir();
-}   }
-最后在xml中配置</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>开启context扫描</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，实现bean的配置
-&lt;context:component-scan base-package="com.demo.model"/&gt;</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4676,185 +4517,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">注解：
-告诉Spring开启注解：&lt;context:annotation-config /&gt; 或  &lt;context:component-scan base-package="com.demo.model"/&gt;
-常用：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Autowired</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：默认按</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类型匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">注入bean，可对成员变量，方法，构造函数，自动装配，去找相应类型bean，如果只有一个就直接装配，不止一个就按名称查找，找不到抛出异常
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Qualifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：配合Autowired使用，指定注入哪个
-例：@Autowired
-    @Qualifier(value="cleanair")
-    IAir air
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：默认按</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名称匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">注入bean，若属性为空，采用标注处变量名作为bean名称。若未指定名称，并且没有同名bean，退化为Autowwired，按类型注入
-例：@Resource(name="CleanAir")
-    IAir air
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：适用于属性的setter方法，表示bean属性要在xml文件配置时进行填充
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：为属性设置默认值</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Bean作用域，生命周期</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4901,17 +4563,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>横切关注点：AOP把业务流程分为若干部分，每部分单独处理，组装为完整的业务流，每部分成为关注点
-切面：对关注点的抽象
-连接点：被拦截到的方法（如某方法中要插入日志，权限等）
-切入点：对连接点进行拦截的定义，不一定每个连接点都进行操作
-通知：拦截了连接点之后要执行的代码
-目标对象：动态代理的目标对象
-织入：把切面放到目标对象中，使用动态代理。Aop.framework.ProxyFactory用作织入器
-引入：不改代码同时，为类动态地添加方法或字段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>实现</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4942,13 +4593,6 @@
       </rPr>
       <t>（可以不用为每个接口单独创建代理，只需和InvocationHandler接口对象bind，或者Proxy(class))。在类上面包装一层，在原类方法前后加固定的一些代码</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典基于代理：
-实现接口MethodBeforeAdvice，AfterReturningAdvice，ThrowsAdvice，即拦截器
-pom中引入依赖spring-aop，spring-context
-xml文件中写注入</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4958,64 +4602,6 @@
   </si>
   <si>
     <t>JAVAEE体系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用层，Web层(Spring MVC)，业务层(Spring)，持久层(MyBatis)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AspectJ基于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的配置,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>提倡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-配置自动扫描的包&lt;context:component-scan…&gt;，配置&lt;aop:aspectj-autoproxy&gt;
-注解@Aspect定义切面</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5275,12 +4861,1795 @@
 适合做微服务</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin/startup.bat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat就是提供能够让别人访问自己写的页面的一个程序。是JSP和Serlvet的一个容器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署工程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目代码拷贝到webapps目录
+2.conf中新建xml文件配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet接口定义的是一套处理网络请求的规范，所有实现servlet的类，都需要实现它那五个方法，其中最主要的是两个生命周期方法 init()和destroy()，还有一个处理请求的service()，也就是说，所有实现servlet接口的类，或者说，所有想要处理网络请求的类，都需要回答这三个问题：你初始化时要做什么你销毁时要做什么你接受到请求时要做什么
+tomcat才是与客户端直接打交道的家伙，他监听了端口，请求过来后，根据url等信息，确定要将请求交给哪个servlet去处理，然后调用那个servlet的service方法，service方法返回一个response对象，tomcat再把这个response返回给客户端。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet接口的实现类处理特定的请求，返回响应结果。Tomcat是包含处理请求整体流程的框架</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>javax.Servlet</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Servlet程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int,double,char等。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，实参不跟着变。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基本类型变为引用传参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：改为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>封装到自定义类</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命周期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt+insert</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet构造器方法
+init方法
+前两个是第一次访问时创建Servlet程序时调用
+service
+destroy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+h</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看继承关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpServletResponse</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt+enter</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码自动生成，如生成对象的 set / get 方法，构造函数，toString() 等</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA 根据光标所在问题，提供快速修复选择，光标放在的位置不同提示的结果也不同 （必备）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + L</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化代码，可以对当前文件和整个包目录使用 （必备）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Y</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除光标所在行 或 删除选中的行 （必备）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + +</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + -</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">getOutputStream()    字节流，常用于下载，传二进制数据
+PringWriter xx = xx.getWriter()    字符流，回传字符串，常用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二者只能同时存在一个</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求重定向</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户端，    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web层(Servlet,Spring MVC)，service业务层(Spring)，DAO持久层(MyBatis,JDBC,JdbcTemplate,JPA,DBUtils)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + T</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对选中的代码弹出环绕选项弹出层，快速添加if,for,try语句</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Up / Down</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码向上/下移动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在进行父类向子类的转换时，一个好的习惯是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instanceof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>运算符来判断父类变量是否是该子类的一个实例，否则在运行时会抛出运行异常ClassCastException，表示类转换异常</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>public、protected、包访问权限(默认)、private，如果省略了访问修饰符，那默认访问权限为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>包访问权限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。 四种权限从最大权限到最小权限分别是：
+public &gt; protected &gt; 包访问权限&gt; private</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>包访问权限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没有任何修饰符的权限就是包访问权限，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的所有类都</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个成员，如表中所示，对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本包之外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的类，这个成员就变成了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，访问不了</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建：new Cookie
+发给客户端：resp.addCookie</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取：req.getSession
+判断是否新的：isNew
+获取ID：session.getID     session会话唯一ID值
+存数据：ession.setAttribute("key","value")
+获取数据：session.getAttribute("key")
+超时设置：setMaxInactiveInterval,getMaxInactiveInterval</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化构建(make-&gt;ant-&gt;maven-&gt;gradle),编译，部署，搭建
+编译：源文件-&gt;编译-&gt;class字节码文件-&gt;给JVM执行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>Maven 仓库能帮助我们管理构件（主要是JAR），它就是放置所有JAR文件（WAR，ZIP，POM等等）的地方。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>本地（local）：如果本地仓库没有，它会首先尝试从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程仓库下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>构件至本地仓库，然后再使用本地仓库的构件</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央（central）：由 Maven 社区提供的仓库，其中包含了大量常用的库</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA使用Maven</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载包的位置：m2/repository</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用骨架（archetype)，即项目模板
+常用：maven-archetype-quickstart普通项目/webapp
+右侧构建设置：compile编译,package生产jar包
+pox.xml中pluginManagement标签中的内容用不到可以删掉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jboss，Jetty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>webapp项目，添加服务器，在pom的build下添加plugins和plugin标签</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程（remote）：开发人员自己定制仓库，包含了所需要的代码库或者其他工程中用到的 jar 文件。如局域网中的私服</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护class文件和一些元信息
+java项目产生jar包，web项目产生war包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递依赖产生冲突（版本冲突）：exclusion</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>server+applet，即服务端小程序</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + I</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择可</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继承</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择可</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.实现Servlet接口或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HttpServlet（通常用，重写deGet,dePost）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，关键是实现service方法，对请求进行处理，返回HttpServletResponse
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中配置这个类的访问地址 或 在类前面添加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@webServlet("/ser1")，指定访问的路径</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖范围scope：
+compile:默认的，编译测试允许都依赖
+test：编译测试代码和运行测试时需要
+runtime:测试、运行时依赖，编译不依赖（JDBC驱动）
+provided：只在编译时依赖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求转发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能转到当前站点下资源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应码302，客户端发请求，服务端返回新的地址。可以跨域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServletContext</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存应用程序相关信息(getRealPath获取资源真实路径)，可以用来共享数据
+生存周期与应用程序一致
+获取该对象：通过request/session/servletConfig调用getServletContext</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-context</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速写出main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>psvm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境搭建</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Maven普通项目
+添加IoC坐标，spring-context
+添加类
+准备spring.xml，添加Bean
+ClassPathXmlApplicationContext加载xml，gettBean</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设计的对象由容器控制创建，而不是直接在对象内部直接控制new，即正向。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象实例化+对象的属性赋值操作（注入）</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.print
+xxx.sout</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获取Bean实例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ClassPathXmlApplicationContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法，从类路径classpath下加载xml配置文件
+FileSystemXmlApplicationContext方法，不推荐使用，从文件系统中加载配置文件（项目根目录），写</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝对路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，若想用classpath路径，需加"classpath:"</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象实例化分析：
+1.工厂模式（ApplicationContext）
+2.解析xml Bean标签
+3.反射实例化Bean对象</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>横切关注点：AOP把</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>流程分为若干部分，每部分单独处理，组装为完整的业务流，每部分成为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关注点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+切面：对关注点的抽象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拦截</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（如某方法中要插入日志，权限等）
+切入点：对连接点进行拦截的定义，不一定每个连接点都进行操作（对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接点匹配的规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">定义）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：拦截了连接点之后要执行的代码（例如日志），分前置通知、返回通知
+目标对象：动态代理的目标对象
+织入：把切面应用到目标对象，并生成动态</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代理对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。Aop.framework.ProxyFactory用作织入器
+引入：不改代码同时，在程序运行期为类动态地添加方法或字段</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">java类
+import org.springframework.context.annotation.Bean
+import org.springframework.context.annotation.Configuration
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Configuration    为Spring容器提供bean定义信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public class AppConf{
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Bean    提供了一个bean的定义信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  public CleanAir cleanair(){
+  return new CleanAir();
+}   }
+最后在xml中配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启context扫描</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实现bean的配置
+&lt;context:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component-scan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> base-package="com.demo.model"/&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>经典基于代理：
+实现接口MethodBeforeAdvice，AfterReturningAdvice，ThrowsAdvice，即拦截器
+pom中引入依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AspectJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，（spring-context）
+xml文件中写注入</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AspectJ基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的配置,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提倡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+配置自动扫描的包&lt;context:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component-scan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…&gt;，配置开启aop环境</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;aop:aspectj-autoproxy/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+注解@Aspect定义切面</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**回车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**
+ * 
+ */</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IoC对象的依赖注入/装配（手动）：
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set注入（推荐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）：set方法，property标签
+2.构造器注入
+3.静态工厂
+4.实例化工厂</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoC装配</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化装配</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解注入
+1.xml中加入context命名空间xmlns(namespace,ns)，xsd地址
+2.添加&lt;context:annotation-config/&gt;配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注解：
+添加maven依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javax.annotation-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+告诉Spring开启注解：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;context:annotation-config /&gt; 或  &lt;context:component-scan base-package="com.demo.model"/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+常用：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：默认按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入bean，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和成员变量名称无关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，可对成员变量，方法，构造函数，自动装配，去找相应类型bean，如果只有一个就直接装配，不止一个就按名称查找，找不到抛出异常
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：配合Autowired使用，指定注入哪个
+例：@Autowired
+    @Qualifier(value="cleanair")
+    IAir air
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：默认按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成员变量名称匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注入bean，若属性为空，采用标注处变量名作为bean名称。若未指定名称，并且没有同名bean，退化为Autowwired，按类型注入
+例：@Resource(name="CleanAir")
+    IAir air
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：适用于属性的setter方法，表示bean属性要在xml文件配置时进行填充
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：为属性设置默认值</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫描器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件扫描器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context:component-scan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> base-package="com.wxy.auto"/&gt;   配置扫描包范围，省去bean标签配置
+并不用再使用&lt;context:annotation-config/&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">注解：在类定义上面加注解 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Component（org.springframework.stereotype.Component)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，Spring容器识别，自动转换为管理的bean
+其他注解：让用途更清晰，并各自具有特殊功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 对DAO实现类标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：对Service实现类标注
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：对Controller类标注
+getBean时的名字：id遵从：不指定bean的名称，默认为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类名首字母小写其它不变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，之后赋给id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5363,6 +6732,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5389,7 +6775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5435,10 +6821,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5447,11 +6851,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5525,13 +6929,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3848100</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>111919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>135903</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>687137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5572,16 +6976,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4198620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DAF035-F013-13F7-7909-71E4969021D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417820" y="4952616"/>
+          <a:ext cx="6606540" cy="1305079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>62832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>596838</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1409699</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5627,6 +7080,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4610101</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C96311-6BC4-6F94-C0C8-88B5E7B75D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934201" y="179474"/>
+          <a:ext cx="6057900" cy="1959233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5921,10 +7418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5935,7 +7432,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -5944,21 +7441,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -5985,1039 +7482,1082 @@
         <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>188</v>
+        <v>351</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="8" t="s">
+    <row r="43" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="C60" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="22"/>
+      <c r="B63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="22"/>
+      <c r="B67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="22"/>
+      <c r="B72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="22"/>
+      <c r="B73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="22"/>
+      <c r="B83" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="22"/>
+      <c r="B86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="22"/>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="22"/>
+      <c r="B88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A91" s="22"/>
+      <c r="B91" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="22"/>
+      <c r="B92" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="22"/>
+      <c r="B94" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="24"/>
+    </row>
+    <row r="98" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A99" s="22"/>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="22"/>
+      <c r="C112" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A113" s="22"/>
+      <c r="B113" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A114" s="22"/>
+      <c r="B114" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="22"/>
+      <c r="B115" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A116" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8" t="s">
+      <c r="C116" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="22"/>
+      <c r="B117" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="22"/>
+      <c r="B118" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="22"/>
+      <c r="B119" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A120" s="22"/>
+      <c r="B120" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A121" s="22"/>
+      <c r="B121" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="22"/>
+      <c r="B124" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A125" s="22"/>
+      <c r="B125" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="22"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="10" t="s">
+    <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A131" s="22"/>
+      <c r="B131" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C136" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="8" t="s">
+    </row>
+    <row r="137" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A137" s="22"/>
+      <c r="B137" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A138" s="22"/>
+      <c r="B138" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A139" s="22"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-    </row>
-    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    <row r="141" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A141" s="21"/>
+      <c r="B141" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A142" s="21"/>
+      <c r="B142" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A143" s="21"/>
+      <c r="B143" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A144" s="21"/>
+      <c r="B144" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A145" s="21"/>
+      <c r="B145" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C146" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B93" s="18"/>
-    </row>
-    <row r="94" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="C108" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="B127" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
-      <c r="B130" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>195</v>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="A124:A130"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A90:A94"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="A140:A145"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="A128:A134"/>
+    <mergeCell ref="A123:A126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7027,11 +8567,385 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="122.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B8157-79BD-4DE2-A06E-1FC139644207}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="140.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="C9" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="C10" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="C11" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B16:B18"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123FD61-AEEA-4BA8-BBC6-77074C0356A3}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="135.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7043,10 +8957,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7054,230 +8968,317 @@
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="C15" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="7" t="s">
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="C23" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="C13" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="C31" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B35" s="25"/>
+      <c r="C35" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="25"/>
+      <c r="C36" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="25"/>
+      <c r="C37" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
+    <row r="38" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B38" s="26" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="8" t="s">
+    <row r="39" spans="1:3" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="B39" s="26"/>
+      <c r="C39" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+    <row r="41" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B41" s="22"/>
+      <c r="C41" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="216" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="C44" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="C46" s="16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="C33" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="C35" s="19" t="s">
-        <v>303</v>
+    <row r="49" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="10">
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C35" r:id="rId1" xr:uid="{575E13C0-564B-4E33-87BE-521E6F7E38C9}"/>
+    <hyperlink ref="C46" r:id="rId1" xr:uid="{575E13C0-564B-4E33-87BE-521E6F7E38C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADC6B30-4C05-41E2-822F-2F8A02956522}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -7293,10 +9294,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7305,11 +9306,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75325BA1-ABEA-4E53-A703-E21091941D44}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7321,36 +9322,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>296</v>
+      <c r="A3" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>299</v>
+        <v>287</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7362,65 +9363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="122.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A4"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -7436,20 +9379,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="14" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7467,81 +9410,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607B8157-79BD-4DE2-A06E-1FC139644207}">
-  <dimension ref="A1:C9"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C0D4B-61F5-4DA1-BD3E-1B4A57D6128A}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="140.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+        <v>305</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>307</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="C7" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A7"/>
-  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23512D02-B859-4857-9591-DA427A15298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B487D-70CF-48FD-95F1-5A1BCB1EC4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,11 @@
     <sheet name="Mybatis" sheetId="3" r:id="rId6"/>
     <sheet name="Spring MVC" sheetId="6" r:id="rId7"/>
     <sheet name="Spring Boot" sheetId="7" r:id="rId8"/>
-    <sheet name="AJAX" sheetId="12" r:id="rId9"/>
-    <sheet name="Spring cloud" sheetId="11" r:id="rId10"/>
+    <sheet name="Spring cloud" sheetId="11" r:id="rId9"/>
+    <sheet name="MQ" sheetId="13" r:id="rId10"/>
     <sheet name="IDEA快捷键" sheetId="9" r:id="rId11"/>
     <sheet name="前端" sheetId="10" r:id="rId12"/>
+    <sheet name="AJAX" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="664">
   <si>
     <t>SE,EE</t>
   </si>
@@ -1659,12 +1660,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int[] myArray = new int[5];          只决定数组元素的长度，系统分配元素初始值。实例化后填充默认值：char空格，String空值null，boolean为false
-String[] names = new String[]{"张三","李四","王五"}；
-String[] books = {"射雕英雄传","天龙八部","笑傲江湖"}；   手动初始值，系统决定大小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>int[][] myArray = new int[4][2]
 注意</t>
@@ -3973,12 +3968,6 @@
   </si>
   <si>
     <t>同步</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>synchronized修饰某方法，使其变为临界区
-1.修饰run()
-2.在run内部，使用synchronized(this){    }, 得到同步代码块。判断条件前后各一次，防止有多个线程同时通过第一次检查</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -10561,200 +10550,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">通过Executors提供四种线程池
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>newCachedThreadPool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：创建一个可缓存的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">线程池，如果线程池长度超过处理需要，可灵活回收空线程，若无可回收，则新建线程。当线程池中的线程空闲时间超过60s，则会自动回收该线程，当任务超过线程池的线程数则创建新的线程，线程池的大小上限为Integer.MAX_VALUE,可看作无限大。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>newFixedThreadPool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：创建一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>指定大小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">的线程池，可控制线程的最大并发数，超出的线程会在LinkedBlockingQueue阻塞队列中等待
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>newScheduledThreadPool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：创建一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>定长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">的线程池，可以指定线程池核心线程数，支持定时及周期性任务的执行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>newSingleThreadExecutor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：创建一个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>单线程化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的线程池，它只有一个线程，用仅有的一个线程来执行任务，保证所有的任务按照指定顺序（FIFO，LIFO，优先级）执行，所有的任务都保存在队列LinkedBlockingQueue中，等待唯一的单线程来执行任务。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>join，暂定当前线程执行，直到调用join方法的线程执行结束
 sleep，阻塞一段时间，</t>
     </r>
@@ -10952,6 +10747,1431 @@
       <t>这样就不会存在线程不安全问题。
 原理：理解成HashMap，key为线程号，value为对应的数据。使用时可以直接进行get,set，不会产生干扰
 例：ThreadLocal&lt;String&gt; threadLocal1 = new ThreadLocal&lt;&gt;();</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Builder</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为这个类生成构建器/建造者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>builder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成员方法</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>message queue，消息队列，也叫消息中间件。主要用于各个系统之间通信的解耦。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>功能：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>异步处理、削峰、解耦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+异步：A调用完B后，监听B处理完成的消息，处理完成后会发一个消息给MQ，MQ转发给A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见协议</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMS，STOMP，AMQP，MQTT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Producer消息生产者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumer消息消费者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broker消息处理中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心概念</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责产生和发送消息到 Broker</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责从 Broker 中获取消息，并进行相应处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布订阅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点对点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange交换机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责消息存储、确认、重试等，会包含多个交换机和queue，交换机绑定多个queue。
+存储可以做成很多方式，比如存储在内存里，存储在分布式KV里，存储在磁盘里，存储在数据库里等等，存储的选型需要综合考虑性能/高可用和开发维护成本等诸多因素。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收生产者的消息，推送到消息队列，根据分发规则，匹配查询表中的routing key，分发消息到queue中（特定的/多个队列/丢弃）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDK标准Map中不能有多个相同key,当要处理一个key对多个value的情况，可以将所有value存放在一个集合中。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int[] myArray = new int[5]; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态初始化：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">程序员只决定数组元素的长度，系统分配元素初始值。实例化后填充默认值：char空格，String空值null，boolean为false
+String[] names = new String[]{"张三","李四","王五"}；    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静态初始化：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程序员决定数组元素的初始值，系统决定长度
+String[] books = {"射雕英雄传","天龙八部","笑傲江湖"}；   或者</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>数组变量是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型的变量，数组变量在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内存中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存放在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堆内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数组对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>声明数组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">volatile </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量可见性问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：出于计算性能的考虑，每个线程默认是从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将该变量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到线程所在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，然后进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作的。现在电脑基本都是多核CPU，不同的线程可能运行的不同的核上，而每个核都会有自己的缓存空间。存在问题：JVM 既不会保证什么时候把 CPU 缓存里的数据写到主内存，也不会保证什么时候从主内存读数据到 CPU 缓存。也就是说，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同 CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 上的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，对同一个变量可能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读取到的值是不一致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，即</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程间的不可见问题</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>synchronized修饰某方法，使其变为临界区。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>synchronized</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Atomic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXX 类都可以保证</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原子性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，前者是基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的原理实现的原子性（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>悲观锁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">），而后者则是基于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAS 原则（乐观锁）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.修饰run()
+2.在run内部，使用synchronized(this){    }, 得到同步代码块。判断条件前后各一次，防止有多个线程同时通过第一次检查</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修饰变量，表示：该变量需要直接</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>储到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作会直接从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中读取，而不是从 CPU 缓存。Volatile 可以保证变量变化在多线程间的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可见性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并且改变量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之前的变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的修改也会被其他线程</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。（ volatile、synchronized 和 final 实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可见性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：当某个变量只会被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个线程修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并行线程只会执行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号量Semaphore</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是一种计数器，用来保护一个或者多个共享资源的访问。如果线程要访问一个资源就必须先获得信号量。如果信号量内部计数器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大于0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，信号量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后允许共享这个资源；否则，如果信号量的计数器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等于0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，信号量将会把线程置入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>休眠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直至计数器大于0。当信号量使用完时，必须释放</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泛型标记符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+E - Element (在集合中使用，因为集合中存放的是元素)
+T - Type（Java 类）
+K - Key（键）
+V - Value（值）
+N - Number（数值类型）
+？ - 表示不确定的 java 类型</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serializable</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Serializable是java.io包中定义的、用于实现Java类的序列化操作而提供的一个语义级别的接口。Serializable序列化接口没有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任何方法或者字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，只是用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标识可序列化的语义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。实现了Serializable接口的类可以被ObjectOutputStream转换为字节流，同时也可以通过ObjectInputStream再将其解析为对象。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThreadPoolExecutor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Executors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，ThreadPoolExecutor类可以自定义传入我们设置的线程池的参数，更加灵活；Executors类创建线程池的时候实际就是调用ThreadPoolExecutor类的构造方法
+通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Executors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">提供四种线程池：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newCachedThreadPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：创建一个可缓存的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">线程池，如果线程池长度超过处理需要，可灵活回收空线程，若无可回收，则新建线程。当线程池中的线程空闲时间超过60s，则会自动回收该线程，当任务超过线程池的线程数则创建新的线程，线程池的大小上限为Integer.MAX_VALUE,可看作无限大。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newFixedThreadPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：创建一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的线程池，可控制线程的最大并发数，超出的线程会在LinkedBlockingQueue阻塞队列中等待
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newScheduledThreadPool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：创建一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的线程池，可以指定线程池核心线程数，支持定时及周期性任务的执行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>newSingleThreadExecutor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：创建一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单线程化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的线程池，它只有一个线程，用仅有的一个线程来执行任务，保证所有的任务按照指定顺序（FIFO，LIFO，优先级）执行，所有的任务都保存在队列LinkedBlockingQueue中，等待唯一的单线程来执行任务。</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -11081,7 +12301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11176,16 +12396,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -12176,10 +13399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12190,7 +13413,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -12199,21 +13422,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -12240,23 +13463,23 @@
         <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -12269,11 +13492,11 @@
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
@@ -12282,14 +13505,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -12312,7 +13535,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -12323,7 +13546,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -12332,7 +13555,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -12341,7 +13564,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -12350,7 +13573,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -12359,7 +13582,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -12368,7 +13591,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -12377,7 +13600,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -12386,7 +13609,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -12395,21 +13618,21 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="C41" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
@@ -12427,7 +13650,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -12438,14 +13661,14 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
@@ -12454,7 +13677,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -12463,7 +13686,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -12472,7 +13695,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
@@ -12481,14 +13704,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
@@ -12497,95 +13720,95 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="C58" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="8" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
-        <v>173</v>
+      <c r="A60" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="10" t="s">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="32" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
@@ -12603,16 +13826,16 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="32" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="7" t="s">
         <v>91</v>
       </c>
@@ -12621,14 +13844,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
@@ -12637,25 +13860,25 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="7" t="s">
         <v>98</v>
       </c>
@@ -12664,7 +13887,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
@@ -12673,16 +13896,16 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -12692,7 +13915,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -12701,7 +13924,7 @@
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
-      <c r="B77" s="31"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="8" t="s">
         <v>103</v>
       </c>
@@ -12712,11 +13935,11 @@
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="32" t="s">
         <v>104</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -12727,7 +13950,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="7" t="s">
         <v>106</v>
       </c>
@@ -12747,37 +13970,37 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="32" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -12785,14 +14008,14 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
+      <c r="A87" s="32"/>
       <c r="B87" t="s">
         <v>42</v>
       </c>
@@ -12801,7 +14024,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+      <c r="A88" s="32"/>
       <c r="B88" t="s">
         <v>43</v>
       </c>
@@ -12810,7 +14033,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
@@ -12821,609 +14044,659 @@
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
     </row>
-    <row r="91" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+    <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A92" s="32"/>
+      <c r="B92" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="7" t="s">
+    <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="7" t="s">
+    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A95" s="32"/>
+      <c r="B95" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
-      <c r="B95" s="7" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="32"/>
+      <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="97" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="33"/>
-    </row>
-    <row r="99" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
+      <c r="B99" s="35"/>
+    </row>
+    <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A100" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" t="s">
+    <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="32"/>
+      <c r="B101" t="s">
         <v>49</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="32"/>
+      <c r="B102" t="s">
         <v>51</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="32"/>
+      <c r="B103" t="s">
         <v>52</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B104" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="11" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="32"/>
+      <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
+      <c r="C106" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C107" s="7" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="3" t="s">
+    <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" t="s">
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="32"/>
+      <c r="B110" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="32"/>
+      <c r="B111" t="s">
         <v>58</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B111" s="7" t="s">
+    <row r="113" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="21"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="C115" s="7" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="32"/>
+      <c r="C117" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="7" t="s">
+    <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A118" s="32"/>
+      <c r="B118" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="7" t="s">
+    <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A119" s="32"/>
+      <c r="B119" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="7" t="s">
+      <c r="C119" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A120" s="32"/>
+      <c r="B120" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="31" t="s">
+    </row>
+    <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C121" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="7" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="32"/>
+      <c r="B122" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C122" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="7" t="s">
+    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A123" s="32"/>
+      <c r="B123" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="7" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
+      <c r="B124" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="31" t="s">
-        <v>167</v>
-      </c>
+    <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
+      <c r="B125" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="32"/>
       <c r="B126" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A129" s="32"/>
+      <c r="B129" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C129" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A130" s="32"/>
+      <c r="B130" s="7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="7" t="s">
+      <c r="C130" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C128" s="8" t="s">
+    </row>
+    <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="32"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A130" s="22"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="31" t="s">
+      <c r="B134" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B132" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="C134" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="32"/>
+      <c r="B137" s="7" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
-      <c r="B135" s="7" t="s">
+      <c r="C137" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="32"/>
+      <c r="B138" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="31" t="s">
+      <c r="C138" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A141" s="32"/>
+      <c r="B141" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C141" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="31"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="8" t="s">
+    <row r="142" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A142" s="32"/>
+      <c r="B142" s="23" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="8" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="23" t="s">
+      <c r="C142" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A143" s="32"/>
+      <c r="B143" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C143" s="8" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
-      <c r="B143" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
-      <c r="B144" s="7" t="s">
-        <v>193</v>
+    <row r="144" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A144" s="32"/>
+      <c r="B144" s="32" t="s">
+        <v>653</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
-      <c r="B145" s="7"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
       <c r="C145" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="32" t="s">
-        <v>45</v>
+        <v>654</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="32"/>
+      <c r="B146" s="31" t="s">
+        <v>657</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A147" s="32"/>
-      <c r="B147" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>199</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A148" s="32"/>
       <c r="B148" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A149" s="32"/>
       <c r="B149" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A150" s="32"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A152" s="34"/>
+      <c r="B152" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A153" s="34"/>
+      <c r="B153" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A154" s="34"/>
+      <c r="B154" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C149" s="8" t="s">
+    </row>
+    <row r="155" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A155" s="34"/>
+      <c r="B155" s="8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="32"/>
-      <c r="B150" s="8" t="s">
+      <c r="C155" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A156" s="34"/>
+      <c r="B156" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A151" s="32"/>
-      <c r="B151" s="8" t="s">
+      <c r="C156" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C151" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="34" t="s">
+    </row>
+    <row r="157" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A157" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A158" s="33"/>
+      <c r="B158" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="A159" s="33"/>
+      <c r="B159" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="C159" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A166" s="32"/>
+      <c r="C166" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="32"/>
+      <c r="C169" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A170" s="32"/>
+      <c r="C170" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C152" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
-      <c r="C161" s="8" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
-      <c r="C164" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A165" s="31"/>
-      <c r="C165" s="8" t="s">
+    </row>
+    <row r="171" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A171" s="32"/>
+      <c r="C171" s="8" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
-      <c r="C166" s="8" t="s">
-        <v>425</v>
+    <row r="173" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A146:A151"/>
-    <mergeCell ref="A142:A145"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B136:B138"/>
-    <mergeCell ref="A132:A141"/>
+  <mergeCells count="35">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A40"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A116:A120"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B76:B77"/>
@@ -13432,18 +14705,22 @@
     <mergeCell ref="A85:A89"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A119:A124"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="A134:A146"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="A121:A126"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13453,194 +14730,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5113F-0D10-4F04-A669-59EC91AE9608}">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B3784F-1E76-4A47-8895-7201AC974D92}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="127.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="142.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>610</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
-        <v>625</v>
+      <c r="C1" s="8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="C2" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13660,151 +14838,151 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -13832,29 +15010,75 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C207688-3FB4-46FB-AC0A-82216CE6A055}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="123" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13873,7 +15097,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -13881,19 +15105,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -13903,10 +15127,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -13919,18 +15143,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -13959,18 +15183,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13979,181 +15203,181 @@
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>262</v>
+      <c r="A7" s="32" t="s">
+        <v>260</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="C11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="C12" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="C13" s="8" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>605</v>
-      </c>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>595</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C32" s="8" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="8" t="s">
+    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -14184,12 +15408,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14197,36 +15421,36 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -14235,26 +15459,26 @@
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -14275,18 +15499,18 @@
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -14298,10 +15522,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -14313,10 +15537,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14356,72 +15580,72 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>225</v>
+      <c r="A11" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>224</v>
+      <c r="A14" s="32" t="s">
+        <v>222</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="C15" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>379</v>
-      </c>
       <c r="C16" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -14430,297 +15654,305 @@
       <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>226</v>
+      <c r="A21" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="33"/>
       <c r="C23" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="31" t="s">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="8" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>231</v>
+      <c r="A29" s="32" t="s">
+        <v>229</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="C32" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
+      <c r="C35" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="B39" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
-      <c r="C35" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
-      <c r="C36" s="24" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
-      <c r="C37" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
-      <c r="C38" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="8" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="B40" s="38"/>
+      <c r="C40" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="230.4" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="C40" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+    <row r="42" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B42" s="32"/>
+      <c r="C42" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="B43" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="C46" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="C46" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>268</v>
-      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="C48" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C54" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>530</v>
+      <c r="A56" s="32" t="s">
+        <v>528</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="25" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="25" t="s">
-        <v>531</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
-        <v>464</v>
+      <c r="A60" s="33" t="s">
+        <v>462</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="25" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="25" t="s">
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="C64" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="C64" s="35" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C65" s="35"/>
+        <v>488</v>
+      </c>
+      <c r="C65" s="36"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>633</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A60:A65"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B34:B38"/>
@@ -14732,6 +15964,7 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A66"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -14758,20 +15991,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14784,138 +16017,138 @@
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="C25" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="C25" s="8" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>556</v>
+      <c r="A27" s="32" t="s">
+        <v>554</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="7" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="32" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>619</v>
-      </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="C36" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -14948,38 +16181,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>272</v>
+      <c r="A1" s="32" t="s">
+        <v>270</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="7" t="s">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14988,181 +16221,181 @@
       <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>386</v>
+      <c r="A7" s="33" t="s">
+        <v>384</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="33"/>
       <c r="C8" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="C9" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>469</v>
+      <c r="A27" s="33" t="s">
+        <v>467</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="7" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="39" t="s">
         <v>477</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B30" s="38" t="s">
+      <c r="C30" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="24" t="s">
         <v>479</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="24" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="24" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="C37" s="8" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="7" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="C40" s="26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="25" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="C44" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="C44" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="C46" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="8" t="s">
-        <v>508</v>
-      </c>
       <c r="C47" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -15185,7 +16418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75325BA1-ABEA-4E53-A703-E21091941D44}">
   <dimension ref="A2:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -15196,33 +16429,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>273</v>
+      <c r="A2" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="C3" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15230,207 +16463,207 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C9" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="C12" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="C13" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="C13" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="7" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="7" t="s">
-        <v>453</v>
-      </c>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>274</v>
+      <c r="A20" s="32" t="s">
+        <v>272</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="C21" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C31" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="7" t="s">
+      <c r="C33" s="29" t="s">
         <v>561</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>577</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -15453,47 +16686,193 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C207688-3FB4-46FB-AC0A-82216CE6A055}">
-  <dimension ref="B1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F5113F-0D10-4F04-A669-59EC91AE9608}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="123" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="127.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="C1" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>512</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>576</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="A33:A35"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/java.xlsx
+++ b/java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218773F-3788-4676-BA2E-A86CD3D2C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B503AB-542A-46D9-8791-3FCDFEDE2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="888">
   <si>
     <t>SE,EE</t>
   </si>
@@ -9874,11 +9874,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>传递多个参数，使用 @Param 注解
-或者用map装</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>向sql传递单个参数,可以不使用 @Param 注解</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -14938,10 +14933,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>export</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>export和export default的区别</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -14954,84 +14945,6 @@
   </si>
   <si>
     <t>ES6模块化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>export与export default均可用于导出常量、函数、文件、模块
-可以在其它文件或模块中通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+(常量 | 函数 | 文件 | 模块)名的方式，将其</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，以便能够对其进行使用
-在一个文件或模块中，export、import可以有多个，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">export default仅有一个
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>通过export方式导出，在导入时要加{ }，export default则不需要</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -15583,6 +15496,1429 @@
   </si>
   <si>
     <t>可代替div作为根标签，有一个key属性可用于遍历</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcc   快速创建类组件
+rfc   快速创建函数式组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装ES7+ React/Redux/React-Native snippets插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeJS
+VS Code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>基于Promise
+该函数前面加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+const response= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(`/api1/search/users2?q=${keyWord}`)
+const data = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> response.json()     //返回的response是Promise实例</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web应用（single page web application，SPA）。
+2.	整个应用只有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个完整的页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+3.	点击页面中的链接不会刷新页面，只会做页面的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>局部更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+4.	数据都需要通过ajax请求获取, 并在前端异步展现。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1)理解：key是某个url， value是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 用来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理客户端提交的请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+2)注册路由： router.get(path, function(req, res))
+3)工作过程：当node接收到一个请求时, 根据请求路径找到匹配的路由, 调用路由中的函数来处理请求, 返回响应数据</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览器端</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路由，value是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于展示页面内容。
+2)注册路由: &lt;Route path="/test" component={Test}&gt;
+3)工作过程：当浏览器的path变为/test时, 当前路由组件就会变为Test组件</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>react-router-dom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：react的一个插件库，用来实现SPA应用，react的项目基本都会用到此库
+1.	一个路由就是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>映射关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系(key:value)
+2.	key为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, value可能是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置组件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.	&lt;BrowserRouter&gt;：在&lt;App&gt;外层包裹
+2.	&lt;HashRouter&gt;：在&lt;App&gt;外层包裹
+3.	&lt;Route&gt;： 展示区进行路径匹配，指明跳转的组件
+4.	&lt;Redirect&gt;
+5.	&lt;Link&gt;： 导航区a标签变为Link
+6.	&lt;NavLink&gt;：点击时高亮
+7.	&lt;Switch&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultmap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态SQL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>if</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>where</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决SQL语句拼接的痛点问题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  //恒成立条件，没有任何影响，防止if里的and拼接到最前面导致出错
+&lt;if test='ename != null </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ename != '' '&gt;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(and)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ename = #{ename}
+&lt;/if&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态生成where，内容前面多余的and或者or会去掉，后面的想去掉用trim</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性：
+prefix, suffix：内容前面/后面添加指定内容
+prefixOverrides, suffixOverrides：去掉指定内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>子标签：when, otherwise
+相当于if … else if …else</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量处理
+delete from xx where id in
+(
+  &lt;foreach collection='ids' item="id" separetor=","&gt;    // ids可通过@param
+  &lt;/foreach&gt;
+)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名参数顺序传参</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>传多个参数：employeeMapper.selectByGenderAndAge(gender,age);
+ gender = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>param1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} and age = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>param2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传递多个参数，使用 @Param 注解： @Param("gender") Short gender,@Param("age") String age
+where gender = #{gender} and age = #{age}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Map params = new HashMap&lt;&gt;();传入参数
+xml: parameterType="map"
+     where gender = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} and age = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}     对应map的key</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>java bean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>parameterType="com.wg.demo.po.Employee"
+where gender = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} and age = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}     参数的引用直接使用bean的字段</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JSONObject </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>parameterType="com.alibaba.fastjson.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSONObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+where gender = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} and age = #{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>List、Set、Array</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象+集合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> &lt;foreach </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" open="(" separator="," close=")" item="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+      #{age}
+    &lt;/foreach&gt;
+1.如果传入的是单参数且参数类型是一个List的时候，collection属性值为list
+2.如果传入的是单参数且参数类型是一个array数组的时候，collection的属性值为array
+3.如果传入的参数是多个的时候，我们就需要把它们封装成一个Map或者Object</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;foreach collection="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>department.employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" open="(" separator="," close=")" item="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+        #{employee.age}
+    &lt;/foreach&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置自定义映射</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;resultMap id="empResultMap" type="Emp"&gt;
+	&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property="eid" column="eid"&gt;&lt;/id&gt;                    id: 设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的映射关系
+	&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property="empName" column="emp_name"&gt;&lt;/result&gt;   result：设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的映射关系
+	&lt;result property="age" column="age"&gt;&lt;/result&gt;
+	&lt;result property="sex" column="sex"&gt;&lt;/result&gt;
+	&lt;result property="email" column="email"&gt;&lt;/result&gt;
+&lt;/resultMap&gt;
+property：设置映射关系中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的属性名
+column：设置映射关系中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的字段名
+&lt;select id="getAllEmp" resultMap="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empResultMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+	select * from t_emp
+&lt;/select&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本数据类型：int、string、long、Date;
+复杂数据类型：类（JavaBean、Integer等）和Map</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.lang.Long
+java.util.ArrayList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String和string的差异：mybatis 中 paramerter中设置 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等同于写入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>java.lang.String；若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等同于传过来的值中所有的类型都是string，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以是List&lt;String&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 也可以是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。那么可以使用xxx.split(',')。如果使用 String 那就不行</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>import与export</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>export与export default均可用于导出常量、函数、文件、模块
+可以在其它文件或模块中通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+(常量 | 函数 | 文件 | 模块)名的方式，将其</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以便能够对其进行使用
+在一个文件或模块中，export、import可以有多个，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">export default仅有一个
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导出，在导入时要加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{ }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，export default则不需要</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -15711,7 +17047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15824,6 +17160,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -15843,6 +17185,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -17115,8 +18460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17127,7 +18472,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -17136,21 +18481,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -17210,7 +18555,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
@@ -17219,14 +18564,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -17249,7 +18594,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -17260,7 +18605,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="40"/>
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -17269,7 +18614,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="40"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -17278,7 +18623,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="40"/>
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -17287,7 +18632,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="40"/>
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -17296,7 +18641,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="40"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -17305,7 +18650,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="40"/>
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -17314,7 +18659,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="40"/>
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -17323,7 +18668,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="40"/>
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -17332,10 +18677,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -17343,8 +18688,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="8" t="s">
         <v>171</v>
       </c>
@@ -17364,7 +18709,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -17375,14 +18720,14 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
@@ -17391,7 +18736,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -17400,7 +18745,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -17409,7 +18754,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
@@ -17418,14 +18763,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
@@ -17434,8 +18779,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -17443,21 +18788,21 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="18" t="s">
         <v>317</v>
       </c>
@@ -17466,10 +18811,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="41" t="s">
         <v>179</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -17477,14 +18822,14 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="39" t="s">
         <v>172</v>
       </c>
       <c r="B60" s="10"/>
@@ -17493,7 +18838,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="10" t="s">
         <v>173</v>
       </c>
@@ -17502,7 +18847,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
@@ -17511,7 +18856,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="41" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -17522,7 +18867,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
@@ -17540,7 +18885,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="7"/>
@@ -17549,7 +18894,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="7" t="s">
         <v>91</v>
       </c>
@@ -17558,14 +18903,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
@@ -17574,7 +18919,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="7" t="s">
         <v>321</v>
       </c>
@@ -17583,7 +18928,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="7" t="s">
         <v>319</v>
       </c>
@@ -17592,7 +18937,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="39"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="7" t="s">
         <v>98</v>
       </c>
@@ -17601,7 +18946,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
@@ -17610,7 +18955,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="39"/>
+      <c r="A74" s="41"/>
       <c r="B74" s="7" t="s">
         <v>99</v>
       </c>
@@ -17619,7 +18964,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="39"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -17628,7 +18973,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="41" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="14"/>
@@ -17637,7 +18982,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
         <v>103</v>
@@ -17653,7 +18998,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="41" t="s">
         <v>104</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -17664,7 +19009,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="7" t="s">
         <v>106</v>
       </c>
@@ -17684,10 +19029,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="41" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -17695,14 +19040,14 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="10" t="s">
         <v>194</v>
       </c>
@@ -17711,10 +19056,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -17722,14 +19067,14 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="41"/>
       <c r="B87" t="s">
         <v>42</v>
       </c>
@@ -17738,7 +19083,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="41"/>
       <c r="B88" t="s">
         <v>43</v>
       </c>
@@ -17747,7 +19092,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
@@ -17759,24 +19104,24 @@
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="41" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="7" t="s">
         <v>121</v>
       </c>
@@ -17785,7 +19130,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="7" t="s">
         <v>122</v>
       </c>
@@ -17794,7 +19139,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="39"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="7" t="s">
         <v>124</v>
       </c>
@@ -17803,7 +19148,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="39"/>
+      <c r="A96" s="41"/>
       <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
@@ -17820,13 +19165,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="40"/>
+      <c r="B99" s="42"/>
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="39" t="s">
+      <c r="A100" s="41" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -17837,7 +19182,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
+      <c r="A101" s="41"/>
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -17846,7 +19191,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="41"/>
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -17855,7 +19200,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
+      <c r="A103" s="41"/>
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -17864,7 +19209,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="41" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -17875,7 +19220,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
@@ -17892,15 +19237,15 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="41" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="3" t="s">
         <v>54</v>
       </c>
@@ -17909,7 +19254,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="3" t="s">
         <v>56</v>
       </c>
@@ -17918,7 +19263,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="39"/>
+      <c r="A110" s="41"/>
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -17927,7 +19272,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
+      <c r="A111" s="41"/>
       <c r="B111" t="s">
         <v>58</v>
       </c>
@@ -17960,7 +19305,7 @@
       <c r="C114" s="8"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="41" t="s">
         <v>143</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -17968,13 +19313,13 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="39"/>
+      <c r="A117" s="41"/>
       <c r="C117" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="7" t="s">
         <v>146</v>
       </c>
@@ -17983,7 +19328,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="7" t="s">
         <v>148</v>
       </c>
@@ -17992,7 +19337,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="7" t="s">
         <v>184</v>
       </c>
@@ -18001,7 +19346,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
+      <c r="A121" s="41" t="s">
         <v>161</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -18012,7 +19357,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="7" t="s">
         <v>152</v>
       </c>
@@ -18021,7 +19366,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="7" t="s">
         <v>154</v>
       </c>
@@ -18030,7 +19375,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="7" t="s">
         <v>155</v>
       </c>
@@ -18039,7 +19384,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="7" t="s">
         <v>156</v>
       </c>
@@ -18048,7 +19393,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="7" t="s">
         <v>160</v>
       </c>
@@ -18057,7 +19402,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="41" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -18068,7 +19413,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="11" t="s">
         <v>206</v>
       </c>
@@ -18077,7 +19422,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A130" s="39"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="7" t="s">
         <v>208</v>
       </c>
@@ -18086,7 +19431,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="39"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
         <v>261</v>
@@ -18100,10 +19445,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="39" t="s">
+      <c r="A134" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="41" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -18111,62 +19456,62 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
       <c r="C135" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="41"/>
       <c r="C136" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="39"/>
+      <c r="A137" s="41"/>
       <c r="B137" s="35" t="s">
+        <v>800</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>802</v>
-      </c>
     </row>
     <row r="138" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="39"/>
+      <c r="A138" s="41"/>
       <c r="B138" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39" t="s">
+      <c r="A139" s="41"/>
+      <c r="B139" s="41" t="s">
         <v>217</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
       <c r="C140" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="8" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
     <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="39"/>
+      <c r="A142" s="41"/>
       <c r="B142" s="12" t="s">
         <v>218</v>
       </c>
@@ -18175,53 +19520,53 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="39"/>
+      <c r="A143" s="41"/>
       <c r="B143" s="23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="39"/>
+      <c r="A144" s="41"/>
       <c r="B144" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>626</v>
-      </c>
     </row>
     <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39" t="s">
+      <c r="A145" s="41"/>
+      <c r="B145" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A146" s="41"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="C145" s="8" t="s">
+    </row>
+    <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+      <c r="B147" s="31" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="39"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="39"/>
-      <c r="B147" s="31" t="s">
+      <c r="C147" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="34"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="39" t="s">
+      <c r="A149" s="41" t="s">
         <v>189</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -18229,7 +19574,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="39"/>
+      <c r="A150" s="41"/>
       <c r="B150" s="7" t="s">
         <v>190</v>
       </c>
@@ -18238,25 +19583,25 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A151" s="39"/>
+      <c r="A151" s="41"/>
       <c r="B151" s="7" t="s">
         <v>192</v>
       </c>
       <c r="C151" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="7" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="39"/>
-      <c r="B152" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="38" t="s">
+      <c r="A153" s="40" t="s">
         <v>45</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -18264,7 +19609,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
+      <c r="A154" s="40"/>
       <c r="B154" s="7" t="s">
         <v>190</v>
       </c>
@@ -18273,7 +19618,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
+      <c r="A155" s="40"/>
       <c r="B155" s="7" t="s">
         <v>198</v>
       </c>
@@ -18282,7 +19627,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="40"/>
       <c r="B156" s="7" t="s">
         <v>200</v>
       </c>
@@ -18291,7 +19636,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="40"/>
       <c r="B157" s="8" t="s">
         <v>202</v>
       </c>
@@ -18300,7 +19645,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="40"/>
       <c r="B158" s="8" t="s">
         <v>203</v>
       </c>
@@ -18309,7 +19654,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A159" s="37" t="s">
+      <c r="A159" s="39" t="s">
         <v>413</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -18320,7 +19665,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
+      <c r="A160" s="39"/>
       <c r="B160" s="8" t="s">
         <v>414</v>
       </c>
@@ -18329,7 +19674,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
+      <c r="A161" s="39"/>
       <c r="B161" s="8" t="s">
         <v>415</v>
       </c>
@@ -18357,7 +19702,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="39" t="s">
+      <c r="A167" s="41" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -18365,21 +19710,21 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="39"/>
+      <c r="A168" s="41"/>
       <c r="C168" s="8" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>655</v>
-      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="39" t="s">
+      <c r="A170" s="41" t="s">
         <v>418</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -18387,43 +19732,43 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="39"/>
+      <c r="A171" s="41"/>
       <c r="C171" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="39"/>
+      <c r="A172" s="41"/>
       <c r="C172" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="39"/>
+      <c r="A173" s="41"/>
       <c r="C173" s="8" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="177" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="39" t="s">
+      <c r="A177" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="C177" s="8" t="s">
+    </row>
+    <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A178" s="41"/>
+      <c r="C178" s="8" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="39"/>
-      <c r="C178" s="8" t="s">
-        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -18531,7 +19876,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="41" t="s">
         <v>517</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -18539,7 +19884,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="7" t="s">
         <v>519</v>
       </c>
@@ -18548,7 +19893,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="7" t="s">
         <v>218</v>
       </c>
@@ -18557,7 +19902,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="41" t="s">
         <v>603</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -18568,7 +19913,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="7" t="s">
         <v>577</v>
       </c>
@@ -18577,7 +19922,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="7" t="s">
         <v>582</v>
       </c>
@@ -18586,7 +19931,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="7" t="s">
         <v>584</v>
       </c>
@@ -18595,7 +19940,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="7" t="s">
         <v>586</v>
       </c>
@@ -18604,7 +19949,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="7" t="s">
         <v>588</v>
       </c>
@@ -18613,7 +19958,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="7" t="s">
         <v>581</v>
       </c>
@@ -18631,48 +19976,48 @@
     </row>
     <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="C47" s="8" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="41" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="B49" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="C49" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="C49" s="7" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="7" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
     <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>661</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -18707,58 +20052,58 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="C6" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -18783,30 +20128,30 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -18824,7 +20169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C0D4B-61F5-4DA1-BD3E-1B4A57D6128A}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -18852,10 +20197,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.25">
@@ -19032,13 +20377,13 @@
     </row>
     <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>760</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -19096,10 +20441,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47782B9E-830A-44CF-A18E-422E6DA3763B}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -19109,95 +20454,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="7" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="C4" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>724</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="C4" s="8" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>725</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>747</v>
+      <c r="A9" s="41" t="s">
+        <v>746</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>755</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -19207,232 +20552,232 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="8" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="7" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="7" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="7" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>742</v>
-      </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>817</v>
+      <c r="A23" s="39" t="s">
+        <v>814</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="C23" s="8" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>819</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>823</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
         <v>772</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="B33" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="C33" s="8" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="7" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="7" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>779</v>
-      </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="8" t="s">
         <v>804</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="8" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -19444,42 +20789,42 @@
       <c r="A40" s="34"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>788</v>
+      <c r="A41" s="41" t="s">
+        <v>787</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="7" t="s">
-        <v>792</v>
       </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -19487,172 +20832,277 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>798</v>
-      </c>
     </row>
     <row r="47" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="C47" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>758</v>
+      <c r="A49" s="39" t="s">
+        <v>757</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="41" t="s">
+        <v>742</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="8" t="s">
         <v>743</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="8" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
+        <v>886</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>806</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="8" t="s">
         <v>764</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="8" t="s">
         <v>765</v>
       </c>
+    </row>
+    <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>842</v>
+      </c>
       <c r="C60" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
-        <v>781</v>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="41" t="s">
+        <v>845</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="7" t="s">
+        <v>852</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A69" s="41" t="s">
+        <v>780</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="7" t="s">
+      <c r="C71" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39" t="s">
-        <v>831</v>
-      </c>
-      <c r="C65" s="8" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="8" t="s">
+      <c r="C74" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="8" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="8" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="C78" s="8"/>
+    </row>
+    <row r="80" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="41" t="s">
+        <v>840</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="7" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>839</v>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A63:A69"/>
+  <mergeCells count="20">
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A69:A75"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A82:A84"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19676,7 +21126,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -19684,19 +21134,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="40"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -19792,7 +21242,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -19800,7 +21250,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
@@ -19809,7 +21259,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>252</v>
       </c>
@@ -19818,7 +21268,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
@@ -19827,7 +21277,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="C11" s="7" t="s">
         <v>250</v>
       </c>
@@ -19859,7 +21309,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>329</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -19867,8 +21317,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="40" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -19876,15 +21326,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="7" t="s">
         <v>341</v>
       </c>
@@ -19924,10 +21374,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="39" t="s">
         <v>590</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -19935,14 +21385,14 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="8" t="s">
         <v>593</v>
       </c>
@@ -19951,7 +21401,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="8" t="s">
         <v>595</v>
       </c>
@@ -19989,215 +21439,215 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
+        <v>679</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="C8" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>701</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>680</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="C8" s="7" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>702</v>
-      </c>
-      <c r="B10" s="39" t="s">
+      <c r="C10" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="C10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="7" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="7" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="7" t="s">
-        <v>683</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="7" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="43" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C17" s="43"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="B20" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="7" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="7" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>700</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
+        <v>702</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="C28" s="8" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="C28" s="8" t="s">
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="C29" s="8" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="C29" s="8" t="s">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="C30" s="8" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="C30" s="8" t="s">
-        <v>707</v>
-      </c>
-    </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="C31" s="8" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="7" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
@@ -20205,7 +21655,7 @@
         <v>423</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -20355,8 +21805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20411,7 +21861,7 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="13"/>
@@ -20420,21 +21870,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="7"/>
@@ -20443,13 +21893,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="C15" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="41" t="s">
         <v>373</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -20460,7 +21910,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="7" t="s">
         <v>374</v>
       </c>
@@ -20485,7 +21935,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="39" t="s">
         <v>223</v>
       </c>
       <c r="B21" s="7"/>
@@ -20494,20 +21944,20 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="39"/>
       <c r="C23" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>244</v>
       </c>
@@ -20516,8 +21966,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="41" t="s">
         <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -20525,15 +21975,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="8" t="s">
         <v>368</v>
       </c>
@@ -20542,7 +21992,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="41" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="7"/>
@@ -20551,7 +22001,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="7" t="s">
         <v>230</v>
       </c>
@@ -20560,7 +22010,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="11" t="s">
         <v>231</v>
       </c>
@@ -20577,7 +22027,7 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="44" t="s">
         <v>238</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -20585,31 +22035,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="24" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="42"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="45" t="s">
         <v>237</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -20617,13 +22067,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="41" t="s">
         <v>241</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -20631,7 +22081,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="8" t="s">
         <v>243</v>
       </c>
@@ -20645,7 +22095,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="41" t="s">
         <v>263</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -20653,13 +22103,13 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="41"/>
       <c r="C46" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="7" t="s">
         <v>264</v>
       </c>
@@ -20668,7 +22118,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="C48" s="16" t="s">
         <v>277</v>
       </c>
@@ -20690,7 +22140,7 @@
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="41" t="s">
         <v>525</v>
       </c>
       <c r="B56" s="25" t="s">
@@ -20701,7 +22151,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="25" t="s">
         <v>526</v>
       </c>
@@ -20710,7 +22160,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="25" t="s">
         <v>531</v>
       </c>
@@ -20719,7 +22169,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="39" t="s">
         <v>459</v>
       </c>
       <c r="B60" s="24" t="s">
@@ -20730,7 +22180,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="25" t="s">
         <v>453</v>
       </c>
@@ -20739,7 +22189,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="25" t="s">
         <v>455</v>
       </c>
@@ -20748,7 +22198,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="25" t="s">
         <v>457</v>
       </c>
@@ -20757,28 +22207,28 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="43" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="43"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -20809,10 +22259,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -20864,7 +22314,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="41" t="s">
         <v>398</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -20872,7 +22322,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="7" t="s">
         <v>394</v>
       </c>
@@ -20881,7 +22331,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="7" t="s">
         <v>395</v>
       </c>
@@ -20898,7 +22348,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="41" t="s">
         <v>423</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -20906,13 +22356,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="C25" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="41" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -20923,7 +22373,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="11" t="s">
         <v>546</v>
       </c>
@@ -20932,7 +22382,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="11" t="s">
         <v>547</v>
       </c>
@@ -20941,7 +22391,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="41" t="s">
         <v>559</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -20949,7 +22399,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="7" t="s">
         <v>561</v>
       </c>
@@ -20958,7 +22408,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="7" t="s">
         <v>562</v>
       </c>
@@ -20966,35 +22416,193 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="8" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="8" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="C36" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>611</v>
       </c>
     </row>
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>854</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>855</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="8" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>856</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>867</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21013,7 +22621,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>269</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -21021,7 +22629,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="7" t="s">
         <v>426</v>
       </c>
@@ -21030,7 +22638,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="7" t="s">
         <v>428</v>
       </c>
@@ -21039,7 +22647,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="7" t="s">
         <v>427</v>
       </c>
@@ -21053,7 +22661,7 @@
       <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>382</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -21061,13 +22669,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="C8" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="8" t="s">
         <v>381</v>
       </c>
@@ -21097,7 +22705,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="39" t="s">
         <v>464</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -21108,7 +22716,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="7" t="s">
         <v>472</v>
       </c>
@@ -21117,10 +22725,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="47" t="s">
         <v>474</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -21128,15 +22736,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="24" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="24" t="s">
         <v>476</v>
       </c>
@@ -21166,7 +22774,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>493</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -21174,7 +22782,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="7" t="s">
         <v>491</v>
       </c>
@@ -21183,7 +22791,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="25" t="s">
         <v>494</v>
       </c>
@@ -21192,7 +22800,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="25" t="s">
         <v>496</v>
       </c>
@@ -21201,20 +22809,20 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="41"/>
       <c r="C44" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="41" t="s">
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -21222,7 +22830,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="8" t="s">
         <v>503</v>
       </c>
@@ -21250,7 +22858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75325BA1-ABEA-4E53-A703-E21091941D44}">
   <dimension ref="A2:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -21261,30 +22869,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>666</v>
+      <c r="A2" s="39" t="s">
+        <v>665</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="39"/>
       <c r="C3" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="7" t="s">
         <v>528</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>534</v>
       </c>
@@ -21297,7 +22905,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -21305,7 +22913,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>272</v>
       </c>
@@ -21314,7 +22922,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>274</v>
       </c>
@@ -21323,7 +22931,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>441</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -21331,19 +22939,19 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="C13" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -21351,8 +22959,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41" t="s">
         <v>445</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -21360,21 +22968,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="41" t="s">
         <v>270</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -21382,13 +22990,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="C21" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="41" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -21399,7 +23007,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="7" t="s">
         <v>537</v>
       </c>
@@ -21408,7 +23016,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="7" t="s">
         <v>539</v>
       </c>
@@ -21436,7 +23044,7 @@
       <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="41" t="s">
         <v>551</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -21447,7 +23055,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="7" t="s">
         <v>553</v>
       </c>
@@ -21456,7 +23064,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="7" t="s">
         <v>555</v>
       </c>
@@ -21465,7 +23073,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="7" t="s">
         <v>554</v>
       </c>
@@ -21481,7 +23089,7 @@
         <v>572</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
@@ -21493,20 +23101,20 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="8" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B503AB-542A-46D9-8791-3FCDFEDE2C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BFBD8-E5E5-4373-B812-5E2AB1D474DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="前端" sheetId="10" r:id="rId13"/>
     <sheet name="AJAX" sheetId="12" r:id="rId14"/>
     <sheet name="React" sheetId="15" r:id="rId15"/>
+    <sheet name="Mockito" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="930">
   <si>
     <t>SE,EE</t>
   </si>
@@ -12475,370 +12476,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>注解：
-添加maven依赖</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>javax.annotation-api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-告诉Spring开启注解：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;context:annotation-config /&gt; 或  &lt;context:component-scan base-package="com.demo.model"/&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-常用：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Autowired</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：默认按</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类型匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注入bean，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和成员变量名称无关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">，可对成员变量，方法，构造函数，自动装配，去找相应类型bean，如果只有一个就直接装配，不止一个就按名称查找，找不到抛出异常
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Qualifier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>配合Autowired使</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用，指定注入哪个
-例：@Autowired
-    @Qualifier(value="cleanair")
-    IAir air
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Resource</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：默认按</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成员变量名称匹配</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">注入bean，若属性为空，采用标注处变量名作为bean名称。若未指定名称，并且没有同名bean，退化为Autowwired，按类型注入
-例：@Resource(name="CleanAir")
-    IAir air
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">：适用于属性的setter方法，表示bean属性要在xml文件配置时进行填充
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：为属性设置默认值，有@Value(“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${property : default_value}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”)和@Value(“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#{obj.property? :default_value}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”)两种方式。第一个注入的是外部</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>配置文件对应的property</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，第二个则是SpEL表达式对应的内容。default_value为默认值。#{}里面那个</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>obj代表对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>React</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -16921,12 +16558,851 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>打桩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>断言</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>verify</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assertions.assertEquals</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mockito</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>模仿者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造虚拟的对象，相当于动态代理，不包含实际的值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于Junit包
+验证得到的值是否是想要的
+Assertions.assertEquals(100, random.nextInt())    发生时thenReturn会返回100</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>doThrow(new RuntimeException()).when(mockedList).clear();</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>为无返回值函数抛出异常</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否发生过某些行为，发生的次数
+verify(random.nextInt(), times(2))
+ // 使用never()进行验证,never相当于times(0)
+ verify(mockedList, never()).add("never happened");
+ // 使用atLeast()/atMost()进行验证
+ verify(mockedList, atLeastOnce()).add("three times");
+ verify(mockedList, atLeast(2)).add("five times");
+ verify(mockedList, atMost(5)).add("three times");</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>spy</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>对行为进行定义，执行某方法时返回什么值，不定义的话verify中返回的是默认值
+when(random.nextInt()).thenReturn(100)
+ .thenThrow(new xxxException())
+ .thenCallRealMethod()    调用真实方法，例如某个方法在循环中调用很多次，可以实现第一次调用虚拟方法，之后调用真实方法</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>doAnswer和thenReturn区别</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>when…thenReturn：当我们为模拟对象指定调用其方法的返回值时， when…thenReturn用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接返回一个简单的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+doAnswer…when：当模拟对象调用它的方法，需要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行一些操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(其实就是需要执行一个代码块)才能得到返回值时，则需要使用doAnswer来构造产生这个模拟的返回值。例如：当模拟对象调用某个方法的返回值是个复合值(bean)时，就需要用doAnswer来构造该返回值。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码覆盖率</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较流行的工具是Emma和Jacoco,Ecliplse插件有eclemma。eclemma2.0之前采用的是Emma，之后采用的是Jacoco。这里主要介绍一下Jacoco。Eclmama由于是Eclipse插件，所以非常易用，就不多做介绍了。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Transactional </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rollback(true)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUnit使用回滚注解@Rollback，配合事务注解@Transactional，来回滚事务。
+RollBack可以定义在测试类上，对整个类起作用，也可以对方法单独定义。
+定义在类上，这样每个方法默认都是要回滚的。方法执行完单元测试，数据库不会产生脏数据。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+为属性设置默认值，
+@Value("Michael Jackson")
+  String name;
+@Value(“${property : default_value}”)和@Value(“#{obj.property? :default_value}”)两种方式。第一个注入的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外部配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对应的property，第二个则是SpEL表达式对应的内容。default_value为默认值。#{}里面那个obj代表对象。</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明此对象映射到数据库的数据表。
+该注释不是必须的，如果没有则系统使用默认值(实体的短类名)。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明此属性为主键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 声明该属性与数据库字段的映射关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringJunit4ClassRunner</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@Mock：快速创建mock对象
+@InjectMocks：创建依赖，注入mock对象
+启用注解：
+1）下面这句代码需要在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试函数第一行被调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,建议放到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Before方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中:
+    MockitoAnnotations.openMocks(this);
+2）@RunWith(MockitoJUnitRunner.class)   
+public class UserServiceMockTest { 
+}  //若在单元测试类中使用了@RunWith(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringJUnit4ClassRunner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.class) 就不能再使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MockitoJUnitRunner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而是用1)的</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注解：
+添加maven依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javax.annotation-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+告诉Spring开启注解：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;context:annotation-config /&gt; 或  &lt;context:component-scan base-package="com.demo.model"/&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+常用：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Autowired</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：默认按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注入bean，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和成员变量名称无关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，可对成员变量，方法，构造函数，自动装配，去找相应类型bean，如果只有一个就直接装配，不止一个就按名称查找，找不到抛出异常
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Qualifier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>配合Autowired使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用，指定注入哪个
+例：@Autowired
+    @Qualifier(value="cleanair")
+    IAir air
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：默认按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成员变量名称匹配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注入bean，若属性为空，采用标注处变量名作为bean名称。若未指定名称，并且没有同名bean，退化为Autowwired，按类型注入
+例：@Resource(name="CleanAir")
+    IAir air
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：适用于属性的setter方法，表示bean属性要在xml文件配置时进行填充</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试类上加@RunWIth(SpringJunit4ClassRunner.class)，也可以用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringRunner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 它与 SpringJUnit4ClassRunner 等价
+这种写法是为了让测试在Spring容器环境下执行，比如常见的 Service  Dao  Action ，都在Spring容器里，junit可以将他们拿到，并且用来测试。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@RunWith(SpringRunner.class)：指让类运行在Spring的测试环境，以便测试开始时自动创建Spring应用上下文
+@RunWith(JUnit4.class) 指用JUnit4测试工具来运行测试。
+@RunWith(SpringJUnit4ClassRunner.class)：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>综合了注释2和注释3，让测试类运行于Spring测试环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并使用JUnit4测试工具来运行测试。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SpringRunner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继承了SpringJUnit4ClassRunner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，没有扩展任何功能；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringJUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4ClassRunner更像是JUnit和Spring Test的桥接适配类，在Spring环境下，一般使用SpringRunner作为测试基准类。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>表明这是一个实体类，要与数据库做orm映射，默认表的名字就是类名，表中的字段就是类中的属性。
+如果没有在@Table注解中指定表名，name属性将作为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>映射到数据库</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunWith</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在JUnit中有很多个Runner，他们</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责调用你的测试代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每一个Runner都有各自的特殊功能，你要根据需要选择不同的Runner来运行你的测试代码。一般都是使用SpringRunner.class</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock和spy</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mock:只要是本地的，自己写的bean，都可以使用这个注解，它会把所有操作数据库的方法模拟。如果是没有返回值的方法，我们就可以不管。如果是有返回值的方法，我们可以给它返回各自我们需要模拟的值。
+Mock:如果是我们本地，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用别的公司，别的地方给我们写好的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不是操作我们自己的数据库，是我们写好入参，别人给我们返回值，我们就用这个。</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Spy： 会走真实的方法，不走模拟的方法。用when打桩会返回whenReturn的结果。只是将有桩实现（stubbing）的调用进行mock，其余方法仍然是实际调用
+when(...) thenReturn(...)做了真实调用。只是返回了指定的结果
+doReturn(...) when(...)不做真实调用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17021,6 +17497,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -17047,7 +17529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17166,6 +17648,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -17194,6 +17679,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18472,7 +18966,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -18481,21 +18975,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -18555,7 +19049,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
@@ -18564,14 +19058,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -18594,7 +19088,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -18605,7 +19099,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="41"/>
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -18614,7 +19108,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="41"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -18623,7 +19117,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="41"/>
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -18632,7 +19126,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="41"/>
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -18641,7 +19135,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="41"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -18650,7 +19144,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="41"/>
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -18659,7 +19153,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="41"/>
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -18668,7 +19162,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="41"/>
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -18677,10 +19171,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="42" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -18688,8 +19182,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="8" t="s">
         <v>171</v>
       </c>
@@ -18709,7 +19203,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -18720,14 +19214,14 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
@@ -18736,7 +19230,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="42"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -18745,7 +19239,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -18754,7 +19248,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
@@ -18763,14 +19257,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
@@ -18779,8 +19273,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -18788,21 +19282,21 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="18" t="s">
         <v>317</v>
       </c>
@@ -18811,10 +19305,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="42" t="s">
         <v>179</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -18822,14 +19316,14 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B60" s="10"/>
@@ -18838,7 +19332,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="10" t="s">
         <v>173</v>
       </c>
@@ -18847,7 +19341,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+      <c r="A62" s="40"/>
       <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
@@ -18856,7 +19350,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -18867,7 +19361,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="42"/>
       <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
@@ -18885,7 +19379,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="42" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="7"/>
@@ -18894,7 +19388,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="42"/>
       <c r="B67" s="7" t="s">
         <v>91</v>
       </c>
@@ -18903,14 +19397,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
@@ -18919,7 +19413,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="42"/>
       <c r="B70" s="7" t="s">
         <v>321</v>
       </c>
@@ -18928,7 +19422,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
+      <c r="A71" s="42"/>
       <c r="B71" s="7" t="s">
         <v>319</v>
       </c>
@@ -18937,7 +19431,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+      <c r="A72" s="42"/>
       <c r="B72" s="7" t="s">
         <v>98</v>
       </c>
@@ -18946,7 +19440,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+      <c r="A73" s="42"/>
       <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
@@ -18955,7 +19449,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+      <c r="A74" s="42"/>
       <c r="B74" s="7" t="s">
         <v>99</v>
       </c>
@@ -18964,7 +19458,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
+      <c r="A75" s="42"/>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -18973,7 +19467,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="42" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="14"/>
@@ -18982,7 +19476,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
+      <c r="A77" s="42"/>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
         <v>103</v>
@@ -18998,7 +19492,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="42" t="s">
         <v>104</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -19009,7 +19503,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="42"/>
       <c r="B80" s="7" t="s">
         <v>106</v>
       </c>
@@ -19029,10 +19523,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -19040,14 +19534,14 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="41"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="10" t="s">
         <v>194</v>
       </c>
@@ -19056,10 +19550,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="42" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -19067,14 +19561,14 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="41"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
+      <c r="A87" s="42"/>
       <c r="B87" t="s">
         <v>42</v>
       </c>
@@ -19083,7 +19577,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+      <c r="A88" s="42"/>
       <c r="B88" t="s">
         <v>43</v>
       </c>
@@ -19092,7 +19586,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="42"/>
       <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
@@ -19104,7 +19598,7 @@
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -19112,7 +19606,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+      <c r="A92" s="42"/>
       <c r="B92" s="7" t="s">
         <v>120</v>
       </c>
@@ -19121,7 +19615,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="42"/>
       <c r="B93" s="7" t="s">
         <v>121</v>
       </c>
@@ -19130,7 +19624,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+      <c r="A94" s="42"/>
       <c r="B94" s="7" t="s">
         <v>122</v>
       </c>
@@ -19139,7 +19633,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+      <c r="A95" s="42"/>
       <c r="B95" s="7" t="s">
         <v>124</v>
       </c>
@@ -19148,7 +19642,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+      <c r="A96" s="42"/>
       <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
@@ -19165,13 +19659,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="42" t="s">
+      <c r="A99" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="42"/>
+      <c r="B99" s="43"/>
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="42" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -19182,7 +19676,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="42"/>
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -19191,7 +19685,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
+      <c r="A102" s="42"/>
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -19200,7 +19694,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
+      <c r="A103" s="42"/>
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -19209,7 +19703,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="41" t="s">
+      <c r="A104" s="42" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -19220,7 +19714,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
+      <c r="A105" s="42"/>
       <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
@@ -19237,7 +19731,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="42" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -19245,7 +19739,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
+      <c r="A108" s="42"/>
       <c r="B108" s="3" t="s">
         <v>54</v>
       </c>
@@ -19254,7 +19748,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
+      <c r="A109" s="42"/>
       <c r="B109" s="3" t="s">
         <v>56</v>
       </c>
@@ -19263,7 +19757,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
+      <c r="A110" s="42"/>
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -19272,7 +19766,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
+      <c r="A111" s="42"/>
       <c r="B111" t="s">
         <v>58</v>
       </c>
@@ -19305,7 +19799,7 @@
       <c r="C114" s="8"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="41" t="s">
+      <c r="A116" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -19313,13 +19807,13 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
+      <c r="A117" s="42"/>
       <c r="C117" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
+      <c r="A118" s="42"/>
       <c r="B118" s="7" t="s">
         <v>146</v>
       </c>
@@ -19328,7 +19822,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
+      <c r="A119" s="42"/>
       <c r="B119" s="7" t="s">
         <v>148</v>
       </c>
@@ -19337,7 +19831,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
+      <c r="A120" s="42"/>
       <c r="B120" s="7" t="s">
         <v>184</v>
       </c>
@@ -19346,7 +19840,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="41" t="s">
+      <c r="A121" s="42" t="s">
         <v>161</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -19357,7 +19851,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
+      <c r="A122" s="42"/>
       <c r="B122" s="7" t="s">
         <v>152</v>
       </c>
@@ -19366,7 +19860,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
+      <c r="A123" s="42"/>
       <c r="B123" s="7" t="s">
         <v>154</v>
       </c>
@@ -19375,7 +19869,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
+      <c r="A124" s="42"/>
       <c r="B124" s="7" t="s">
         <v>155</v>
       </c>
@@ -19384,7 +19878,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
+      <c r="A125" s="42"/>
       <c r="B125" s="7" t="s">
         <v>156</v>
       </c>
@@ -19393,7 +19887,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
+      <c r="A126" s="42"/>
       <c r="B126" s="7" t="s">
         <v>160</v>
       </c>
@@ -19402,7 +19896,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="41" t="s">
+      <c r="A128" s="42" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -19413,7 +19907,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
+      <c r="A129" s="42"/>
       <c r="B129" s="11" t="s">
         <v>206</v>
       </c>
@@ -19422,7 +19916,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
+      <c r="A130" s="42"/>
       <c r="B130" s="7" t="s">
         <v>208</v>
       </c>
@@ -19431,7 +19925,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
+      <c r="A131" s="42"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
         <v>261</v>
@@ -19445,10 +19939,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="41" t="s">
+      <c r="A134" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="41" t="s">
+      <c r="B134" s="42" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -19456,30 +19950,30 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="41"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="41"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
+      <c r="A137" s="42"/>
       <c r="B137" s="35" t="s">
+        <v>799</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="C137" s="8" t="s">
-        <v>801</v>
-      </c>
     </row>
     <row r="138" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="41"/>
+      <c r="A138" s="42"/>
       <c r="B138" s="7" t="s">
         <v>216</v>
       </c>
@@ -19488,8 +19982,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="41"/>
-      <c r="B139" s="41" t="s">
+      <c r="A139" s="42"/>
+      <c r="B139" s="42" t="s">
         <v>217</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -19497,21 +19991,21 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="41"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A141" s="41"/>
-      <c r="B141" s="41"/>
+      <c r="A141" s="42"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
+      <c r="A142" s="42"/>
       <c r="B142" s="12" t="s">
         <v>218</v>
       </c>
@@ -19520,7 +20014,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
+      <c r="A143" s="42"/>
       <c r="B143" s="23" t="s">
         <v>622</v>
       </c>
@@ -19529,7 +20023,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
+      <c r="A144" s="42"/>
       <c r="B144" s="7" t="s">
         <v>624</v>
       </c>
@@ -19538,8 +20032,8 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
-      <c r="B145" s="41" t="s">
+      <c r="A145" s="42"/>
+      <c r="B145" s="42" t="s">
         <v>645</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -19547,14 +20041,14 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="41"/>
-      <c r="B146" s="41"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="41"/>
+      <c r="A147" s="42"/>
       <c r="B147" s="31" t="s">
         <v>649</v>
       </c>
@@ -19566,7 +20060,7 @@
       <c r="A148" s="34"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="41" t="s">
+      <c r="A149" s="42" t="s">
         <v>189</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -19574,7 +20068,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
+      <c r="A150" s="42"/>
       <c r="B150" s="7" t="s">
         <v>190</v>
       </c>
@@ -19583,7 +20077,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
+      <c r="A151" s="42"/>
       <c r="B151" s="7" t="s">
         <v>192</v>
       </c>
@@ -19592,7 +20086,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
+      <c r="A152" s="42"/>
       <c r="B152" s="7" t="s">
         <v>657</v>
       </c>
@@ -19601,7 +20095,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="40" t="s">
+      <c r="A153" s="41" t="s">
         <v>45</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -19609,7 +20103,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
+      <c r="A154" s="41"/>
       <c r="B154" s="7" t="s">
         <v>190</v>
       </c>
@@ -19618,7 +20112,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
+      <c r="A155" s="41"/>
       <c r="B155" s="7" t="s">
         <v>198</v>
       </c>
@@ -19627,7 +20121,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
+      <c r="A156" s="41"/>
       <c r="B156" s="7" t="s">
         <v>200</v>
       </c>
@@ -19636,7 +20130,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A157" s="40"/>
+      <c r="A157" s="41"/>
       <c r="B157" s="8" t="s">
         <v>202</v>
       </c>
@@ -19645,7 +20139,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
+      <c r="A158" s="41"/>
       <c r="B158" s="8" t="s">
         <v>203</v>
       </c>
@@ -19654,7 +20148,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A159" s="39" t="s">
+      <c r="A159" s="40" t="s">
         <v>413</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -19665,7 +20159,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="39"/>
+      <c r="A160" s="40"/>
       <c r="B160" s="8" t="s">
         <v>414</v>
       </c>
@@ -19674,7 +20168,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="39"/>
+      <c r="A161" s="40"/>
       <c r="B161" s="8" t="s">
         <v>415</v>
       </c>
@@ -19702,7 +20196,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="41" t="s">
+      <c r="A167" s="42" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -19710,7 +20204,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="41"/>
+      <c r="A168" s="42"/>
       <c r="C168" s="8" t="s">
         <v>387</v>
       </c>
@@ -19724,7 +20218,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="41" t="s">
+      <c r="A170" s="42" t="s">
         <v>418</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -19732,19 +20226,19 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="41"/>
+      <c r="A171" s="42"/>
       <c r="C171" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
+      <c r="A172" s="42"/>
       <c r="C172" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
+      <c r="A173" s="42"/>
       <c r="C173" s="8" t="s">
         <v>421</v>
       </c>
@@ -19758,17 +20252,17 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="41" t="s">
+      <c r="A177" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="C177" s="8" t="s">
+    </row>
+    <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A178" s="42"/>
+      <c r="C178" s="8" t="s">
         <v>797</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
-      <c r="C178" s="8" t="s">
-        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -19876,7 +20370,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="42" t="s">
         <v>517</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -19884,7 +20378,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="7" t="s">
         <v>519</v>
       </c>
@@ -19893,7 +20387,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="7" t="s">
         <v>218</v>
       </c>
@@ -19902,7 +20396,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="42" t="s">
         <v>603</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -19913,7 +20407,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="7" t="s">
         <v>577</v>
       </c>
@@ -19922,7 +20416,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="7" t="s">
         <v>582</v>
       </c>
@@ -19931,7 +20425,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="7" t="s">
         <v>584</v>
       </c>
@@ -19940,7 +20434,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="7" t="s">
         <v>586</v>
       </c>
@@ -19949,7 +20443,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="7" t="s">
         <v>588</v>
       </c>
@@ -19958,7 +20452,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="7" t="s">
         <v>581</v>
       </c>
@@ -19983,10 +20477,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>615</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -19994,14 +20488,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="42" t="s">
         <v>658</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -20012,7 +20506,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="7" t="s">
         <v>660</v>
       </c>
@@ -20069,7 +20563,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -20080,7 +20574,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="7" t="s">
         <v>641</v>
       </c>
@@ -20089,7 +20583,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>634</v>
       </c>
@@ -20098,7 +20592,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>633</v>
       </c>
@@ -20169,7 +20663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C0D4B-61F5-4DA1-BD3E-1B4A57D6128A}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -20377,13 +20871,13 @@
     </row>
     <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>759</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -20443,7 +20937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47782B9E-830A-44CF-A18E-422E6DA3763B}">
   <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -20454,95 +20948,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="7" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="C4" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>723</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="C4" s="8" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>724</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>746</v>
+      <c r="A9" s="42" t="s">
+        <v>745</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>211</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -20552,232 +21046,232 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="C14" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
+        <v>732</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="8" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="8" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="7" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="7" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>741</v>
-      </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
+        <v>813</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="7" t="s">
-        <v>812</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>816</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="C26" s="8" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="7" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>822</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>771</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="B33" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="C33" s="8" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="7" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="7" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>778</v>
-      </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="49" t="s">
+        <v>802</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="8" t="s">
         <v>803</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="8" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -20789,42 +21283,42 @@
       <c r="A40" s="34"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
-        <v>787</v>
+      <c r="A41" s="42" t="s">
+        <v>786</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="7" t="s">
-        <v>791</v>
       </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -20832,86 +21326,86 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>797</v>
-      </c>
     </row>
     <row r="47" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="C47" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
-        <v>757</v>
+      <c r="A49" s="40" t="s">
+        <v>756</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="40"/>
+      <c r="B50" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="8" t="s">
-        <v>743</v>
-      </c>
     </row>
     <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>887</v>
-      </c>
     </row>
     <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="40" t="s">
+        <v>762</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A59" s="40"/>
+      <c r="B59" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>764</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>842</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -20920,46 +21414,46 @@
     </row>
     <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>844</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="7" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="41" t="s">
-        <v>845</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
+      <c r="B66" s="7" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>852</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -20971,67 +21465,67 @@
       <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>780</v>
+      <c r="A69" s="42" t="s">
+        <v>779</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="42"/>
+      <c r="B70" s="7" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="C70" s="8" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41" t="s">
+      <c r="C71" s="8" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="8" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="8" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="42"/>
+      <c r="B74" s="42" t="s">
+        <v>832</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="8" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41" t="s">
+    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="8" t="s">
         <v>833</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="8" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -21044,41 +21538,41 @@
     </row>
     <row r="80" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>809</v>
-      </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="42" t="s">
+        <v>839</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
+      <c r="A83" s="42"/>
       <c r="B83" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="42"/>
       <c r="B84" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>837</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -21111,6 +21605,176 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEF83C3-F3D5-4733-AC7D-4352A05FF348}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="141.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>893</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="42"/>
+      <c r="B2" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>924</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
+        <v>926</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="52" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
@@ -21126,7 +21790,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -21134,19 +21798,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -21242,7 +21906,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -21250,7 +21914,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
@@ -21259,7 +21923,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>252</v>
       </c>
@@ -21268,7 +21932,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
@@ -21277,7 +21941,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="C11" s="7" t="s">
         <v>250</v>
       </c>
@@ -21309,7 +21973,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="42" t="s">
         <v>329</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -21317,8 +21981,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -21326,15 +21990,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="40"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="7" t="s">
         <v>341</v>
       </c>
@@ -21374,10 +22038,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>590</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -21385,14 +22049,14 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="8" t="s">
         <v>593</v>
       </c>
@@ -21401,7 +22065,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="8" t="s">
         <v>595</v>
       </c>
@@ -21439,7 +22103,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>679</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -21450,7 +22114,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7" t="s">
         <v>669</v>
       </c>
@@ -21459,7 +22123,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>670</v>
       </c>
@@ -21468,7 +22132,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>671</v>
       </c>
@@ -21477,7 +22141,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="7" t="s">
         <v>676</v>
       </c>
@@ -21486,16 +22150,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="C8" s="7" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>701</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>680</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -21503,21 +22167,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="8" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="7" t="s">
         <v>682</v>
       </c>
@@ -21526,14 +22190,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7" t="s">
         <v>683</v>
       </c>
@@ -21542,23 +22206,23 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="44"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>689</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -21569,7 +22233,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="7" t="s">
         <v>691</v>
       </c>
@@ -21578,7 +22242,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="7" t="s">
         <v>692</v>
       </c>
@@ -21587,7 +22251,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="7" t="s">
         <v>693</v>
       </c>
@@ -21596,7 +22260,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="7" t="s">
         <v>694</v>
       </c>
@@ -21605,7 +22269,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>702</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -21613,25 +22277,25 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="C28" s="8" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="C29" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="C30" s="8" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>712</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -21642,7 +22306,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="7" t="s">
         <v>715</v>
       </c>
@@ -21803,10 +22467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C65" sqref="C64:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21861,7 +22525,7 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="13"/>
@@ -21870,21 +22534,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="7"/>
@@ -21893,13 +22557,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="42"/>
       <c r="C15" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>373</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -21910,7 +22574,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="7" t="s">
         <v>374</v>
       </c>
@@ -21935,7 +22599,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>223</v>
       </c>
       <c r="B21" s="7"/>
@@ -21944,20 +22608,20 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="C23" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>244</v>
       </c>
@@ -21966,8 +22630,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="42" t="s">
         <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -21975,15 +22639,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="41"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="8" t="s">
         <v>368</v>
       </c>
@@ -21992,7 +22656,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="7"/>
@@ -22001,7 +22665,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="7" t="s">
         <v>230</v>
       </c>
@@ -22010,7 +22674,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="11" t="s">
         <v>231</v>
       </c>
@@ -22027,7 +22691,7 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>238</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -22035,221 +22699,279 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="44"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="44"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="24" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="44"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="46" t="s">
         <v>237</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="244.8" x14ac:dyDescent="0.25">
-      <c r="B40" s="45"/>
+    <row r="40" spans="1:3" ht="216" x14ac:dyDescent="0.25">
+      <c r="B40" s="46"/>
       <c r="C40" s="8" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B41" s="46"/>
+      <c r="C41" s="24" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B42" s="41"/>
-      <c r="C42" s="8" t="s">
+    <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="B43" s="42"/>
+      <c r="C43" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C44" s="24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="C46" s="8" t="s">
+    <row r="47" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="C47" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="C48" s="16" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="C49" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="7" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B57" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="25" t="s">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A58" s="42"/>
+      <c r="B58" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="25" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="42"/>
+      <c r="B60" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="42"/>
+      <c r="B64" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B67" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="25" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="40"/>
+      <c r="B68" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="25" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="40"/>
+      <c r="B69" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="25" t="s">
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
-      <c r="B64" s="25" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="40"/>
+      <c r="B71" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C71" s="44" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
-      <c r="B65" s="25" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="40"/>
+      <c r="B72" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="43"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
-      <c r="B66" s="25" t="s">
+      <c r="C72" s="44"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>627</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A46:A49"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A57:A65"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" xr:uid="{575E13C0-564B-4E33-87BE-521E6F7E38C9}"/>
+    <hyperlink ref="C49" r:id="rId1" xr:uid="{575E13C0-564B-4E33-87BE-521E6F7E38C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -22314,7 +23036,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="42" t="s">
         <v>398</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -22322,7 +23044,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="7" t="s">
         <v>394</v>
       </c>
@@ -22331,7 +23053,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="7" t="s">
         <v>395</v>
       </c>
@@ -22348,7 +23070,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="42" t="s">
         <v>423</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -22356,13 +23078,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="C25" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -22373,7 +23095,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="11" t="s">
         <v>546</v>
       </c>
@@ -22382,7 +23104,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="11" t="s">
         <v>547</v>
       </c>
@@ -22391,7 +23113,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="42" t="s">
         <v>559</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -22399,7 +23121,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="7" t="s">
         <v>561</v>
       </c>
@@ -22408,7 +23130,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="7" t="s">
         <v>562</v>
       </c>
@@ -22422,42 +23144,42 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="8" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="8" t="s">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="8" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="8" t="s">
-        <v>885</v>
-      </c>
-    </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>869</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="47" t="s">
         <v>610</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -22465,139 +23187,139 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="38" t="s">
         <v>133</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="7" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="C42" s="8" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="7" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="C43" s="8" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="7" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="8" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="C45" s="8" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>853</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>854</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>854</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>855</v>
-      </c>
-      <c r="C46" s="8" t="s">
+    <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="8" t="s">
         <v>880</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="8" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C49" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
+        <v>855</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
-        <v>856</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="7" t="s">
+    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="7" t="s">
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="7" t="s">
+    <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="42"/>
+      <c r="B54" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>867</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22621,7 +23343,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>269</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -22629,7 +23351,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="7" t="s">
         <v>426</v>
       </c>
@@ -22638,7 +23360,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="7" t="s">
         <v>428</v>
       </c>
@@ -22647,7 +23369,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7" t="s">
         <v>427</v>
       </c>
@@ -22661,7 +23383,7 @@
       <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>382</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -22669,13 +23391,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="C9" s="8" t="s">
         <v>381</v>
       </c>
@@ -22705,7 +23427,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>464</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -22716,7 +23438,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="7" t="s">
         <v>472</v>
       </c>
@@ -22725,10 +23447,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="48" t="s">
         <v>474</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -22736,15 +23458,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="24" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="24" t="s">
         <v>476</v>
       </c>
@@ -22774,7 +23496,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>493</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -22782,7 +23504,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="7" t="s">
         <v>491</v>
       </c>
@@ -22791,7 +23513,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="42"/>
       <c r="B41" s="25" t="s">
         <v>494</v>
       </c>
@@ -22800,7 +23522,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="42"/>
       <c r="B42" s="25" t="s">
         <v>496</v>
       </c>
@@ -22809,20 +23531,20 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="42"/>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="42"/>
       <c r="C44" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -22830,7 +23552,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="8" t="s">
         <v>503</v>
       </c>
@@ -22869,7 +23591,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>665</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -22877,13 +23599,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="C3" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="7" t="s">
         <v>528</v>
       </c>
@@ -22892,7 +23614,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>534</v>
       </c>
@@ -22905,7 +23627,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -22913,7 +23635,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>272</v>
       </c>
@@ -22922,7 +23644,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>274</v>
       </c>
@@ -22931,7 +23653,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>441</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -22939,19 +23661,19 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="42"/>
       <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="42"/>
       <c r="C13" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -22959,8 +23681,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42" t="s">
         <v>445</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -22968,21 +23690,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="42" t="s">
         <v>270</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -22990,13 +23712,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="42"/>
       <c r="C21" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -23007,7 +23729,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="7" t="s">
         <v>537</v>
       </c>
@@ -23016,7 +23738,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="7" t="s">
         <v>539</v>
       </c>
@@ -23044,7 +23766,7 @@
       <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>551</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -23055,7 +23777,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="7" t="s">
         <v>553</v>
       </c>
@@ -23064,7 +23786,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="7" t="s">
         <v>555</v>
       </c>
@@ -23073,7 +23795,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="7" t="s">
         <v>554</v>
       </c>
@@ -23101,10 +23823,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="B38" s="39"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="8" t="s">
         <v>602</v>
       </c>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622BFBD8-E5E5-4373-B812-5E2AB1D474DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD2185-7894-49B7-8675-131501437A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="AJAX" sheetId="12" r:id="rId14"/>
     <sheet name="React" sheetId="15" r:id="rId15"/>
     <sheet name="Mockito" sheetId="16" r:id="rId16"/>
+    <sheet name="SpringBatch" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="986">
   <si>
     <t>SE,EE</t>
   </si>
@@ -17396,6 +17397,1186 @@
 when(...) thenReturn(...)做了真实调用。只是返回了指定的结果
 doReturn(...) when(...)不做真实调用</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MybatisX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA插件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MybatisPlus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆向工程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向工程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>先创建</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java实体类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，由框架负责根据实体类</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成数据库表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。Hibernate支持正向工程</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>先创建数据库表，由框架负责根据数据库表，反向生成</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java实体类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mapper接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mapper映射文件</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBC风格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query By Criteria，根据标准查询。即条件都是定义好的，只需要调用像对应的方法，就可以生成标准的条件。
+也就是java代码这边调用函数，自动生成sql里的各种条件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectByExample：按条件查询，需要传入一个example对象或者null；如果传入一个null，则表示没有条件，也就是查询所有数据
+example.createCriteria().xxx：创建条件对象，通过andXXX方法为SQL添加查询添加，每个条件之间是and关系
+example.or().xxx：将之前添加的条件通过or拼接其他条件
+updateByPrimaryKey：通过主键进行数据修改，如果某一个值为null，也会将对应的字段改为null
+updateByPrimaryKeySelective()：通过主键进行选择性数据修改，如果某个值为null，则不修改这个字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.引入mybatis-generator依赖
+2.创建generatorConfig.xml（文件名必须是这个），指定实体类，mapper接口，xml的输出路径，源table等信息
+   &lt;context id="DB2Tables" targetRuntime="MyBatis3Simple"&gt;
+    targetRuntime: 执行生成的逆向工程的版本
+    MyBatis3Simple: 生成基本的CRUD（清新简洁版）
+    MyBatis3: 生成带条件的CRUD（奢华尊享版）
+3.生成的都是简单的对于单表的查询，Mapper从baseMapper继承。若想拓展复杂的sql，可以通过QBC风格，或者手动在xml中写sql，mapper接口中写对应方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速开发插件，方便在使用mybatis以及mybatis-plus开始时简化繁琐的重复操作，提高开发速率。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.xml跳转：点击戴蓝色头巾的小鸟即可在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dao和xml文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之间跳转
+2.只用在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mapper接口中写好对应方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后，按Alt+Enter选择自动生成就能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动在xml中生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>映射方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，再也不用担心为写错映射了！！！
+3.MybatisX直接给把相关的增删查改生成，用idea连接到你的数据库，右侧选择一张表，右键选择</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mybatis-Generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.可根据实体字段写出方法名，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写方法名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selectNameAnd，后面自动跳出Address等字段的提示。并且Alt+Enter选择Generate Mybatis Sql，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将该方法返回值和参数补全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动生成相应的SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">！！！
+</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.无侵入：只做增强不做改变，引入它不会对现有工程产生影响，如丝般顺滑。MyBatis Generator会在工程中生成mapper接口，xml，vo等文件，plus不需要那么多文件
+2.损耗小：启动即会自动注入基本的CURD，性能基本无损耗，直接面向对象操作
+3.强大的 CRUD 操作：内置通用 Mapper、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通用 Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，仅仅通过少量配置即可实现单表大部分 CRUD 操作，更有强大的条件构造器，满足各类使用需求
+4.支持 Lambda 形式调用：通过 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lambda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 表达式，方便的编写</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各类查询条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，无需再担心字段写错
+5.支持主键自动生成：支持多达 4 种主键策略（内含分布式唯一 ID 生成器 - Sequence），可自由配置，完美解决主键问题
+6.支持 ActiveRecord 模式：支持 ActiveRecord 形式调用，实体类只需继承 Model 类即可进行强大的 CRUD 操作
+7.支持自定义全局通用操作：支持全局通用方法注入（ Write once, use anywhere ）
+8.内置代码生成器：采用代码或者 Maven 插件可快速生成 Mapper 、 Model 、 Service 、 Controller 层代码，支持模板引擎，更有超多自定义配置等您来使用
+9.内置分页插件：基于 MyBatis 物理分页，开发者无需关心具体操作，配置好插件之后，写分页等同于普通 List 查询
+10.分页插件支持多种数据库：支持 MySQL、MariaDB、Oracle、DB2、H2、HSQL、SQLite、Postgre、SQLServer 等多种数据库
+11.内置性能分析插件：可输出 Sql 语句以及其执行时间，建议开发测试时启用该功能，能快速揪出慢查询
+12.内置全局拦截插件：提供全表 delete 、 update 操作智能分析阻断，也可自定义拦截规则，预防误操作</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化单表操作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis Generator或者mybatisplus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批处理框架,提供了大量可重用的组件,包括了日志、追踪、事务、任务作业统计、任务重启、跳过、重复、资源管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批处理应用特点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据量大，从数万到数百万甚至上亿不等；
+整个过程全部自动化，并预留一定接口进行自定义配置；
+通常是周期性运行，比如按日、周、月运行；
+对数据处理的准确性要求高，并且需要容错机制、回滚机制、完善的日志监控等。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务管理
+基于块的处理过程
+声明式的输入/输出操作
+启动、终止、重启任务
+重试/跳过任务
+基于Web的管理员接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本层级结构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBatch，作为一个 Spring 组件，通过使用 Spring 的依赖注入(Dependency Injection) 来提供处理批处理的功能。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Spring Batch的基本层级结构：
+首先，Spring Batch运行的基本单位是一个Job，一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就做一件批处理的事情。
+一个Job包含很多</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，step就是每个job要执行的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单个步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。	
+Step里面，会有Tasklet，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tasklet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>任务单元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它是属于可以重复利用的东西。
+然后是Chunk，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chunk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你需要定义多大的数据量是一个chunk。
+Chunk里面就是不断循环的一个流程，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据。Spring Batch会不断的循环这个流程，直到批处理数据完成</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobLauncher</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobRepository</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个step的集合，可以被多个Job复用，由flowBuilder创建；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>split</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现并发执行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：一个具体的执行步骤，一个Job中可以有多个Step。
+StepBuilderFactory 将作业存储库和事务管理器注入到每个Step中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobLauncherTestUtils</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>批处理作业</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>任务启动器：通过它启动任务，可以理解为程序的入口。启动</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定了JobParameters的Job</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Reader</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>读数据的抽象。支持读入非常丰富的数据源，包括各种类型的数据库，文件，数据流</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Writer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>写数据的抽象，为每一个step提供数据写出的功能。可以一次写一条数据，也可以一次写一个chunk的数据。
+对于读入的数据是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能做任何操作</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item Processor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对项目的业务逻辑处理的一个抽象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>由于一次batch的任务可能会有很多的数据读写操作，一条一条的处理并向数据库提交的话效率不高，spring batch提供了chunk这个概念，我们可以设定一个chunk size，spring batch将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一条一条处理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不提交</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到数据库，只有当处理的数据数量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>达到chunk size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设定的值得时候，才</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一起commit</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip策略和失败处理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipLimit：设定一个我们允许的这个step可以跳过的异常数量，假如我们设定为10，则当这个step运行时，只要出现的异常数目不超过10，整个step都不会fail。注意，若不设定skipLimit，则其默认值是0.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSkip：出现这个异常不跳过</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>skip：指定可以跳过的异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储关于配置和执行的Job的元数据，启动批处理作业的参数，在任务执行的时候，需要用它来记录任务状态信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>失败之后可以重试，你同样需要设置重试的次数。
+同样可以分别给reader，writer等设置retry机制。
+如果同时设置了retry和skip，会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先重试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有次数，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再skip</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JobRegistry </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过job的名字找到对应的job</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>任务/作业：一个具体的任务。  
+实现类主要有两种类型的job，一个是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>simplejob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，另一个是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flowjob。 
+其他：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JobInstance作业实例，只记录id和name，用于标识job;  JobParameters包含一组用于启动批处理作业的参数，它可以在运行期间用于识别或甚至用作参考数据，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JobParametersBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。  JobExecution:指的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单次尝试运行一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我们定义好的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Job</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的代码层面的概念（jobid,name，起始终止时间，运行状态。。。）
+通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JobBuilderFactory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实例创建Bean（将作业存储库注入到每个Job中），使用next指向下一个step</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -17529,7 +18710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17651,12 +18832,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -17679,15 +18872,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17968,6 +19152,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2659380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>712012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7581900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE38E1DB-FF60-4489-B7F8-526076F18DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4678680" y="1992172"/>
+          <a:ext cx="4922520" cy="1962608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -18966,7 +20216,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -18975,21 +20225,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -19049,7 +20299,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
@@ -19058,14 +20308,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -19088,7 +20338,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -19099,7 +20349,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="46"/>
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -19108,7 +20358,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="46"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -19117,7 +20367,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="46"/>
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -19126,7 +20376,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="46"/>
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -19135,7 +20385,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="46"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -19144,7 +20394,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="46"/>
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -19153,7 +20403,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="46"/>
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -19162,7 +20412,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="46"/>
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -19171,10 +20421,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="44" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -19182,8 +20432,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="8" t="s">
         <v>171</v>
       </c>
@@ -19203,7 +20453,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -19214,14 +20464,14 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
@@ -19230,7 +20480,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -19239,7 +20489,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -19248,7 +20498,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
@@ -19257,14 +20507,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
@@ -19273,8 +20523,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42" t="s">
+      <c r="A54" s="44"/>
+      <c r="B54" s="44" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -19282,21 +20532,21 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="18" t="s">
         <v>317</v>
       </c>
@@ -19305,10 +20555,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="44" t="s">
         <v>179</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -19316,14 +20566,14 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="45" t="s">
         <v>172</v>
       </c>
       <c r="B60" s="10"/>
@@ -19332,7 +20582,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="10" t="s">
         <v>173</v>
       </c>
@@ -19341,7 +20591,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
@@ -19350,7 +20600,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -19361,7 +20611,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
@@ -19379,7 +20629,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="7"/>
@@ -19388,7 +20638,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="7" t="s">
         <v>91</v>
       </c>
@@ -19397,14 +20647,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="44"/>
       <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="44"/>
       <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
@@ -19413,7 +20663,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="7" t="s">
         <v>321</v>
       </c>
@@ -19422,7 +20672,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
+      <c r="A71" s="44"/>
       <c r="B71" s="7" t="s">
         <v>319</v>
       </c>
@@ -19431,7 +20681,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
+      <c r="A72" s="44"/>
       <c r="B72" s="7" t="s">
         <v>98</v>
       </c>
@@ -19440,7 +20690,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="44"/>
       <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
@@ -19449,7 +20699,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
+      <c r="A74" s="44"/>
       <c r="B74" s="7" t="s">
         <v>99</v>
       </c>
@@ -19458,7 +20708,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
+      <c r="A75" s="44"/>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -19467,7 +20717,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="44" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="14"/>
@@ -19476,7 +20726,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
+      <c r="A77" s="44"/>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
         <v>103</v>
@@ -19492,7 +20742,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="44" t="s">
         <v>104</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -19503,7 +20753,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="44"/>
       <c r="B80" s="7" t="s">
         <v>106</v>
       </c>
@@ -19523,10 +20773,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="42" t="s">
+      <c r="B82" s="44" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -19534,14 +20784,14 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="10" t="s">
         <v>194</v>
       </c>
@@ -19550,10 +20800,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="44" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -19561,14 +20811,14 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="44"/>
       <c r="B87" t="s">
         <v>42</v>
       </c>
@@ -19577,7 +20827,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="44"/>
       <c r="B88" t="s">
         <v>43</v>
       </c>
@@ -19586,7 +20836,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="44"/>
       <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
@@ -19598,7 +20848,7 @@
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="44" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -19606,7 +20856,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="44"/>
       <c r="B92" s="7" t="s">
         <v>120</v>
       </c>
@@ -19615,7 +20865,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="44"/>
       <c r="B93" s="7" t="s">
         <v>121</v>
       </c>
@@ -19624,7 +20874,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="44"/>
       <c r="B94" s="7" t="s">
         <v>122</v>
       </c>
@@ -19633,7 +20883,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="44"/>
       <c r="B95" s="7" t="s">
         <v>124</v>
       </c>
@@ -19642,7 +20892,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="44"/>
       <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
@@ -19659,13 +20909,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="43"/>
+      <c r="B99" s="47"/>
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="42" t="s">
+      <c r="A100" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -19676,7 +20926,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="44"/>
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -19685,7 +20935,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
+      <c r="A102" s="44"/>
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -19694,7 +20944,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
+      <c r="A103" s="44"/>
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -19703,7 +20953,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="42" t="s">
+      <c r="A104" s="44" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -19714,7 +20964,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
+      <c r="A105" s="44"/>
       <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
@@ -19731,7 +20981,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="44" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -19739,7 +20989,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+      <c r="A108" s="44"/>
       <c r="B108" s="3" t="s">
         <v>54</v>
       </c>
@@ -19748,7 +20998,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+      <c r="A109" s="44"/>
       <c r="B109" s="3" t="s">
         <v>56</v>
       </c>
@@ -19757,7 +21007,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
+      <c r="A110" s="44"/>
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -19766,7 +21016,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
+      <c r="A111" s="44"/>
       <c r="B111" t="s">
         <v>58</v>
       </c>
@@ -19799,7 +21049,7 @@
       <c r="C114" s="8"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="42" t="s">
+      <c r="A116" s="44" t="s">
         <v>143</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -19807,13 +21057,13 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="42"/>
+      <c r="A117" s="44"/>
       <c r="C117" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
+      <c r="A118" s="44"/>
       <c r="B118" s="7" t="s">
         <v>146</v>
       </c>
@@ -19822,7 +21072,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
+      <c r="A119" s="44"/>
       <c r="B119" s="7" t="s">
         <v>148</v>
       </c>
@@ -19831,7 +21081,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="7" t="s">
         <v>184</v>
       </c>
@@ -19840,7 +21090,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="44" t="s">
         <v>161</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -19851,7 +21101,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
+      <c r="A122" s="44"/>
       <c r="B122" s="7" t="s">
         <v>152</v>
       </c>
@@ -19860,7 +21110,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
+      <c r="A123" s="44"/>
       <c r="B123" s="7" t="s">
         <v>154</v>
       </c>
@@ -19869,7 +21119,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
+      <c r="A124" s="44"/>
       <c r="B124" s="7" t="s">
         <v>155</v>
       </c>
@@ -19878,7 +21128,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
+      <c r="A125" s="44"/>
       <c r="B125" s="7" t="s">
         <v>156</v>
       </c>
@@ -19887,7 +21137,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
+      <c r="A126" s="44"/>
       <c r="B126" s="7" t="s">
         <v>160</v>
       </c>
@@ -19896,7 +21146,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="42" t="s">
+      <c r="A128" s="44" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -19907,7 +21157,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="44"/>
       <c r="B129" s="11" t="s">
         <v>206</v>
       </c>
@@ -19916,7 +21166,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
+      <c r="A130" s="44"/>
       <c r="B130" s="7" t="s">
         <v>208</v>
       </c>
@@ -19925,7 +21175,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
+      <c r="A131" s="44"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
         <v>261</v>
@@ -19939,10 +21189,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="42" t="s">
+      <c r="B134" s="44" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -19950,21 +21200,21 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="35" t="s">
         <v>799</v>
       </c>
@@ -19973,7 +21223,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="7" t="s">
         <v>216</v>
       </c>
@@ -19982,8 +21232,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42" t="s">
+      <c r="A139" s="44"/>
+      <c r="B139" s="44" t="s">
         <v>217</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -19991,21 +21241,21 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
+      <c r="A142" s="44"/>
       <c r="B142" s="12" t="s">
         <v>218</v>
       </c>
@@ -20014,7 +21264,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
+      <c r="A143" s="44"/>
       <c r="B143" s="23" t="s">
         <v>622</v>
       </c>
@@ -20023,7 +21273,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
+      <c r="A144" s="44"/>
       <c r="B144" s="7" t="s">
         <v>624</v>
       </c>
@@ -20032,8 +21282,8 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42" t="s">
+      <c r="A145" s="44"/>
+      <c r="B145" s="44" t="s">
         <v>645</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -20041,14 +21291,14 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="42"/>
-      <c r="B146" s="42"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
+      <c r="A147" s="44"/>
       <c r="B147" s="31" t="s">
         <v>649</v>
       </c>
@@ -20060,7 +21310,7 @@
       <c r="A148" s="34"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="42" t="s">
+      <c r="A149" s="44" t="s">
         <v>189</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -20068,7 +21318,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="42"/>
+      <c r="A150" s="44"/>
       <c r="B150" s="7" t="s">
         <v>190</v>
       </c>
@@ -20077,7 +21327,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
+      <c r="A151" s="44"/>
       <c r="B151" s="7" t="s">
         <v>192</v>
       </c>
@@ -20086,7 +21336,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="42"/>
+      <c r="A152" s="44"/>
       <c r="B152" s="7" t="s">
         <v>657</v>
       </c>
@@ -20095,7 +21345,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="41" t="s">
+      <c r="A153" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -20103,7 +21353,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="41"/>
+      <c r="A154" s="46"/>
       <c r="B154" s="7" t="s">
         <v>190</v>
       </c>
@@ -20112,7 +21362,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
+      <c r="A155" s="46"/>
       <c r="B155" s="7" t="s">
         <v>198</v>
       </c>
@@ -20121,7 +21371,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
+      <c r="A156" s="46"/>
       <c r="B156" s="7" t="s">
         <v>200</v>
       </c>
@@ -20130,7 +21380,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+      <c r="A157" s="46"/>
       <c r="B157" s="8" t="s">
         <v>202</v>
       </c>
@@ -20139,7 +21389,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="41"/>
+      <c r="A158" s="46"/>
       <c r="B158" s="8" t="s">
         <v>203</v>
       </c>
@@ -20148,7 +21398,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A159" s="40" t="s">
+      <c r="A159" s="45" t="s">
         <v>413</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -20159,7 +21409,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
+      <c r="A160" s="45"/>
       <c r="B160" s="8" t="s">
         <v>414</v>
       </c>
@@ -20168,7 +21418,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="8" t="s">
         <v>415</v>
       </c>
@@ -20196,7 +21446,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="42" t="s">
+      <c r="A167" s="44" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -20204,7 +21454,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
+      <c r="A168" s="44"/>
       <c r="C168" s="8" t="s">
         <v>387</v>
       </c>
@@ -20218,7 +21468,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="42" t="s">
+      <c r="A170" s="44" t="s">
         <v>418</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -20226,19 +21476,19 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="42"/>
+      <c r="A171" s="44"/>
       <c r="C171" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="42"/>
+      <c r="A172" s="44"/>
       <c r="C172" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="42"/>
+      <c r="A173" s="44"/>
       <c r="C173" s="8" t="s">
         <v>421</v>
       </c>
@@ -20252,7 +21502,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="42" t="s">
+      <c r="A177" s="44" t="s">
         <v>795</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -20260,25 +21510,23 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="42"/>
+      <c r="A178" s="44"/>
       <c r="C178" s="8" t="s">
         <v>797</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A134:A147"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B54:B56"/>
     <mergeCell ref="A116:A120"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="B85:B86"/>
@@ -20293,16 +21541,18 @@
     <mergeCell ref="A91:A96"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A134:A147"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B139:B141"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20370,7 +21620,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>517</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -20378,7 +21628,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="7" t="s">
         <v>519</v>
       </c>
@@ -20387,7 +21637,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="7" t="s">
         <v>218</v>
       </c>
@@ -20396,7 +21646,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="44" t="s">
         <v>603</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -20407,7 +21657,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="7" t="s">
         <v>577</v>
       </c>
@@ -20416,7 +21666,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="7" t="s">
         <v>582</v>
       </c>
@@ -20425,7 +21675,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="7" t="s">
         <v>584</v>
       </c>
@@ -20434,7 +21684,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="7" t="s">
         <v>586</v>
       </c>
@@ -20443,7 +21693,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="7" t="s">
         <v>588</v>
       </c>
@@ -20452,7 +21702,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="7" t="s">
         <v>581</v>
       </c>
@@ -20477,10 +21727,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="44" t="s">
         <v>615</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -20488,14 +21738,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="44" t="s">
         <v>658</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -20506,7 +21756,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="7" t="s">
         <v>660</v>
       </c>
@@ -20563,7 +21813,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="44" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -20574,7 +21824,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="7" t="s">
         <v>641</v>
       </c>
@@ -20583,7 +21833,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>634</v>
       </c>
@@ -20592,7 +21842,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>633</v>
       </c>
@@ -20835,7 +22085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFC16AA-084C-4264-A67A-0448A8D405D6}">
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -20948,7 +22198,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>720</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -20956,7 +22206,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="7" t="s">
         <v>722</v>
       </c>
@@ -20965,7 +22215,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="7" t="s">
         <v>724</v>
       </c>
@@ -20974,13 +22224,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="C4" s="8" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>730</v>
       </c>
@@ -20989,7 +22239,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>727</v>
       </c>
@@ -20998,7 +22248,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>723</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -21006,14 +22256,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="44" t="s">
         <v>745</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -21024,7 +22274,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
         <v>746</v>
@@ -21068,7 +22318,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>732</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -21079,8 +22329,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45" t="s">
         <v>782</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -21088,14 +22338,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="8" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="7" t="s">
         <v>733</v>
       </c>
@@ -21104,7 +22354,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="7" t="s">
         <v>735</v>
       </c>
@@ -21113,7 +22363,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="7" t="s">
         <v>737</v>
       </c>
@@ -21122,7 +22372,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="7" t="s">
         <v>739</v>
       </c>
@@ -21131,7 +22381,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="45" t="s">
         <v>813</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -21142,7 +22392,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="7" t="s">
         <v>810</v>
       </c>
@@ -21151,7 +22401,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="7" t="s">
         <v>811</v>
       </c>
@@ -21160,7 +22410,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="7" t="s">
         <v>819</v>
       </c>
@@ -21169,7 +22419,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="7" t="s">
         <v>821</v>
       </c>
@@ -21181,7 +22431,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="45" t="s">
         <v>770</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -21192,7 +22442,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="7" t="s">
         <v>768</v>
       </c>
@@ -21201,7 +22451,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="7" t="s">
         <v>766</v>
       </c>
@@ -21210,7 +22460,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>769</v>
       </c>
@@ -21219,7 +22469,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>771</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -21230,7 +22480,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="8" t="s">
         <v>781</v>
       </c>
@@ -21239,7 +22489,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="7" t="s">
         <v>774</v>
       </c>
@@ -21248,7 +22498,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="7" t="s">
         <v>778</v>
       </c>
@@ -21257,7 +22507,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="7" t="s">
         <v>776</v>
       </c>
@@ -21266,10 +22516,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="53" t="s">
         <v>802</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="8" t="s">
         <v>803</v>
       </c>
@@ -21287,7 +22537,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="44" t="s">
         <v>786</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -21298,7 +22548,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="7" t="s">
         <v>789</v>
       </c>
@@ -21307,7 +22557,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="7" t="s">
         <v>790</v>
       </c>
@@ -21326,7 +22576,7 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>795</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -21334,13 +22584,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="C47" s="8" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="45" t="s">
         <v>756</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -21348,8 +22598,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="44" t="s">
         <v>741</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -21357,14 +22607,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="8" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="45" t="s">
         <v>885</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -21375,7 +22625,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="7" t="s">
         <v>804</v>
       </c>
@@ -21384,7 +22634,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="45" t="s">
         <v>762</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -21392,7 +22642,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="8" t="s">
         <v>763</v>
       </c>
@@ -21422,7 +22672,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="44" t="s">
         <v>844</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -21430,7 +22680,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="7" t="s">
         <v>846</v>
       </c>
@@ -21439,7 +22689,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="7" t="s">
         <v>847</v>
       </c>
@@ -21448,7 +22698,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="44"/>
       <c r="B66" s="7" t="s">
         <v>851</v>
       </c>
@@ -21465,7 +22715,7 @@
       <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="44" t="s">
         <v>779</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -21473,7 +22723,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="44"/>
       <c r="B70" s="7" t="s">
         <v>825</v>
       </c>
@@ -21482,8 +22732,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42" t="s">
+      <c r="A71" s="44"/>
+      <c r="B71" s="44" t="s">
         <v>827</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -21491,22 +22741,22 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="8" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="8" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42" t="s">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44" t="s">
         <v>832</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -21514,8 +22764,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="8" t="s">
         <v>833</v>
       </c>
@@ -21545,7 +22795,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="44" t="s">
         <v>839</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -21553,7 +22803,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="44"/>
       <c r="B83" s="7" t="s">
         <v>727</v>
       </c>
@@ -21562,7 +22812,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="44"/>
       <c r="B84" s="7" t="s">
         <v>836</v>
       </c>
@@ -21577,6 +22827,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="A69:A75"/>
@@ -21590,13 +22847,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21609,7 +22859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEF83C3-F3D5-4733-AC7D-4352A05FF348}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -21620,7 +22870,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>893</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -21631,7 +22881,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="7" t="s">
         <v>900</v>
       </c>
@@ -21640,7 +22890,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="7" t="s">
         <v>901</v>
       </c>
@@ -21658,29 +22908,29 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="44" t="s">
         <v>924</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="41" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44" t="s">
         <v>926</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="41" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="52" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43" t="s">
         <v>922</v>
       </c>
     </row>
@@ -21772,6 +23022,236 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACA8427-79A7-4C97-8B47-E8404C06B316}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="124.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>952</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="45" t="s">
+        <v>976</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="8" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="8" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B30:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21790,7 +23270,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -21798,19 +23278,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="46"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="46"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -21906,7 +23386,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -21914,7 +23394,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
@@ -21923,7 +23403,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>252</v>
       </c>
@@ -21932,7 +23412,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
@@ -21941,7 +23421,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="C11" s="7" t="s">
         <v>250</v>
       </c>
@@ -21973,7 +23453,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="44" t="s">
         <v>329</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -21981,8 +23461,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="46" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -21990,15 +23470,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="7" t="s">
         <v>341</v>
       </c>
@@ -22038,10 +23518,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="45" t="s">
         <v>590</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -22049,14 +23529,14 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="8" t="s">
         <v>593</v>
       </c>
@@ -22065,7 +23545,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="8" t="s">
         <v>595</v>
       </c>
@@ -22103,7 +23583,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>679</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -22114,7 +23594,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="7" t="s">
         <v>669</v>
       </c>
@@ -22123,7 +23603,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="7" t="s">
         <v>670</v>
       </c>
@@ -22132,7 +23612,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="7" t="s">
         <v>671</v>
       </c>
@@ -22141,7 +23621,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="7" t="s">
         <v>676</v>
       </c>
@@ -22150,16 +23630,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="C8" s="7" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="44" t="s">
         <v>701</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>680</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -22167,21 +23647,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="8" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="7" t="s">
         <v>682</v>
       </c>
@@ -22190,14 +23670,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="7" t="s">
         <v>683</v>
       </c>
@@ -22206,23 +23686,23 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="48" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="48"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="44" t="s">
         <v>689</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -22233,7 +23713,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="7" t="s">
         <v>691</v>
       </c>
@@ -22242,7 +23722,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="7" t="s">
         <v>692</v>
       </c>
@@ -22251,7 +23731,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="7" t="s">
         <v>693</v>
       </c>
@@ -22260,7 +23740,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="7" t="s">
         <v>694</v>
       </c>
@@ -22269,7 +23749,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>702</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -22277,25 +23757,25 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="44"/>
       <c r="C28" s="8" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="44"/>
       <c r="C29" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="44"/>
       <c r="C30" s="8" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>712</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -22306,7 +23786,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="7" t="s">
         <v>715</v>
       </c>
@@ -22525,7 +24005,7 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="13"/>
@@ -22534,21 +24014,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="7"/>
@@ -22557,13 +24037,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="44"/>
       <c r="C15" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="44" t="s">
         <v>373</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -22574,7 +24054,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7" t="s">
         <v>374</v>
       </c>
@@ -22599,7 +24079,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="45" t="s">
         <v>223</v>
       </c>
       <c r="B21" s="7"/>
@@ -22608,20 +24088,20 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="45"/>
       <c r="C23" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="20" t="s">
         <v>244</v>
       </c>
@@ -22630,8 +24110,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="44" t="s">
         <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -22639,15 +24119,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="8" t="s">
         <v>368</v>
       </c>
@@ -22656,7 +24136,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="44" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="7"/>
@@ -22665,7 +24145,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="7" t="s">
         <v>230</v>
       </c>
@@ -22674,7 +24154,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="11" t="s">
         <v>231</v>
       </c>
@@ -22691,7 +24171,7 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="49" t="s">
         <v>238</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -22699,31 +24179,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="24" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="45"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="50" t="s">
         <v>237</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -22731,19 +24211,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="216" x14ac:dyDescent="0.25">
-      <c r="B40" s="46"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B41" s="46"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="24" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="44" t="s">
         <v>241</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -22751,7 +24231,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8" t="s">
         <v>243</v>
       </c>
@@ -22765,7 +24245,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>263</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -22773,13 +24253,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="C47" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="7" t="s">
         <v>264</v>
       </c>
@@ -22788,7 +24268,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="44"/>
       <c r="C49" s="16" t="s">
         <v>277</v>
       </c>
@@ -22810,7 +24290,7 @@
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="44" t="s">
         <v>525</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -22821,7 +24301,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="25" t="s">
         <v>526</v>
       </c>
@@ -22830,7 +24310,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="25" t="s">
         <v>531</v>
       </c>
@@ -22839,23 +24319,23 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="25" t="s">
         <v>907</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="44"/>
       <c r="B61" s="25" t="s">
         <v>908</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="42" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="44"/>
       <c r="B62" s="25" t="s">
         <v>911</v>
       </c>
@@ -22864,7 +24344,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="44"/>
       <c r="B63" s="25" t="s">
         <v>912</v>
       </c>
@@ -22873,7 +24353,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="44"/>
       <c r="B64" s="25" t="s">
         <v>913</v>
       </c>
@@ -22882,7 +24362,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="44"/>
       <c r="B65" s="25" t="s">
         <v>915</v>
       </c>
@@ -22891,7 +24371,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="45" t="s">
         <v>459</v>
       </c>
       <c r="B67" s="24" t="s">
@@ -22902,7 +24382,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="25" t="s">
         <v>453</v>
       </c>
@@ -22911,7 +24391,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="25" t="s">
         <v>455</v>
       </c>
@@ -22920,7 +24400,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="25" t="s">
         <v>457</v>
       </c>
@@ -22929,23 +24409,23 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="48" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C72" s="44"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="25" t="s">
         <v>626</v>
       </c>
@@ -22981,10 +24461,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -23036,7 +24516,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="44" t="s">
         <v>398</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -23044,7 +24524,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="7" t="s">
         <v>394</v>
       </c>
@@ -23053,7 +24533,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="7" t="s">
         <v>395</v>
       </c>
@@ -23070,7 +24550,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="44" t="s">
         <v>423</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -23078,13 +24558,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="44"/>
       <c r="C25" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -23095,7 +24575,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="11" t="s">
         <v>546</v>
       </c>
@@ -23104,7 +24584,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="11" t="s">
         <v>547</v>
       </c>
@@ -23113,7 +24593,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="44" t="s">
         <v>559</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -23121,7 +24601,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="7" t="s">
         <v>561</v>
       </c>
@@ -23130,7 +24610,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="7" t="s">
         <v>562</v>
       </c>
@@ -23144,10 +24624,10 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="45" t="s">
         <v>881</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -23155,21 +24635,21 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="8" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="7" t="s">
         <v>867</v>
       </c>
@@ -23178,8 +24658,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="47" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="51" t="s">
         <v>610</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -23187,14 +24667,14 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="8" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="38" t="s">
         <v>133</v>
       </c>
@@ -23203,7 +24683,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="7" t="s">
         <v>871</v>
       </c>
@@ -23212,7 +24692,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="7" t="s">
         <v>873</v>
       </c>
@@ -23221,7 +24701,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="7" t="s">
         <v>875</v>
       </c>
@@ -23230,7 +24710,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="7" t="s">
         <v>876</v>
       </c>
@@ -23239,10 +24719,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="44" t="s">
         <v>854</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -23250,8 +24730,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="8" t="s">
         <v>880</v>
       </c>
@@ -23262,7 +24742,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="44" t="s">
         <v>855</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -23273,7 +24753,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="7" t="s">
         <v>857</v>
       </c>
@@ -23282,7 +24762,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="7" t="s">
         <v>858</v>
       </c>
@@ -23291,7 +24771,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="7" t="s">
         <v>859</v>
       </c>
@@ -23300,7 +24780,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="7" t="s">
         <v>860</v>
       </c>
@@ -23308,8 +24788,104 @@
         <v>866</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="44"/>
+      <c r="B59" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="44" t="s">
+        <v>937</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="8" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A46:A47"/>
@@ -23343,7 +24919,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>269</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -23351,7 +24927,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="7" t="s">
         <v>426</v>
       </c>
@@ -23360,7 +24936,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="7" t="s">
         <v>428</v>
       </c>
@@ -23369,7 +24945,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="7" t="s">
         <v>427</v>
       </c>
@@ -23383,7 +24959,7 @@
       <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="45" t="s">
         <v>382</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -23391,13 +24967,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="45"/>
       <c r="C8" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="45"/>
       <c r="C9" s="8" t="s">
         <v>381</v>
       </c>
@@ -23427,7 +25003,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="45" t="s">
         <v>464</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -23438,7 +25014,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="7" t="s">
         <v>472</v>
       </c>
@@ -23447,10 +25023,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="52" t="s">
         <v>474</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -23458,15 +25034,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="24" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="24" t="s">
         <v>476</v>
       </c>
@@ -23496,7 +25072,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="44" t="s">
         <v>493</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -23504,7 +25080,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="7" t="s">
         <v>491</v>
       </c>
@@ -23513,7 +25089,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="25" t="s">
         <v>494</v>
       </c>
@@ -23522,7 +25098,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="25" t="s">
         <v>496</v>
       </c>
@@ -23531,20 +25107,20 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="44"/>
       <c r="C44" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="44" t="s">
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -23552,7 +25128,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="8" t="s">
         <v>503</v>
       </c>
@@ -23591,7 +25167,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>665</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -23599,13 +25175,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+      <c r="A3" s="45"/>
       <c r="C3" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7" t="s">
         <v>528</v>
       </c>
@@ -23614,7 +25190,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>534</v>
       </c>
@@ -23627,7 +25203,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -23635,7 +25211,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="7" t="s">
         <v>272</v>
       </c>
@@ -23644,7 +25220,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="7" t="s">
         <v>274</v>
       </c>
@@ -23653,7 +25229,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>441</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -23661,19 +25237,19 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="C13" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="44" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -23681,8 +25257,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44" t="s">
         <v>445</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -23690,21 +25266,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="44" t="s">
         <v>270</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -23712,13 +25288,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="C21" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="44" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -23729,7 +25305,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="7" t="s">
         <v>537</v>
       </c>
@@ -23738,7 +25314,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="7" t="s">
         <v>539</v>
       </c>
@@ -23766,7 +25342,7 @@
       <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>551</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -23777,7 +25353,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="7" t="s">
         <v>553</v>
       </c>
@@ -23786,7 +25362,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="7" t="s">
         <v>555</v>
       </c>
@@ -23795,7 +25371,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="7" t="s">
         <v>554</v>
       </c>
@@ -23823,10 +25399,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="45" t="s">
         <v>601</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="8" t="s">
         <v>602</v>
       </c>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD2185-7894-49B7-8675-131501437A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4EDB9-B9A5-4A72-9B20-CFDCEA429474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="4" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1007">
   <si>
     <t>SE,EE</t>
   </si>
@@ -12836,6 +12836,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -13230,6 +13231,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -13254,6 +13256,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15507,6 +15510,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15530,6 +15534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15552,6 +15557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15808,6 +15814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15830,6 +15837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15863,6 +15871,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15885,6 +15894,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -17174,6 +17184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -17567,200 +17578,6 @@
   </si>
   <si>
     <t>快速开发插件，方便在使用mybatis以及mybatis-plus开始时简化繁琐的重复操作，提高开发速率。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.xml跳转：点击戴蓝色头巾的小鸟即可在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dao和xml文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>之间跳转
-2.只用在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mapper接口中写好对应方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>后，按Alt+Enter选择自动生成就能</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>自动在xml中生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对应的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>映射方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，再也不用担心为写错映射了！！！
-3.MybatisX直接给把相关的增删查改生成，用idea连接到你的数据库，右侧选择一张表，右键选择</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mybatis-Generator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.可根据实体字段写出方法名，例如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>写方法名字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>selectNameAnd，后面自动跳出Address等字段的提示。并且Alt+Enter选择Generate Mybatis Sql，可以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>将该方法返回值和参数补全</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>并且</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>自动生成相应的SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">！！！
-</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -18575,6 +18392,908 @@
         <scheme val="minor"/>
       </rPr>
       <t>实例创建Bean（将作业存储库注入到每个Job中），使用next指向下一个step</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.xml跳转：点击戴蓝色头巾的小鸟即可在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dao和xml文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之间跳转
+2.只用在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mapper接口中写好对应方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后，按Alt+Enter选择自动生成就能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动在xml中生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>映射方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，再也不用担心为写错映射了！！！
+3.MybatisX直接给把相关的增删查改生成，用idea连接到你的数据库，右侧选择一张表，右键选择</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mybatis-Generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.可根据实体字段写出方法名，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写方法名字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selectNameAnd，后面自动跳出Address等字段的提示。并且Alt+Enter选择Generate Mybatis Sql，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将该方法返回值和参数补全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并且</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动生成相应的SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！！！</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>public interface UserMapper extends BaseMapper&lt;User&gt; {}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseMapper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用Service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MyBatis-Plus中有一个接口 IService和其实现类 ServiceImpl，封装了常见的业务层逻辑
+使用的时候仅需在自己定义的Service接口中继承IService接口，在自己的实现类中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现自己的Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继承ServiceImpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即可</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UserService extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;User&gt; {}   在这里拓展自己想要的方法
+public class UserServiceImpl extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServiceImpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;UserMapper,User&gt; implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若实体类与表名需要不一致，可以在实体类类型上添加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@TableName("t_user")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，标识实体类对应的表</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MyBatis-Plus在实现CRUD时，会默认将id作为主键列，并在插入数据时，默认基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雪花算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的策略生成id
+若想使用其他字段作为主键列，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@TableId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将其标识为主键</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实体类中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表中的字段名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不一致的情况使用</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableField</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件构造器Wapper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrapper ： 条件构造抽象类，最顶端父类
+AbstractWrapper ： 用于查询条件封装，生成 sql 的 where 条件
+QueryWrapper ： 查询条件封装
+UpdateWrapper ： Update 条件封装
+AbstractLambdaWrapper ： 使用Lambda 语法
+LambdaQueryWrapper ：用于Lambda语法使用的查询Wrapper
+LambdaUpdateWrapper ： Lambda 更新封装Wrapper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐观锁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">version注解
+@Version
+private Integer version;
+在配置类中添加拦截器：
+public MybatisPlusInterceptor mybatisPlusInterceptor(){
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MybatisPlusInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interceptor = new MybatisPlusInterceptor();
+    //添加分页插件
+    interceptor.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addInnerInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PaginationInnerInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(DbType.MYSQL));
+    //添加乐观锁插件
+    interceptor.addInnerInterceptor(new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OptimisticLockerInnerInterceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>());
+    return interceptor;
+}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>boolean condition：表示该条件是否加入最后生成的sql中
+入参中出现的R为泛型：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通wrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（为数据库字段名）,在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LambdaWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中是函数(例:Entity::getId,Entity为实体类,getId为字段id的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getMethod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+使用普通wrapper时,入参为Map和List的均以json形式表现，例：allEq({id:1,name:"老王",age:null})</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LambdaQueryWrapper和QueryWapper的区别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QueryWrapper&lt;User&gt; wrapper = new QueryWrapper&lt;User&gt;()
+        .eq(StringUtils.isNotBlank(user.getNickName()), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"nick"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, user.getNickName())
+        .eq(user.getId() != null,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, user.getId());
+LambdaQueryWrapper&lt;User&gt; wrapper = new LambdaQueryWrapper&lt;User&gt;()
+        .eq(StringUtils.isNotBlank(user.getNickName()), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User::getNickName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, user.getNickName())
+        .eq(user.getId() != null, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User::getId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, user.getId());</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>区别
+QueryWrapper 的列名匹配使用的是 “数据库中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字段名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(一般是下划线规则)”
+LambdaQueryWrapper 的列名匹配使用的是“Lambda的语法，偏向于对象”</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LambdaQueryWrapper的优点
+不用写“列名”，而是使用纯java的方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避免了拼写错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LambdaQueryWrapper的写法如果有错，则在编译期就会报错，而QueryWrapper需要运行的时候调用该方法才会报错)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -18681,6 +19400,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -18710,7 +19430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18842,6 +19562,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20216,7 +20939,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -20225,21 +20948,21 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="1"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>4</v>
@@ -20299,7 +21022,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
@@ -20308,14 +21031,14 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5" t="s">
         <v>15</v>
@@ -20338,7 +21061,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B32" t="s">
@@ -20349,7 +21072,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -20358,7 +21081,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -20367,7 +21090,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -20376,7 +21099,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="B36" t="s">
         <v>29</v>
       </c>
@@ -20385,7 +21108,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="B37" t="s">
         <v>31</v>
       </c>
@@ -20394,7 +21117,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="47"/>
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -20403,7 +21126,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -20412,7 +21135,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -20421,10 +21144,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="45" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -20432,8 +21155,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="8" t="s">
         <v>171</v>
       </c>
@@ -20453,7 +21176,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -20464,14 +21187,14 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
@@ -20480,7 +21203,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -20489,7 +21212,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -20498,7 +21221,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
@@ -20507,14 +21230,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
@@ -20523,8 +21246,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44" t="s">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -20532,21 +21255,21 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="18" t="s">
         <v>317</v>
       </c>
@@ -20555,10 +21278,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="45" t="s">
         <v>179</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -20566,14 +21289,14 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="46" t="s">
         <v>172</v>
       </c>
       <c r="B60" s="10"/>
@@ -20582,7 +21305,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="10" t="s">
         <v>173</v>
       </c>
@@ -20591,7 +21314,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="10" t="s">
         <v>174</v>
       </c>
@@ -20600,7 +21323,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="45" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -20611,7 +21334,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
@@ -20629,7 +21352,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="7"/>
@@ -20638,7 +21361,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="7" t="s">
         <v>91</v>
       </c>
@@ -20647,14 +21370,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
@@ -20663,7 +21386,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="7" t="s">
         <v>321</v>
       </c>
@@ -20672,7 +21395,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="7" t="s">
         <v>319</v>
       </c>
@@ -20681,7 +21404,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="7" t="s">
         <v>98</v>
       </c>
@@ -20690,7 +21413,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
@@ -20699,7 +21422,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="7" t="s">
         <v>99</v>
       </c>
@@ -20708,7 +21431,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -20717,7 +21440,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="45" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="14"/>
@@ -20726,7 +21449,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
         <v>103</v>
@@ -20742,7 +21465,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -20753,7 +21476,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="7" t="s">
         <v>106</v>
       </c>
@@ -20773,10 +21496,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="45" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -20784,14 +21507,14 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="10" t="s">
         <v>194</v>
       </c>
@@ -20800,10 +21523,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="45" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -20811,14 +21534,14 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="44"/>
+      <c r="A87" s="45"/>
       <c r="B87" t="s">
         <v>42</v>
       </c>
@@ -20827,7 +21550,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
+      <c r="A88" s="45"/>
       <c r="B88" t="s">
         <v>43</v>
       </c>
@@ -20836,7 +21559,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
@@ -20848,7 +21571,7 @@
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="45" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -20856,7 +21579,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="7" t="s">
         <v>120</v>
       </c>
@@ -20865,7 +21588,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
+      <c r="A93" s="45"/>
       <c r="B93" s="7" t="s">
         <v>121</v>
       </c>
@@ -20874,7 +21597,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
+      <c r="A94" s="45"/>
       <c r="B94" s="7" t="s">
         <v>122</v>
       </c>
@@ -20883,7 +21606,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
+      <c r="A95" s="45"/>
       <c r="B95" s="7" t="s">
         <v>124</v>
       </c>
@@ -20892,7 +21615,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
@@ -20909,13 +21632,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="47"/>
+      <c r="B99" s="48"/>
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="45" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -20926,7 +21649,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="44"/>
+      <c r="A101" s="45"/>
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -20935,7 +21658,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
+      <c r="A102" s="45"/>
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -20944,7 +21667,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
+      <c r="A103" s="45"/>
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -20953,7 +21676,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -20964,7 +21687,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
@@ -20981,7 +21704,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="45" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -20989,7 +21712,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="3" t="s">
         <v>54</v>
       </c>
@@ -20998,7 +21721,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="3" t="s">
         <v>56</v>
       </c>
@@ -21007,7 +21730,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
+      <c r="A110" s="45"/>
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -21016,7 +21739,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
+      <c r="A111" s="45"/>
       <c r="B111" t="s">
         <v>58</v>
       </c>
@@ -21049,7 +21772,7 @@
       <c r="C114" s="8"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="44" t="s">
+      <c r="A116" s="45" t="s">
         <v>143</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -21057,13 +21780,13 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
+      <c r="A117" s="45"/>
       <c r="C117" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
+      <c r="A118" s="45"/>
       <c r="B118" s="7" t="s">
         <v>146</v>
       </c>
@@ -21072,7 +21795,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
+      <c r="A119" s="45"/>
       <c r="B119" s="7" t="s">
         <v>148</v>
       </c>
@@ -21081,7 +21804,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
+      <c r="A120" s="45"/>
       <c r="B120" s="7" t="s">
         <v>184</v>
       </c>
@@ -21090,7 +21813,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="45" t="s">
         <v>161</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -21101,7 +21824,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
+      <c r="A122" s="45"/>
       <c r="B122" s="7" t="s">
         <v>152</v>
       </c>
@@ -21110,7 +21833,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
+      <c r="A123" s="45"/>
       <c r="B123" s="7" t="s">
         <v>154</v>
       </c>
@@ -21119,7 +21842,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
+      <c r="A124" s="45"/>
       <c r="B124" s="7" t="s">
         <v>155</v>
       </c>
@@ -21128,7 +21851,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
+      <c r="A125" s="45"/>
       <c r="B125" s="7" t="s">
         <v>156</v>
       </c>
@@ -21137,7 +21860,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="7" t="s">
         <v>160</v>
       </c>
@@ -21146,7 +21869,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="44" t="s">
+      <c r="A128" s="45" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -21157,7 +21880,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="44"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="11" t="s">
         <v>206</v>
       </c>
@@ -21166,7 +21889,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="7" t="s">
         <v>208</v>
       </c>
@@ -21175,7 +21898,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
         <v>261</v>
@@ -21189,10 +21912,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="44" t="s">
+      <c r="A134" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="44" t="s">
+      <c r="B134" s="45" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -21200,21 +21923,21 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="35" t="s">
         <v>799</v>
       </c>
@@ -21223,7 +21946,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
+      <c r="A138" s="45"/>
       <c r="B138" s="7" t="s">
         <v>216</v>
       </c>
@@ -21232,8 +21955,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44" t="s">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45" t="s">
         <v>217</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -21241,21 +21964,21 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="44"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="44"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="12" t="s">
         <v>218</v>
       </c>
@@ -21264,7 +21987,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="44"/>
+      <c r="A143" s="45"/>
       <c r="B143" s="23" t="s">
         <v>622</v>
       </c>
@@ -21273,7 +21996,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="7" t="s">
         <v>624</v>
       </c>
@@ -21282,8 +22005,8 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44" t="s">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45" t="s">
         <v>645</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -21291,14 +22014,14 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="31" t="s">
         <v>649</v>
       </c>
@@ -21310,7 +22033,7 @@
       <c r="A148" s="34"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="44" t="s">
+      <c r="A149" s="45" t="s">
         <v>189</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -21318,7 +22041,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
+      <c r="A150" s="45"/>
       <c r="B150" s="7" t="s">
         <v>190</v>
       </c>
@@ -21327,7 +22050,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
+      <c r="A151" s="45"/>
       <c r="B151" s="7" t="s">
         <v>192</v>
       </c>
@@ -21336,7 +22059,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
+      <c r="A152" s="45"/>
       <c r="B152" s="7" t="s">
         <v>657</v>
       </c>
@@ -21345,7 +22068,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="46" t="s">
+      <c r="A153" s="47" t="s">
         <v>45</v>
       </c>
       <c r="C153" s="8" t="s">
@@ -21353,7 +22076,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A154" s="46"/>
+      <c r="A154" s="47"/>
       <c r="B154" s="7" t="s">
         <v>190</v>
       </c>
@@ -21362,7 +22085,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="46"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="7" t="s">
         <v>198</v>
       </c>
@@ -21371,7 +22094,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A156" s="46"/>
+      <c r="A156" s="47"/>
       <c r="B156" s="7" t="s">
         <v>200</v>
       </c>
@@ -21380,7 +22103,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A157" s="46"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="8" t="s">
         <v>202</v>
       </c>
@@ -21389,7 +22112,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="46"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="8" t="s">
         <v>203</v>
       </c>
@@ -21398,7 +22121,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A159" s="45" t="s">
+      <c r="A159" s="46" t="s">
         <v>413</v>
       </c>
       <c r="B159" s="8" t="s">
@@ -21409,7 +22132,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="45"/>
+      <c r="A160" s="46"/>
       <c r="B160" s="8" t="s">
         <v>414</v>
       </c>
@@ -21418,7 +22141,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="45"/>
+      <c r="A161" s="46"/>
       <c r="B161" s="8" t="s">
         <v>415</v>
       </c>
@@ -21446,7 +22169,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="44" t="s">
+      <c r="A167" s="45" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -21454,7 +22177,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
+      <c r="A168" s="45"/>
       <c r="C168" s="8" t="s">
         <v>387</v>
       </c>
@@ -21468,7 +22191,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="44" t="s">
+      <c r="A170" s="45" t="s">
         <v>418</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -21476,19 +22199,19 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="44"/>
+      <c r="A171" s="45"/>
       <c r="C171" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
+      <c r="A172" s="45"/>
       <c r="C172" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
+      <c r="A173" s="45"/>
       <c r="C173" s="8" t="s">
         <v>421</v>
       </c>
@@ -21502,7 +22225,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="44" t="s">
+      <c r="A177" s="45" t="s">
         <v>795</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -21510,7 +22233,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
+      <c r="A178" s="45"/>
       <c r="C178" s="8" t="s">
         <v>797</v>
       </c>
@@ -21620,7 +22343,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>517</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -21628,7 +22351,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="7" t="s">
         <v>519</v>
       </c>
@@ -21637,7 +22360,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="7" t="s">
         <v>218</v>
       </c>
@@ -21646,7 +22369,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>603</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -21657,7 +22380,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="7" t="s">
         <v>577</v>
       </c>
@@ -21666,7 +22389,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="7" t="s">
         <v>582</v>
       </c>
@@ -21675,7 +22398,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="7" t="s">
         <v>584</v>
       </c>
@@ -21684,7 +22407,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="7" t="s">
         <v>586</v>
       </c>
@@ -21693,7 +22416,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="7" t="s">
         <v>588</v>
       </c>
@@ -21702,7 +22425,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="7" t="s">
         <v>581</v>
       </c>
@@ -21727,10 +22450,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="45" t="s">
         <v>615</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -21738,14 +22461,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+      <c r="A52" s="45" t="s">
         <v>658</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -21756,7 +22479,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="7" t="s">
         <v>660</v>
       </c>
@@ -21813,7 +22536,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -21824,7 +22547,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
         <v>641</v>
       </c>
@@ -21833,7 +22556,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>634</v>
       </c>
@@ -21842,7 +22565,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>633</v>
       </c>
@@ -22198,7 +22921,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>720</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -22206,7 +22929,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="7" t="s">
         <v>722</v>
       </c>
@@ -22215,7 +22938,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="7" t="s">
         <v>724</v>
       </c>
@@ -22224,13 +22947,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="C4" s="8" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>730</v>
       </c>
@@ -22239,7 +22962,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>727</v>
       </c>
@@ -22248,7 +22971,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>723</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -22256,14 +22979,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>745</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -22274,7 +22997,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
         <v>746</v>
@@ -22318,7 +23041,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>732</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -22329,8 +23052,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46" t="s">
         <v>782</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -22338,14 +23061,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="8" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="7" t="s">
         <v>733</v>
       </c>
@@ -22354,7 +23077,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="7" t="s">
         <v>735</v>
       </c>
@@ -22363,7 +23086,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="7" t="s">
         <v>737</v>
       </c>
@@ -22372,7 +23095,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="7" t="s">
         <v>739</v>
       </c>
@@ -22381,7 +23104,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>813</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -22392,7 +23115,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="7" t="s">
         <v>810</v>
       </c>
@@ -22401,7 +23124,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="7" t="s">
         <v>811</v>
       </c>
@@ -22410,7 +23133,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="7" t="s">
         <v>819</v>
       </c>
@@ -22419,7 +23142,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="7" t="s">
         <v>821</v>
       </c>
@@ -22431,7 +23154,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>770</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -22442,7 +23165,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="7" t="s">
         <v>768</v>
       </c>
@@ -22451,7 +23174,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="7" t="s">
         <v>766</v>
       </c>
@@ -22460,7 +23183,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="7" t="s">
         <v>769</v>
       </c>
@@ -22469,7 +23192,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>771</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -22480,7 +23203,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="8" t="s">
         <v>781</v>
       </c>
@@ -22489,7 +23212,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="7" t="s">
         <v>774</v>
       </c>
@@ -22498,7 +23221,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="7" t="s">
         <v>778</v>
       </c>
@@ -22507,7 +23230,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="7" t="s">
         <v>776</v>
       </c>
@@ -22516,10 +23239,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="54" t="s">
         <v>802</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="8" t="s">
         <v>803</v>
       </c>
@@ -22537,7 +23260,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="45" t="s">
         <v>786</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -22548,7 +23271,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="7" t="s">
         <v>789</v>
       </c>
@@ -22557,7 +23280,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="7" t="s">
         <v>790</v>
       </c>
@@ -22576,7 +23299,7 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>795</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -22584,13 +23307,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="C47" s="8" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="46" t="s">
         <v>756</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -22598,8 +23321,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="44" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="45" t="s">
         <v>741</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -22607,14 +23330,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="46" t="s">
         <v>885</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -22625,7 +23348,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="7" t="s">
         <v>804</v>
       </c>
@@ -22634,7 +23357,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="46" t="s">
         <v>762</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -22642,7 +23365,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="8" t="s">
         <v>763</v>
       </c>
@@ -22672,7 +23395,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="45" t="s">
         <v>844</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -22680,7 +23403,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="7" t="s">
         <v>846</v>
       </c>
@@ -22689,7 +23412,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="7" t="s">
         <v>847</v>
       </c>
@@ -22698,7 +23421,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="7" t="s">
         <v>851</v>
       </c>
@@ -22715,7 +23438,7 @@
       <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="45" t="s">
         <v>779</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -22723,7 +23446,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="7" t="s">
         <v>825</v>
       </c>
@@ -22732,8 +23455,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44" t="s">
+      <c r="A71" s="45"/>
+      <c r="B71" s="45" t="s">
         <v>827</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -22741,22 +23464,22 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
       <c r="C72" s="8" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="8" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="45" t="s">
         <v>832</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -22764,8 +23487,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="8" t="s">
         <v>833</v>
       </c>
@@ -22795,7 +23518,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="45" t="s">
         <v>839</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -22803,7 +23526,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="7" t="s">
         <v>727</v>
       </c>
@@ -22812,7 +23535,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="7" t="s">
         <v>836</v>
       </c>
@@ -22870,7 +23593,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>893</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -22881,7 +23604,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="7" t="s">
         <v>900</v>
       </c>
@@ -22890,7 +23613,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="7" t="s">
         <v>901</v>
       </c>
@@ -22908,7 +23631,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>924</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -22919,8 +23642,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45" t="s">
         <v>926</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -22928,8 +23651,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="43" t="s">
         <v>922</v>
       </c>
@@ -23029,7 +23752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACA8427-79A7-4C97-8B47-E8404C06B316}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -23042,23 +23765,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>948</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>950</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -23086,161 +23809,161 @@
       <c r="C11" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
+        <v>951</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="7" t="s">
-        <v>953</v>
-      </c>
-      <c r="C16" s="8" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>635</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="7" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="7" t="s">
-        <v>957</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="7" t="s">
-        <v>958</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="7" t="s">
-        <v>959</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="7" t="s">
-        <v>965</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="C26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="7" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="C27" s="8" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="7" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="C28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="7" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="C29" s="8" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45" t="s">
+      <c r="C30" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="C30" s="8" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="8" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="8" t="s">
         <v>977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="8" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="8" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>981</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -23270,7 +23993,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -23278,19 +24001,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="47"/>
       <c r="B2" s="7" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -23386,7 +24109,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -23394,7 +24117,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
@@ -23403,7 +24126,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>252</v>
       </c>
@@ -23412,7 +24135,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
@@ -23421,7 +24144,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="C11" s="7" t="s">
         <v>250</v>
       </c>
@@ -23453,7 +24176,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="45" t="s">
         <v>329</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -23461,8 +24184,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="47" t="s">
         <v>330</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -23470,15 +24193,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="7" t="s">
         <v>341</v>
       </c>
@@ -23518,10 +24241,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>598</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="46" t="s">
         <v>590</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -23529,14 +24252,14 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="8" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="8" t="s">
         <v>593</v>
       </c>
@@ -23545,7 +24268,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="8" t="s">
         <v>595</v>
       </c>
@@ -23583,7 +24306,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>679</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -23594,7 +24317,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7" t="s">
         <v>669</v>
       </c>
@@ -23603,7 +24326,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="7" t="s">
         <v>670</v>
       </c>
@@ -23612,7 +24335,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="7" t="s">
         <v>671</v>
       </c>
@@ -23621,7 +24344,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="7" t="s">
         <v>676</v>
       </c>
@@ -23630,16 +24353,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="C8" s="7" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>701</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -23647,21 +24370,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="8" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="7" t="s">
         <v>682</v>
       </c>
@@ -23670,14 +24393,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="7" t="s">
         <v>683</v>
       </c>
@@ -23686,23 +24409,23 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="49"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>689</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -23713,7 +24436,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="7" t="s">
         <v>691</v>
       </c>
@@ -23722,7 +24445,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="7" t="s">
         <v>692</v>
       </c>
@@ -23731,7 +24454,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="7" t="s">
         <v>693</v>
       </c>
@@ -23740,7 +24463,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="7" t="s">
         <v>694</v>
       </c>
@@ -23749,7 +24472,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>702</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -23757,25 +24480,25 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="C28" s="8" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="C29" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="C30" s="8" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>712</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -23786,7 +24509,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>715</v>
       </c>
@@ -23949,8 +24672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2ED824-368F-4E93-954F-265BD80AAEEE}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C65" sqref="C64:C65"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24005,7 +24728,7 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="13"/>
@@ -24014,21 +24737,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="7"/>
@@ -24037,13 +24760,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="C15" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="45" t="s">
         <v>373</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -24054,7 +24777,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="7" t="s">
         <v>374</v>
       </c>
@@ -24079,7 +24802,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>223</v>
       </c>
       <c r="B21" s="7"/>
@@ -24088,20 +24811,20 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="C23" s="8" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="20" t="s">
         <v>244</v>
       </c>
@@ -24110,8 +24833,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="45" t="s">
         <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -24119,15 +24842,15 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="8" t="s">
         <v>368</v>
       </c>
@@ -24136,7 +24859,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="45" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="7"/>
@@ -24145,7 +24868,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="7" t="s">
         <v>230</v>
       </c>
@@ -24154,7 +24877,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="11" t="s">
         <v>231</v>
       </c>
@@ -24171,7 +24894,7 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="50" t="s">
         <v>238</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -24179,31 +24902,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="24" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="49"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="49"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="51" t="s">
         <v>237</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -24211,19 +24934,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="216" x14ac:dyDescent="0.25">
-      <c r="B40" s="50"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B41" s="50"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="24" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="45" t="s">
         <v>241</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -24231,7 +24954,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B43" s="44"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="8" t="s">
         <v>243</v>
       </c>
@@ -24245,7 +24968,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>263</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -24253,13 +24976,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="C47" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="7" t="s">
         <v>264</v>
       </c>
@@ -24268,7 +24991,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="C49" s="16" t="s">
         <v>277</v>
       </c>
@@ -24290,7 +25013,7 @@
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="45" t="s">
         <v>525</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -24301,7 +25024,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="25" t="s">
         <v>526</v>
       </c>
@@ -24310,7 +25033,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="25" t="s">
         <v>531</v>
       </c>
@@ -24319,14 +25042,14 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="25" t="s">
         <v>907</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="25" t="s">
         <v>908</v>
       </c>
@@ -24335,7 +25058,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="25" t="s">
         <v>911</v>
       </c>
@@ -24344,7 +25067,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="25" t="s">
         <v>912</v>
       </c>
@@ -24353,7 +25076,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="25" t="s">
         <v>913</v>
       </c>
@@ -24362,7 +25085,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="25" t="s">
         <v>915</v>
       </c>
@@ -24371,7 +25094,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="46" t="s">
         <v>459</v>
       </c>
       <c r="B67" s="24" t="s">
@@ -24382,7 +25105,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="25" t="s">
         <v>453</v>
       </c>
@@ -24391,7 +25114,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="25" t="s">
         <v>455</v>
       </c>
@@ -24400,7 +25123,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="25" t="s">
         <v>457</v>
       </c>
@@ -24409,23 +25132,23 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C71" s="48" t="s">
+      <c r="C71" s="49" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C72" s="48"/>
+      <c r="C72" s="49"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="25" t="s">
         <v>626</v>
       </c>
@@ -24461,10 +25184,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -24516,7 +25239,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="45" t="s">
         <v>398</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -24524,7 +25247,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="7" t="s">
         <v>394</v>
       </c>
@@ -24533,7 +25256,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="7" t="s">
         <v>395</v>
       </c>
@@ -24550,7 +25273,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>423</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -24558,13 +25281,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="C25" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -24575,7 +25298,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="11" t="s">
         <v>546</v>
       </c>
@@ -24584,7 +25307,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="11" t="s">
         <v>547</v>
       </c>
@@ -24593,7 +25316,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="45" t="s">
         <v>559</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -24601,7 +25324,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>561</v>
       </c>
@@ -24610,7 +25333,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="7" t="s">
         <v>562</v>
       </c>
@@ -24624,10 +25347,10 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="46" t="s">
         <v>881</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -24635,21 +25358,21 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="8" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="7" t="s">
         <v>867</v>
       </c>
@@ -24658,8 +25381,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="51" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="52" t="s">
         <v>610</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -24667,14 +25390,14 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="8" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="38" t="s">
         <v>133</v>
       </c>
@@ -24683,7 +25406,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="7" t="s">
         <v>871</v>
       </c>
@@ -24692,7 +25415,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="7" t="s">
         <v>873</v>
       </c>
@@ -24701,7 +25424,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="7" t="s">
         <v>875</v>
       </c>
@@ -24710,7 +25433,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="7" t="s">
         <v>876</v>
       </c>
@@ -24719,10 +25442,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>853</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="45" t="s">
         <v>854</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -24730,8 +25453,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="8" t="s">
         <v>880</v>
       </c>
@@ -24742,7 +25465,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="45" t="s">
         <v>855</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -24753,7 +25476,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="7" t="s">
         <v>857</v>
       </c>
@@ -24762,7 +25485,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="7" t="s">
         <v>858</v>
       </c>
@@ -24771,7 +25494,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="7" t="s">
         <v>859</v>
       </c>
@@ -24780,7 +25503,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="7" t="s">
         <v>860</v>
       </c>
@@ -24795,14 +25518,14 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>946</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="45" t="s">
         <v>933</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -24813,7 +25536,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="7" t="s">
         <v>933</v>
       </c>
@@ -24822,7 +25545,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="7" t="s">
         <v>938</v>
       </c>
@@ -24831,8 +25554,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45" t="s">
         <v>937</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -24840,8 +25563,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="8" t="s">
         <v>940</v>
       </c>
@@ -24857,7 +25580,7 @@
       <c r="C63" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="45" t="s">
         <v>930</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -24867,35 +25590,141 @@
         <v>942</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A66" s="45"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>932</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>944</v>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="45"/>
+      <c r="B69" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="45"/>
+      <c r="B70" s="46" t="s">
+        <v>988</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="45"/>
+      <c r="B72" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C72" s="44" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="45"/>
+      <c r="B73" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="45"/>
+      <c r="B74" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="45"/>
+      <c r="B75" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="45"/>
+      <c r="B76" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="45"/>
+      <c r="B77" s="46" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="8" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="8" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="45"/>
+      <c r="B80" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A45"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A45"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24908,7 +25737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADC6B30-4C05-41E2-822F-2F8A02956522}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -24919,7 +25748,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>269</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -24927,7 +25756,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="7" t="s">
         <v>426</v>
       </c>
@@ -24936,7 +25765,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="7" t="s">
         <v>428</v>
       </c>
@@ -24945,7 +25774,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="7" t="s">
         <v>427</v>
       </c>
@@ -24959,7 +25788,7 @@
       <c r="C5" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>382</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -24967,13 +25796,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="C8" s="8" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="C9" s="8" t="s">
         <v>381</v>
       </c>
@@ -25003,7 +25832,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
         <v>464</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -25014,7 +25843,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="7" t="s">
         <v>472</v>
       </c>
@@ -25023,10 +25852,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="53" t="s">
         <v>474</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -25034,15 +25863,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="24" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="24" t="s">
         <v>476</v>
       </c>
@@ -25072,7 +25901,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="45" t="s">
         <v>493</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -25080,7 +25909,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="7" t="s">
         <v>491</v>
       </c>
@@ -25089,7 +25918,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="25" t="s">
         <v>494</v>
       </c>
@@ -25098,7 +25927,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="25" t="s">
         <v>496</v>
       </c>
@@ -25107,20 +25936,20 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="C44" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="45" t="s">
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -25128,7 +25957,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="8" t="s">
         <v>503</v>
       </c>
@@ -25167,7 +25996,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>665</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -25175,13 +26004,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="C3" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="7" t="s">
         <v>528</v>
       </c>
@@ -25190,7 +26019,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="7" t="s">
         <v>534</v>
       </c>
@@ -25203,7 +26032,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -25211,7 +26040,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>272</v>
       </c>
@@ -25220,7 +26049,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="7" t="s">
         <v>274</v>
       </c>
@@ -25229,7 +26058,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>441</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -25237,19 +26066,19 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="C13" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -25257,8 +26086,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45" t="s">
         <v>445</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -25266,21 +26095,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="45" t="s">
         <v>270</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -25288,13 +26117,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="C21" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -25305,7 +26134,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="7" t="s">
         <v>537</v>
       </c>
@@ -25314,7 +26143,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="7" t="s">
         <v>539</v>
       </c>
@@ -25342,7 +26171,7 @@
       <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="45" t="s">
         <v>551</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -25353,7 +26182,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="7" t="s">
         <v>553</v>
       </c>
@@ -25362,7 +26191,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>555</v>
       </c>
@@ -25371,7 +26200,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="7" t="s">
         <v>554</v>
       </c>
@@ -25399,10 +26228,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="115.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="8" t="s">
         <v>602</v>
       </c>

--- a/java.xlsx
+++ b/java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzxs\work\CS-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4EDB9-B9A5-4A72-9B20-CFDCEA429474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C535E3-287B-454C-9D90-94565A296162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="760" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="React" sheetId="15" r:id="rId15"/>
     <sheet name="Mockito" sheetId="16" r:id="rId16"/>
     <sheet name="SpringBatch" sheetId="17" r:id="rId17"/>
+    <sheet name="XML&amp;webservice" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1051">
   <si>
     <t>SE,EE</t>
   </si>
@@ -19295,6 +19296,530 @@
       </rPr>
       <t>(LambdaQueryWrapper的写法如果有错，则在编译期就会报错，而QueryWrapper需要运行的时候调用该方法才会报错)</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>非线程安全的集合对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程安全(Thread-safe)的集合对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList
+LinkedList
+HashMap
+HashSet
+TreeMap
+TreeSet
+StringBulider</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector ：它和ArrayList在常用方法的实现上很相似，不同的只是它采用了同步关键词synchronized修饰方法。
+HashTable，ConcurrentHashMap：区别在于他们对加锁的范围不同，HashTable 对整张Hash表进行加锁，而ConcurrentHashMap将Hash表分为16桶(segment)，每次只对需要的桶进行加锁。
+StringBuffer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collections 类提供了synchronizedXxx()方法，可以将指定的集合包装成线程同步的集合：
+List  list = Collections.synchronizedList(new ArrayList());        synchronizedList的底层使用了新的容器包装原始的List
+Set  set = Collections.synchronizedSet(new HashSet());
+synchronizedSortedSet， synchronizedMap， synchronizedSortedMap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML命名空间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于DTD语法过于复杂和功能不够强大，逐渐被schema代替</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//规定xml必须以note为root节点，子元素为to，from，body
+&lt;!DOCTYPE note[
+    &lt;!ELEMENT note(to,from,body)&gt;
+]&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部DTD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>//引入DTD文件约束
+&lt;!DOCTYPE note SYSTEM "note.dtd"&gt;
+&lt;note&gt;
+    &lt;to&gt;du&lt;/to&gt;
+    &lt;from&gt;chen&lt;/from&gt;
+    &lt;body&gt;hello&lt;/body&gt;
+&lt;/note&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部DTD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml schema</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;xs:element name="note"&gt;
+  &lt;xs:complexType&gt;
+    &lt;xs:sequence&gt;
+      &lt;xs:element name="to" type="xs:string"/&gt;
+      &lt;xs:element name="from" type="xs:string"/&gt;
+      &lt;xs:element name="heading" type="xs:string"/&gt;
+      &lt;xs:element name="body" type="xs:string"/&gt;
+    &lt;/xs:sequence&gt;
+  &lt;/xs:complexType&gt;
+&lt;/xs:element&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用是定义 XML 文档的合法构建模块，类似 DTD。文件类型为xxx.xsd
+在XML中，Schema指的是定义和描述XML文档的规则，翻译为模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOAP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple Object Access Protoco简单对象访问协议,是在分散或分布式的环境中交换信息的简单的协议，是一个基于 XML 的协议</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="utf-8"?&gt;
+&lt;soap:Envelope
+    xmlns:soap="http://www.w3.org/2003/05/soap-envelope"
+    soap:encodingStyle="http://www.w3.org/2003/05/soap-encoding"&gt;
+    &lt;soap:Header&gt;
+        &lt;!-- 消息头，可选    一般用于身份验证  --&gt;
+    &lt;/soap:Header&gt;
+    &lt;soap:Body&gt;
+        &lt;!-- 消息内容，必需      包含所有的调用和响应信息--&gt;
+        &lt;soap:Fault&gt;
+            &lt;!-- 错误信息，可选 --&gt;
+        &lt;/soap:Fault&gt;
+    &lt;/soap:Body&gt;
+&lt;/soap:Envelope&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Body </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.远程过程调用（RPC）的方法及其参数；
+2.目标应用程序（消息接收者即接口调用者）所需要的数据；
+3.报告故障和状态消息的 SOAP Fault；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soap请求</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一个SOAP请求其实就是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTTP请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，请求体是xml，但为了表明内容是SOAP的数据，需要在http header加入</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOAPAction: ""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来以示区别。也就是说，如果请求头中有SOAPAction这一段，那么请求会被当作SOAP的内容来处理而不会当作HTML来解析。
+可以用上面指定SOAPAction头来表示内容是SOAP的内容，也可以指定 Content-Type: application/soap+xml 来表示内容是SOAP的内容。
+body中最后的XML数据，是请求的具体内容，这个就是SOAP规定的请求的数据格式。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;soap:Body&gt;
+        &lt;getSupportCity xmlns="http://WebXml.com.cn/"&gt;           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求的方法为getSupportCity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            &lt;byProvinceName&gt;广东&lt;/byProvinceName&gt;      该方法有一个名为byProvinceName的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，参数的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为“广东”这个字符串
+        &lt;/getSupportCity&gt;
+    &lt;/soap:Body&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Services Description Language，用来描述WebService，它用XML的格式描述了WebService有哪些方法、参数类型、访问路径等等。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soap可以类比http协议，wsdl可以类比一个http服务的接口文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsdl绑定服务的时候可以设定使用的协议，协议可以是soap、http、smtp、ftp等任何一种传输协议，除此以外wsdl还可以绑定jms、ejb及local java等等，不过都是需要对binding和service元素做扩展的，而且需要扩展服务器的功能以支持这种扩展</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsdl 文档描述了 ws 主要的3个方面:
+1）WHATA：该 ws 包含”什么“操作，即有几个方法。
+2）HOW：该 ws 的操作应该”怎样“调用？
+3）WHERE：该 ws 的服务地址。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>web+service,也就是 服务（service）网络（web）化的意思。他力求的是跨语言，跨平台的，基于web传输的远程调用能力。他没有强调远程调用使用什么协议，所以可以自由选择，如soap协议(可基于http,smtp,等各种传输协议)，或者常见的基于http的json化的数据传输协议，基于dubbo协议的dubbo服务调用都属于web service的一种实现。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种基本元素</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDL
+SOAP
+UDDI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>webservice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDDI</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Universal Description，Discovery and Integration，也就是通用的描述，发现以及整合
+跨产业，跨平台的开放性架构，
+可以帮助 Web 服务提供商在互联网上发布 Web 服务的信息。
+UDDI 呢是一种目录服务，企业可以通过 UDDI 来注册和搜索 Web 服务。
+简单来时候话，UDDI 就是一个目录，只不过在这个目录中存放的是一些关于 Web 服务的信息而已。
+并且 UDDI 通过SOAP 进行通讯，构建于 . Net 之上。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发 Web服务的方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开发阶段:实现一个 Web 服务，使这个Web服务能响应和接收 SOAP 消息,撰写 WSDL文件（开发工具可自动生成）
+2.部署:指定 Web 服务的传输协议，将 Web 服务注册到相应服务描述部署文件（可以由工具来自动完成）
+3.发布:将 Web 服务的接口和调用的地址公开给客户端调用，常用的发布方式为基于 Web 提供的WSDL的链接，或者 UDDI。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xmlns:namespace-prefix="namespaceURI"
+当命名空间被定义在元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中时，所有带有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相同前缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都会与同一个命名空间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相关联</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的命名空间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;h:table xmlns:h="http://www.w3.org/TR/html4/"&gt;      h相当于起了个别名
+   &lt;h:tr&gt;
+   &lt;h:td&gt;Apples&lt;/h:td&gt;
+   &lt;h:td&gt;Bananas&lt;/h:td&gt;
+   &lt;/h:tr&gt;
+&lt;/h:table&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为元素定义默认的命名空间可以让我们</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>省去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在所有的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用前缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的工作
+&lt;table xmlns="http://www.w3.org/TR/html4/"&gt;
+   &lt;tr&gt;
+   &lt;td&gt;Apples&lt;/td&gt;
+   &lt;td&gt;Bananas&lt;/td&gt;
+   &lt;/tr&gt;
+&lt;/table&gt;</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wsdl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>webservice,WSDL和SOAP概念区分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -19430,7 +19955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19567,12 +20092,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -20925,10 +21453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -21144,10 +21672,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="48" t="s">
         <v>168</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -21155,8 +21683,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="8" t="s">
         <v>171</v>
       </c>
@@ -21176,7 +21704,7 @@
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>67</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -21187,14 +21715,14 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="7" t="s">
         <v>70</v>
       </c>
@@ -21203,7 +21731,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -21212,7 +21740,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="7" t="s">
         <v>72</v>
       </c>
@@ -21221,7 +21749,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="7" t="s">
         <v>73</v>
       </c>
@@ -21230,14 +21758,14 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="7" t="s">
         <v>75</v>
       </c>
@@ -21246,8 +21774,8 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="48"/>
+      <c r="B54" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -21255,21 +21783,21 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="8" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="18" t="s">
         <v>317</v>
       </c>
@@ -21278,10 +21806,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="48" t="s">
         <v>179</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -21289,8 +21817,8 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="8" t="s">
         <v>180</v>
       </c>
@@ -21323,7 +21851,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="48" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -21334,7 +21862,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="7" t="s">
         <v>84</v>
       </c>
@@ -21352,7 +21880,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="48" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="7"/>
@@ -21361,7 +21889,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="7" t="s">
         <v>91</v>
       </c>
@@ -21370,14 +21898,14 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="7" t="s">
         <v>93</v>
       </c>
@@ -21386,7 +21914,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="7" t="s">
         <v>321</v>
       </c>
@@ -21395,7 +21923,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="7" t="s">
         <v>319</v>
       </c>
@@ -21404,7 +21932,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="7" t="s">
         <v>98</v>
       </c>
@@ -21413,7 +21941,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="7" t="s">
         <v>115</v>
       </c>
@@ -21422,7 +21950,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="7" t="s">
         <v>99</v>
       </c>
@@ -21431,7 +21959,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="7" t="s">
         <v>117</v>
       </c>
@@ -21440,7 +21968,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="48" t="s">
         <v>101</v>
       </c>
       <c r="B76" s="14"/>
@@ -21449,7 +21977,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="14"/>
       <c r="C77" s="8" t="s">
         <v>103</v>
@@ -21465,7 +21993,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -21476,7 +22004,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="7" t="s">
         <v>106</v>
       </c>
@@ -21496,10 +22024,10 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="48" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -21507,14 +22035,14 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="10" t="s">
         <v>194</v>
       </c>
@@ -21523,10 +22051,10 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -21534,14 +22062,14 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
+      <c r="A87" s="48"/>
       <c r="B87" t="s">
         <v>42</v>
       </c>
@@ -21550,7 +22078,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
+      <c r="A88" s="48"/>
       <c r="B88" t="s">
         <v>43</v>
       </c>
@@ -21559,7 +22087,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="7" t="s">
         <v>88</v>
       </c>
@@ -21571,7 +22099,7 @@
       <c r="A90" s="6"/>
     </row>
     <row r="91" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="48" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="8" t="s">
@@ -21579,7 +22107,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A92" s="45"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="7" t="s">
         <v>120</v>
       </c>
@@ -21588,7 +22116,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="7" t="s">
         <v>121</v>
       </c>
@@ -21597,7 +22125,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="7" t="s">
         <v>122</v>
       </c>
@@ -21606,7 +22134,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="7" t="s">
         <v>124</v>
       </c>
@@ -21615,7 +22143,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="7" t="s">
         <v>126</v>
       </c>
@@ -21632,13 +22160,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B99" s="48"/>
+      <c r="B99" s="49"/>
     </row>
     <row r="100" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A100" s="45" t="s">
+      <c r="A100" s="48" t="s">
         <v>131</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -21649,7 +22177,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
+      <c r="A101" s="48"/>
       <c r="B101" t="s">
         <v>49</v>
       </c>
@@ -21658,7 +22186,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="45"/>
+      <c r="A102" s="48"/>
       <c r="B102" t="s">
         <v>51</v>
       </c>
@@ -21667,7 +22195,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="45"/>
+      <c r="A103" s="48"/>
       <c r="B103" t="s">
         <v>52</v>
       </c>
@@ -21676,7 +22204,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -21687,7 +22215,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="45"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="11" t="s">
         <v>47</v>
       </c>
@@ -21704,7 +22232,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="45" t="s">
+      <c r="A107" s="48" t="s">
         <v>133</v>
       </c>
       <c r="C107" s="7" t="s">
@@ -21712,7 +22240,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="3" t="s">
         <v>54</v>
       </c>
@@ -21721,7 +22249,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="3" t="s">
         <v>56</v>
       </c>
@@ -21730,7 +22258,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
+      <c r="A110" s="48"/>
       <c r="B110" t="s">
         <v>57</v>
       </c>
@@ -21739,7 +22267,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
+      <c r="A111" s="48"/>
       <c r="B111" t="s">
         <v>58</v>
       </c>
@@ -21772,7 +22300,7 @@
       <c r="C114" s="8"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="45" t="s">
+      <c r="A116" s="48" t="s">
         <v>143</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -21780,13 +22308,13 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
+      <c r="A117" s="48"/>
       <c r="C117" s="7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
+      <c r="A118" s="48"/>
       <c r="B118" s="7" t="s">
         <v>146</v>
       </c>
@@ -21795,7 +22323,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
+      <c r="A119" s="48"/>
       <c r="B119" s="7" t="s">
         <v>148</v>
       </c>
@@ -21804,7 +22332,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
+      <c r="A120" s="48"/>
       <c r="B120" s="7" t="s">
         <v>184</v>
       </c>
@@ -21813,7 +22341,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A121" s="45" t="s">
+      <c r="A121" s="48" t="s">
         <v>161</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -21824,7 +22352,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="45"/>
+      <c r="A122" s="48"/>
       <c r="B122" s="7" t="s">
         <v>152</v>
       </c>
@@ -21833,7 +22361,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A123" s="45"/>
+      <c r="A123" s="48"/>
       <c r="B123" s="7" t="s">
         <v>154</v>
       </c>
@@ -21842,7 +22370,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="45"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="7" t="s">
         <v>155</v>
       </c>
@@ -21851,7 +22379,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="7" t="s">
         <v>156</v>
       </c>
@@ -21860,7 +22388,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A126" s="45"/>
+      <c r="A126" s="48"/>
       <c r="B126" s="7" t="s">
         <v>160</v>
       </c>
@@ -21869,7 +22397,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="45" t="s">
+      <c r="A128" s="48" t="s">
         <v>166</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -21880,7 +22408,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="11" t="s">
         <v>206</v>
       </c>
@@ -21889,7 +22417,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="7" t="s">
         <v>208</v>
       </c>
@@ -21898,7 +22426,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A131" s="45"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="7"/>
       <c r="C131" s="8" t="s">
         <v>261</v>
@@ -21912,10 +22440,10 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A134" s="45" t="s">
+      <c r="A134" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="B134" s="45" t="s">
+      <c r="B134" s="48" t="s">
         <v>211</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -21923,21 +22451,21 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
+      <c r="A135" s="48"/>
+      <c r="B135" s="48"/>
       <c r="C135" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
+      <c r="A136" s="48"/>
+      <c r="B136" s="48"/>
       <c r="C136" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="35" t="s">
         <v>799</v>
       </c>
@@ -21946,7 +22474,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="7" t="s">
         <v>216</v>
       </c>
@@ -21955,8 +22483,8 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45" t="s">
+      <c r="A139" s="48"/>
+      <c r="B139" s="48" t="s">
         <v>217</v>
       </c>
       <c r="C139" s="8" t="s">
@@ -21964,21 +22492,21 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="48"/>
       <c r="C140" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="48"/>
       <c r="C141" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A142" s="45"/>
+      <c r="A142" s="48"/>
       <c r="B142" s="12" t="s">
         <v>218</v>
       </c>
@@ -21987,7 +22515,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A143" s="45"/>
+      <c r="A143" s="48"/>
       <c r="B143" s="23" t="s">
         <v>622</v>
       </c>
@@ -21996,7 +22524,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A144" s="45"/>
+      <c r="A144" s="48"/>
       <c r="B144" s="7" t="s">
         <v>624</v>
       </c>
@@ -22005,8 +22533,8 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45" t="s">
+      <c r="A145" s="48"/>
+      <c r="B145" s="48" t="s">
         <v>645</v>
       </c>
       <c r="C145" s="8" t="s">
@@ -22014,14 +22542,14 @@
       </c>
     </row>
     <row r="146" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
+      <c r="A146" s="48"/>
+      <c r="B146" s="48"/>
       <c r="C146" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A147" s="45"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="31" t="s">
         <v>649</v>
       </c>
@@ -22033,7 +22561,7 @@
       <c r="A148" s="34"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="45" t="s">
+      <c r="A149" s="48" t="s">
         <v>189</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -22041,7 +22569,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
+      <c r="A150" s="48"/>
       <c r="B150" s="7" t="s">
         <v>190</v>
       </c>
@@ -22050,7 +22578,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A151" s="45"/>
+      <c r="A151" s="48"/>
       <c r="B151" s="7" t="s">
         <v>192</v>
       </c>
@@ -22059,7 +22587,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A152" s="45"/>
+      <c r="A152" s="48"/>
       <c r="B152" s="7" t="s">
         <v>657</v>
       </c>
@@ -22169,7 +22697,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="45" t="s">
+      <c r="A167" s="48" t="s">
         <v>385</v>
       </c>
       <c r="C167" s="8" t="s">
@@ -22177,7 +22705,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A168" s="45"/>
+      <c r="A168" s="48"/>
       <c r="C168" s="8" t="s">
         <v>387</v>
       </c>
@@ -22191,7 +22719,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="45" t="s">
+      <c r="A170" s="48" t="s">
         <v>418</v>
       </c>
       <c r="C170" s="8" t="s">
@@ -22199,19 +22727,19 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="45"/>
+      <c r="A171" s="48"/>
       <c r="C171" s="8" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="45"/>
+      <c r="A172" s="48"/>
       <c r="C172" s="8" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A173" s="45"/>
+      <c r="A173" s="48"/>
       <c r="C173" s="8" t="s">
         <v>421</v>
       </c>
@@ -22225,7 +22753,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="45" t="s">
+      <c r="A177" s="48" t="s">
         <v>795</v>
       </c>
       <c r="C177" s="8" t="s">
@@ -22233,23 +22761,49 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="45"/>
+      <c r="A178" s="48"/>
       <c r="C178" s="8" t="s">
         <v>797</v>
       </c>
     </row>
+    <row r="180" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="C182" s="8" t="s">
+        <v>1012</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A46:A57"/>
-    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A121:A126"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="A134:A147"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B139:B141"/>
     <mergeCell ref="A116:A120"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="B85:B86"/>
@@ -22264,18 +22818,16 @@
     <mergeCell ref="A91:A96"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="A134:A147"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B139:B141"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A46:A57"/>
+    <mergeCell ref="B54:B56"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22343,7 +22895,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="48" t="s">
         <v>517</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -22351,7 +22903,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="7" t="s">
         <v>519</v>
       </c>
@@ -22360,7 +22912,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="7" t="s">
         <v>218</v>
       </c>
@@ -22369,7 +22921,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="48" t="s">
         <v>603</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -22380,7 +22932,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="7" t="s">
         <v>577</v>
       </c>
@@ -22389,7 +22941,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="7" t="s">
         <v>582</v>
       </c>
@@ -22398,7 +22950,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="7" t="s">
         <v>584</v>
       </c>
@@ -22407,7 +22959,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="7" t="s">
         <v>586</v>
       </c>
@@ -22416,7 +22968,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="7" t="s">
         <v>588</v>
       </c>
@@ -22425,7 +22977,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="7" t="s">
         <v>581</v>
       </c>
@@ -22450,10 +23002,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="48" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="48" t="s">
         <v>615</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -22461,14 +23013,14 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="7" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="48" t="s">
         <v>658</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -22479,7 +23031,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="7" t="s">
         <v>660</v>
       </c>
@@ -22536,7 +23088,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -22547,7 +23099,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="7" t="s">
         <v>641</v>
       </c>
@@ -22556,7 +23108,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>634</v>
       </c>
@@ -22565,7 +23117,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>633</v>
       </c>
@@ -22921,7 +23473,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>720</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -22929,7 +23481,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="7" t="s">
         <v>722</v>
       </c>
@@ -22938,7 +23490,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="7" t="s">
         <v>724</v>
       </c>
@@ -22947,13 +23499,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7" t="s">
         <v>730</v>
       </c>
@@ -22962,7 +23514,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>727</v>
       </c>
@@ -22971,7 +23523,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>723</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -22979,14 +23531,14 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="48" t="s">
         <v>745</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -22997,7 +23549,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="s">
         <v>746</v>
@@ -23041,7 +23593,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>732</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -23052,7 +23604,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="46" t="s">
         <v>782</v>
       </c>
@@ -23061,14 +23613,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="46"/>
       <c r="C18" s="8" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
         <v>733</v>
       </c>
@@ -23077,7 +23629,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="7" t="s">
         <v>735</v>
       </c>
@@ -23086,7 +23638,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
         <v>737</v>
       </c>
@@ -23095,7 +23647,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7" t="s">
         <v>739</v>
       </c>
@@ -23192,7 +23744,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="48" t="s">
         <v>771</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -23203,7 +23755,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="8" t="s">
         <v>781</v>
       </c>
@@ -23212,7 +23764,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="7" t="s">
         <v>774</v>
       </c>
@@ -23221,7 +23773,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="7" t="s">
         <v>778</v>
       </c>
@@ -23230,7 +23782,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="7" t="s">
         <v>776</v>
       </c>
@@ -23239,10 +23791,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="B38" s="54"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="8" t="s">
         <v>803</v>
       </c>
@@ -23260,7 +23812,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="48" t="s">
         <v>786</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -23271,7 +23823,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="7" t="s">
         <v>789</v>
       </c>
@@ -23280,7 +23832,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="7" t="s">
         <v>790</v>
       </c>
@@ -23299,7 +23851,7 @@
       <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>795</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -23307,7 +23859,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="48"/>
       <c r="C47" s="8" t="s">
         <v>798</v>
       </c>
@@ -23322,7 +23874,7 @@
     </row>
     <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="46"/>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="48" t="s">
         <v>741</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -23331,7 +23883,7 @@
     </row>
     <row r="51" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A51" s="46"/>
-      <c r="B51" s="45"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="8" t="s">
         <v>742</v>
       </c>
@@ -23395,7 +23947,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="48" t="s">
         <v>844</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -23403,7 +23955,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="7" t="s">
         <v>846</v>
       </c>
@@ -23412,7 +23964,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="7" t="s">
         <v>847</v>
       </c>
@@ -23421,7 +23973,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="7" t="s">
         <v>851</v>
       </c>
@@ -23438,7 +23990,7 @@
       <c r="A68" s="7"/>
     </row>
     <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="45" t="s">
+      <c r="A69" s="48" t="s">
         <v>779</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -23446,7 +23998,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="7" t="s">
         <v>825</v>
       </c>
@@ -23455,8 +24007,8 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48" t="s">
         <v>827</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -23464,22 +24016,22 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
       <c r="C72" s="8" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="8" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48" t="s">
         <v>832</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -23487,8 +24039,8 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="8" t="s">
         <v>833</v>
       </c>
@@ -23518,7 +24070,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="48" t="s">
         <v>839</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -23526,7 +24078,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="7" t="s">
         <v>727</v>
       </c>
@@ -23535,7 +24087,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="7" t="s">
         <v>836</v>
       </c>
@@ -23550,13 +24102,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A37"/>
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="A69:A75"/>
@@ -23570,6 +24115,13 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23593,7 +24145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>893</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -23604,7 +24156,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="7" t="s">
         <v>900</v>
       </c>
@@ -23613,7 +24165,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="7" t="s">
         <v>901</v>
       </c>
@@ -23631,7 +24183,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>924</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -23642,8 +24194,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48" t="s">
         <v>926</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -23651,8 +24203,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="43" t="s">
         <v>922</v>
       </c>
@@ -23809,7 +24361,7 @@
       <c r="C11" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>951</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -23817,7 +24369,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="7" t="s">
         <v>952</v>
       </c>
@@ -23826,7 +24378,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>635</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -23837,7 +24389,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
         <v>982</v>
       </c>
@@ -23846,7 +24398,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="7" t="s">
         <v>956</v>
       </c>
@@ -23855,7 +24407,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
         <v>957</v>
       </c>
@@ -23864,7 +24416,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7" t="s">
         <v>958</v>
       </c>
@@ -23873,7 +24425,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="7" t="s">
         <v>959</v>
       </c>
@@ -23882,7 +24434,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="7" t="s">
         <v>961</v>
       </c>
@@ -23891,7 +24443,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="7" t="s">
         <v>964</v>
       </c>
@@ -23900,7 +24452,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="7" t="s">
         <v>967</v>
       </c>
@@ -23909,7 +24461,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="7" t="s">
         <v>969</v>
       </c>
@@ -23918,7 +24470,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="7" t="s">
         <v>971</v>
       </c>
@@ -23927,7 +24479,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="7" t="s">
         <v>973</v>
       </c>
@@ -23936,7 +24488,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="46" t="s">
         <v>975</v>
       </c>
@@ -23945,14 +24497,14 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="46"/>
       <c r="C31" s="8" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="46"/>
       <c r="C32" s="8" t="s">
         <v>977</v>
@@ -23975,6 +24527,204 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D71CB80-F8C1-44D9-96CB-5C20BBAE5122}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="126" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="C2" s="8" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="C8" s="8" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="201.6" x14ac:dyDescent="0.25">
+      <c r="C12" s="8" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="45" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A23:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24109,7 +24859,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -24117,7 +24867,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
@@ -24126,7 +24876,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>252</v>
       </c>
@@ -24135,7 +24885,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="7" t="s">
         <v>255</v>
       </c>
@@ -24144,7 +24894,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="C11" s="7" t="s">
         <v>250</v>
       </c>
@@ -24176,7 +24926,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>329</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -24184,7 +24934,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="47" t="s">
         <v>330</v>
       </c>
@@ -24193,14 +24943,14 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="47"/>
       <c r="C20" s="7" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="47"/>
       <c r="C21" s="7" t="s">
         <v>341</v>
@@ -24306,7 +25056,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>679</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -24317,7 +25067,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="7" t="s">
         <v>669</v>
       </c>
@@ -24326,7 +25076,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7" t="s">
         <v>670</v>
       </c>
@@ -24335,7 +25085,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7" t="s">
         <v>671</v>
       </c>
@@ -24344,7 +25094,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="7" t="s">
         <v>676</v>
       </c>
@@ -24353,16 +25103,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="C8" s="7" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="48" t="s">
         <v>701</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="48" t="s">
         <v>680</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -24370,21 +25120,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="7" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="8" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7" t="s">
         <v>682</v>
       </c>
@@ -24393,14 +25143,14 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="7" t="s">
         <v>683</v>
       </c>
@@ -24409,23 +25159,23 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="50"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="48" t="s">
         <v>689</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -24436,7 +25186,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7" t="s">
         <v>691</v>
       </c>
@@ -24445,7 +25195,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7" t="s">
         <v>692</v>
       </c>
@@ -24454,7 +25204,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="7" t="s">
         <v>693</v>
       </c>
@@ -24463,7 +25213,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="7" t="s">
         <v>694</v>
       </c>
@@ -24472,7 +25222,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>702</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -24480,25 +25230,25 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="C28" s="8" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="C29" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="C30" s="8" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="48" t="s">
         <v>712</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -24509,7 +25259,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="7" t="s">
         <v>715</v>
       </c>
@@ -24728,7 +25478,7 @@
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>222</v>
       </c>
       <c r="B11" s="13"/>
@@ -24737,21 +25487,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="13"/>
       <c r="C13" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="48" t="s">
         <v>221</v>
       </c>
       <c r="B14" s="7"/>
@@ -24760,13 +25510,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>373</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -24777,7 +25527,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="7" t="s">
         <v>374</v>
       </c>
@@ -24834,7 +25584,7 @@
     </row>
     <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="48" t="s">
         <v>245</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -24843,14 +25593,14 @@
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
-      <c r="B26" s="45"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
-      <c r="B27" s="45"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="8" t="s">
         <v>368</v>
       </c>
@@ -24859,7 +25609,7 @@
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="48" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="7"/>
@@ -24868,7 +25618,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="7" t="s">
         <v>230</v>
       </c>
@@ -24877,7 +25627,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="11" t="s">
         <v>231</v>
       </c>
@@ -24894,7 +25644,7 @@
       <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="51" t="s">
         <v>238</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -24902,31 +25652,31 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="8" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="24" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="50"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="8" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="50"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="8" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="52" t="s">
         <v>237</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -24934,19 +25684,19 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="216" x14ac:dyDescent="0.25">
-      <c r="B40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B41" s="51"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="24" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="48" t="s">
         <v>241</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -24954,7 +25704,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="B43" s="45"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="8" t="s">
         <v>243</v>
       </c>
@@ -24968,7 +25718,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>263</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -24976,13 +25726,13 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="48"/>
       <c r="C47" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="7" t="s">
         <v>264</v>
       </c>
@@ -24991,7 +25741,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="48"/>
       <c r="C49" s="16" t="s">
         <v>277</v>
       </c>
@@ -25013,7 +25763,7 @@
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="48" t="s">
         <v>525</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -25024,7 +25774,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="25" t="s">
         <v>526</v>
       </c>
@@ -25033,7 +25783,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="25" t="s">
         <v>531</v>
       </c>
@@ -25042,14 +25792,14 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="25" t="s">
         <v>907</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="25" t="s">
         <v>908</v>
       </c>
@@ -25058,7 +25808,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="25" t="s">
         <v>911</v>
       </c>
@@ -25067,7 +25817,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="25" t="s">
         <v>912</v>
       </c>
@@ -25076,7 +25826,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="25" t="s">
         <v>913</v>
       </c>
@@ -25085,7 +25835,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="25" t="s">
         <v>915</v>
       </c>
@@ -25136,7 +25886,7 @@
       <c r="B71" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="C71" s="49" t="s">
+      <c r="C71" s="50" t="s">
         <v>486</v>
       </c>
     </row>
@@ -25145,7 +25895,7 @@
       <c r="B72" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C72" s="49"/>
+      <c r="C72" s="50"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="46"/>
@@ -25186,7 +25936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -25239,7 +25989,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="48" t="s">
         <v>398</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -25247,7 +25997,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="7" t="s">
         <v>394</v>
       </c>
@@ -25256,7 +26006,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="7" t="s">
         <v>395</v>
       </c>
@@ -25273,7 +26023,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="48" t="s">
         <v>423</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -25281,13 +26031,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="C25" s="8" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>550</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -25298,7 +26048,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="11" t="s">
         <v>546</v>
       </c>
@@ -25307,7 +26057,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="11" t="s">
         <v>547</v>
       </c>
@@ -25316,7 +26066,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="48" t="s">
         <v>559</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -25324,7 +26074,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="7" t="s">
         <v>561</v>
       </c>
@@ -25333,7 +26083,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="7" t="s">
         <v>562</v>
       </c>
@@ -25347,7 +26097,7 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="48" t="s">
         <v>83</v>
       </c>
       <c r="B35" s="46" t="s">
@@ -25358,21 +26108,21 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="46"/>
       <c r="C36" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="46"/>
       <c r="C37" s="8" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="7" t="s">
         <v>867</v>
       </c>
@@ -25381,8 +26131,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="52" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="53" t="s">
         <v>610</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -25390,14 +26140,14 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="8" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="38" t="s">
         <v>133</v>
       </c>
@@ -25406,7 +26156,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="7" t="s">
         <v>871</v>
       </c>
@@ -25415,7 +26165,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="7" t="s">
         <v>873</v>
       </c>
@@ -25424,7 +26174,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="7" t="s">
         <v>875</v>
       </c>
@@ -25433,7 +26183,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="7" t="s">
         <v>876</v>
       </c>
@@ -25442,10 +26192,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>853</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="48" t="s">
         <v>854</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -25453,8 +26203,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="8" t="s">
         <v>880</v>
       </c>
@@ -25465,7 +26215,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="48" t="s">
         <v>855</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -25476,7 +26226,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="7" t="s">
         <v>857</v>
       </c>
@@ -25485,7 +26235,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="7" t="s">
         <v>858</v>
       </c>
@@ -25494,7 +26244,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="7" t="s">
         <v>859</v>
       </c>
@@ -25503,7 +26253,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="7" t="s">
         <v>860</v>
       </c>
@@ -25525,7 +26275,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="48" t="s">
         <v>933</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -25536,7 +26286,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="7" t="s">
         <v>933</v>
       </c>
@@ -25545,7 +26295,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="7" t="s">
         <v>938</v>
       </c>
@@ -25554,8 +26304,8 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48" t="s">
         <v>937</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -25563,8 +26313,8 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="8" t="s">
         <v>940</v>
       </c>
@@ -25580,7 +26330,7 @@
       <c r="C63" s="8"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="48" t="s">
         <v>930</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -25591,14 +26341,14 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="187.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="48" t="s">
         <v>932</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -25606,7 +26356,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="7" t="s">
         <v>987</v>
       </c>
@@ -25615,7 +26365,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="46" t="s">
         <v>988</v>
       </c>
@@ -25624,14 +26374,14 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="46"/>
       <c r="C71" s="8" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="7" t="s">
         <v>991</v>
       </c>
@@ -25640,7 +26390,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="7" t="s">
         <v>992</v>
       </c>
@@ -25649,7 +26399,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="7" t="s">
         <v>996</v>
       </c>
@@ -25658,7 +26408,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="8" t="s">
         <v>997</v>
       </c>
@@ -25667,7 +26417,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="8" t="s">
         <v>1002</v>
       </c>
@@ -25676,7 +26426,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="46" t="s">
         <v>1003</v>
       </c>
@@ -25685,21 +26435,21 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="46"/>
       <c r="C78" s="8" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="46"/>
       <c r="C79" s="8" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="7" t="s">
         <v>999</v>
       </c>
@@ -25748,7 +26498,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>269</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -25756,7 +26506,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="7" t="s">
         <v>426</v>
       </c>
@@ -25765,7 +26515,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="7" t="s">
         <v>428</v>
       </c>
@@ -25774,7 +26524,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="7" t="s">
         <v>427</v>
       </c>
@@ -25852,10 +26602,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="54" t="s">
         <v>474</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -25863,15 +26613,15 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="24" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="24" t="s">
         <v>476</v>
       </c>
@@ -25901,7 +26651,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="48" t="s">
         <v>493</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -25909,7 +26659,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="7" t="s">
         <v>491</v>
       </c>
@@ -25918,7 +26668,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="25" t="s">
         <v>494</v>
       </c>
@@ -25927,7 +26677,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="25" t="s">
         <v>496</v>
       </c>
@@ -25936,20 +26686,20 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="25"/>
       <c r="C43" s="8" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="C44" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -25957,7 +26707,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="8" t="s">
         <v>503</v>
       </c>
@@ -26032,7 +26782,7 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>270</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -26040,7 +26790,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="7" t="s">
         <v>272</v>
       </c>
@@ -26049,7 +26799,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="7" t="s">
         <v>274</v>
       </c>
@@ -26058,7 +26808,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>441</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -26066,19 +26816,19 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="C12" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="C13" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>443</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -26086,8 +26836,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48" t="s">
         <v>445</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -26095,21 +26845,21 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="7" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="48" t="s">
         <v>270</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -26117,13 +26867,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="C21" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="48" t="s">
         <v>536</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -26134,7 +26884,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="7" t="s">
         <v>537</v>
       </c>
@@ -26143,7 +26893,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="7" t="s">
         <v>539</v>
       </c>
@@ -26171,7 +26921,7 @@
       <c r="C29" s="28"/>
     </row>
     <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="48" t="s">
         <v>551</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -26182,7 +26932,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="7" t="s">
         <v>553</v>
       </c>
@@ -26191,7 +26941,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="7" t="s">
         <v>555</v>
       </c>
@@ -26200,7 +26950,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="7" t="s">
         <v>554</v>
       </c>

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1061">
   <si>
     <t>SE,EE</t>
   </si>
@@ -9164,13 +9164,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>注解：
 添加maven依赖</t>
     </r>
@@ -9270,7 +9263,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>和成员变量名称无关</t>
+      <t>如果有多个，按Name装配，实现类加@Primary会被优先注入</t>
     </r>
     <r>
       <rPr>
@@ -9616,7 +9609,8 @@
     <t>@Conditionalxxx</t>
   </si>
   <si>
-    <t>按条件装配组件</t>
+    <t>按条件装配组件
+Condition可传入自定义的Condition类，自定义条件进行装配</t>
   </si>
   <si>
     <t xml:space="preserve">Transactional </t>
@@ -13520,6 +13514,12 @@
     <t xml:space="preserve">Endpoint 主要是用来监控应用服务的运行状况，并集成在Mvc中提供查看接口。 </t>
   </si>
   <si>
+    <t>ConfigurationProperties</t>
+  </si>
+  <si>
+    <t>加到一个类上(注册成了Bean的)，为他的属性绑定properties文件中的值</t>
+  </si>
+  <si>
     <t>微服务</t>
   </si>
   <si>
@@ -13815,6 +13815,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>spring提供的用于访问Rest服务的客户端模板工具集，执行HTTP请求的</t>
     </r>
     <r>
@@ -18976,14 +18983,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19494,10 +19494,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19506,31 +19506,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19542,195 +19545,183 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20987,8 +20978,8 @@
   <sheetPr/>
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView topLeftCell="C143" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -20999,32 +20990,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="5"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -21072,7 +21063,7 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -21082,25 +21073,25 @@
       </c>
     </row>
     <row r="26" ht="84" spans="1:3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="70" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -21116,23 +21107,23 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -21141,7 +21132,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -21150,7 +21141,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -21159,7 +21150,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
       <c r="B36" t="s">
         <v>35</v>
       </c>
@@ -21168,7 +21159,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>37</v>
       </c>
@@ -21177,7 +21168,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -21186,7 +21177,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" t="s">
         <v>41</v>
       </c>
@@ -21195,7 +21186,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -21228,12 +21219,12 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="8"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
@@ -21251,7 +21242,7 @@
       <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1"/>
@@ -21294,7 +21285,7 @@
       <c r="B52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1"/>
@@ -21356,7 +21347,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B60" s="1"/>
@@ -21365,7 +21356,7 @@
       </c>
     </row>
     <row r="61" ht="28" spans="1:3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>79</v>
       </c>
@@ -21374,7 +21365,7 @@
       </c>
     </row>
     <row r="62" ht="28" spans="1:3">
-      <c r="A62" s="5"/>
+      <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>81</v>
       </c>
@@ -21503,14 +21494,14 @@
       <c r="A76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="16"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" ht="56" spans="1:3">
       <c r="A77" s="1"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="2" t="s">
         <v>110</v>
       </c>
@@ -21628,7 +21619,7 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="17"/>
+      <c r="A90" s="16"/>
     </row>
     <row r="91" ht="28" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -21684,7 +21675,7 @@
       </c>
     </row>
     <row r="97" ht="98" spans="1:3">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -21692,16 +21683,16 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" ht="56" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -21713,7 +21704,7 @@
       <c r="B101" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -21739,7 +21730,7 @@
       <c r="A104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C104" t="s">
@@ -21748,7 +21739,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1"/>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -21773,7 +21764,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1"/>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C108" t="s">
@@ -21782,7 +21773,7 @@
     </row>
     <row r="109" ht="98" spans="1:3">
       <c r="A109" s="1"/>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>171</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -21941,7 +21932,7 @@
     </row>
     <row r="129" ht="126" spans="1:3">
       <c r="A129" s="1"/>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -21998,7 +21989,7 @@
     </row>
     <row r="137" ht="56" spans="1:3">
       <c r="A137" s="1"/>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C137" s="2" t="s">
@@ -22082,7 +22073,7 @@
     </row>
     <row r="147" ht="28" spans="1:3">
       <c r="A147" s="1"/>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -22128,7 +22119,7 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -22136,7 +22127,7 @@
       </c>
     </row>
     <row r="154" ht="42" spans="1:3">
-      <c r="A154" s="6"/>
+      <c r="A154" s="5"/>
       <c r="B154" s="3" t="s">
         <v>239</v>
       </c>
@@ -22145,7 +22136,7 @@
       </c>
     </row>
     <row r="155" ht="56" spans="1:3">
-      <c r="A155" s="6"/>
+      <c r="A155" s="5"/>
       <c r="B155" s="3" t="s">
         <v>248</v>
       </c>
@@ -22154,7 +22145,7 @@
       </c>
     </row>
     <row r="156" ht="70" spans="1:3">
-      <c r="A156" s="6"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="3" t="s">
         <v>250</v>
       </c>
@@ -22163,7 +22154,7 @@
       </c>
     </row>
     <row r="157" ht="56" spans="1:3">
-      <c r="A157" s="6"/>
+      <c r="A157" s="5"/>
       <c r="B157" s="2" t="s">
         <v>252</v>
       </c>
@@ -22172,7 +22163,7 @@
       </c>
     </row>
     <row r="158" ht="98" spans="1:3">
-      <c r="A158" s="6"/>
+      <c r="A158" s="5"/>
       <c r="B158" s="2" t="s">
         <v>254</v>
       </c>
@@ -22181,7 +22172,7 @@
       </c>
     </row>
     <row r="159" ht="28" spans="1:3">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -22192,7 +22183,7 @@
       </c>
     </row>
     <row r="160" ht="126" spans="1:3">
-      <c r="A160" s="5"/>
+      <c r="A160" s="4"/>
       <c r="B160" s="2" t="s">
         <v>259</v>
       </c>
@@ -22201,7 +22192,7 @@
       </c>
     </row>
     <row r="161" ht="196" spans="1:3">
-      <c r="A161" s="5"/>
+      <c r="A161" s="4"/>
       <c r="B161" s="2" t="s">
         <v>261</v>
       </c>
@@ -22373,7 +22364,7 @@
   <sheetPr/>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+    <sheetView topLeftCell="C46" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -22386,62 +22377,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22450,126 +22441,126 @@
         <v>226</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" ht="70" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" ht="42" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="52" ht="56" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" ht="56" spans="1:3">
       <c r="A53" s="1"/>
       <c r="B53" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -22605,58 +22596,58 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" ht="28" spans="3:3">
       <c r="C2" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -22681,30 +22672,30 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -22735,151 +22726,151 @@
   <sheetData>
     <row r="1" ht="28" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -22914,31 +22905,31 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -22965,28 +22956,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -23012,94 +23003,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23109,232 +23100,232 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>837</v>
+      <c r="B17" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>848</v>
+      <c r="A23" s="4" t="s">
+        <v>850</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="2"/>
     </row>
     <row r="29" ht="98" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>859</v>
+      <c r="A29" s="4" t="s">
+        <v>861</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
-      <c r="A38" s="11" t="s">
-        <v>879</v>
-      </c>
-      <c r="B38" s="11"/>
+      <c r="A38" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -23346,42 +23337,42 @@
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -23399,76 +23390,76 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>397</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
-      <c r="A54" s="5" t="s">
-        <v>895</v>
+      <c r="A54" s="4" t="s">
+        <v>897</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>900</v>
+      <c r="A58" s="4" t="s">
+        <v>902</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="3" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -23477,46 +23468,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -23529,66 +23520,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="3" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -23601,41 +23592,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="3" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -23685,13 +23676,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -23699,37 +23690,37 @@
       <c r="B2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>939</v>
+      <c r="C2" s="22" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>941</v>
+        <v>942</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>943</v>
+        <v>944</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>946</v>
+        <v>947</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -23737,15 +23728,15 @@
       <c r="B6" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>947</v>
+      <c r="C6" s="27" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="31" t="s">
-        <v>948</v>
+      <c r="C7" s="28" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -23760,31 +23751,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -23794,13 +23785,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -23810,21 +23801,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -23857,23 +23848,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -23902,160 +23893,160 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>997</v>
+      <c r="B30" s="4" t="s">
+        <v>999</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -24088,250 +24079,250 @@
   <sheetData>
     <row r="1" ht="84" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" ht="98" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" ht="98" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" ht="140" spans="1:3">
       <c r="A8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>1017</v>
+      <c r="A10" s="1" t="s">
+        <v>1019</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="12" ht="196" spans="1:3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>1022</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>1024</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" ht="70" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
-        <v>1025</v>
+      <c r="A18" s="1" t="s">
+        <v>1027</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="19" ht="56" spans="1:3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="21" ht="84" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>1033</v>
+      <c r="B22" s="4" t="s">
+        <v>1035</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>1035</v>
+      <c r="A23" s="4" t="s">
+        <v>1037</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>1042</v>
+      <c r="A27" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="28" ht="84" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="C28" s="8" t="s">
-        <v>1043</v>
+      <c r="A28" s="5"/>
+      <c r="C28" s="7" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="30" ht="42" spans="1:3">
-      <c r="A30" s="6" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>1045</v>
+      <c r="A30" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="C31" s="8" t="s">
-        <v>1046</v>
+      <c r="A31" s="5"/>
+      <c r="C31" s="7" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
       <c r="A32" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B32" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C33" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
       <c r="A35" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B35" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1054</v>
+        <v>1055</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1056</v>
+        <v>1057</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C39" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -24371,7 +24362,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B1" t="s">
@@ -24379,25 +24370,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -24564,7 +24555,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>324</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -24573,14 +24564,14 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>327</v>
       </c>
@@ -24620,10 +24611,10 @@
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -24631,14 +24622,14 @@
       </c>
     </row>
     <row r="33" ht="56" spans="1:3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
         <v>340</v>
       </c>
@@ -24647,7 +24638,7 @@
       </c>
     </row>
     <row r="35" ht="56" spans="1:3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>319</v>
       </c>
@@ -24793,7 +24784,7 @@
       <c r="B16" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>366</v>
       </c>
     </row>
@@ -24802,7 +24793,7 @@
       <c r="B17" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
@@ -25054,8 +25045,8 @@
   <sheetPr/>
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="C56" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -25184,7 +25175,7 @@
       <c r="C19" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>428</v>
       </c>
       <c r="B21" s="3"/>
@@ -25193,20 +25184,20 @@
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="C23" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="24" ht="112" spans="1:3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>432</v>
       </c>
@@ -25215,7 +25206,7 @@
       </c>
     </row>
     <row r="25" ht="56" spans="1:3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>434</v>
       </c>
@@ -25224,14 +25215,14 @@
       </c>
     </row>
     <row r="26" ht="28" spans="1:3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
         <v>437</v>
@@ -25260,7 +25251,7 @@
     </row>
     <row r="31" ht="28" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>442</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -25276,7 +25267,7 @@
       <c r="C33" s="2"/>
     </row>
     <row r="34" ht="28" spans="2:3">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>445</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -25284,31 +25275,31 @@
       </c>
     </row>
     <row r="35" ht="112" spans="2:3">
-      <c r="B35" s="20"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="36" ht="56" spans="2:3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="22" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="37" ht="154" spans="2:3">
-      <c r="B37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="39" ht="154" spans="2:3">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>451</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -25316,14 +25307,14 @@
       </c>
     </row>
     <row r="40" ht="210" spans="2:3">
-      <c r="B40" s="21"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="41" ht="84" spans="2:3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="22" t="s">
         <v>454</v>
       </c>
     </row>
@@ -25345,7 +25336,7 @@
       <c r="B44" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="22" t="s">
         <v>459</v>
       </c>
     </row>
@@ -25374,7 +25365,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>465</v>
       </c>
     </row>
@@ -25398,7 +25389,7 @@
       <c r="A57" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="23" t="s">
         <v>470</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -25407,16 +25398,16 @@
     </row>
     <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1"/>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="23" t="s">
         <v>472</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" ht="28" spans="1:3">
       <c r="A59" s="1"/>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="23" t="s">
         <v>474</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -25425,23 +25416,23 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="23" t="s">
         <v>476</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" ht="42" spans="1:3">
       <c r="A61" s="1"/>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="24" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:3">
       <c r="A62" s="1"/>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="23" t="s">
         <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -25450,7 +25441,7 @@
     </row>
     <row r="63" ht="28" spans="1:3">
       <c r="A63" s="1"/>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="23" t="s">
         <v>481</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -25459,7 +25450,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="23" t="s">
         <v>483</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -25468,7 +25459,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="23" t="s">
         <v>485</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -25476,19 +25467,19 @@
       </c>
     </row>
     <row r="67" ht="42" spans="1:3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="22" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="26" t="s">
+      <c r="A68" s="4"/>
+      <c r="B68" s="23" t="s">
         <v>490</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -25496,8 +25487,8 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="26" t="s">
+      <c r="A69" s="4"/>
+      <c r="B69" s="23" t="s">
         <v>492</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -25505,8 +25496,8 @@
       </c>
     </row>
     <row r="70" ht="28" spans="1:3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="26" t="s">
+      <c r="A70" s="4"/>
+      <c r="B70" s="23" t="s">
         <v>494</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -25514,24 +25505,24 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="26" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="26" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="21"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="26" t="s">
+      <c r="A73" s="4"/>
+      <c r="B73" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -25580,17 +25571,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="2" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="15" t="s">
         <v>502</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -25598,12 +25589,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="14" ht="42" spans="1:3">
       <c r="A14" s="3" t="s">
@@ -25682,7 +25673,7 @@
     </row>
     <row r="28" ht="56" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>519</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -25691,7 +25682,7 @@
     </row>
     <row r="29" ht="56" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>521</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -25733,7 +25724,7 @@
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>529</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -25742,14 +25733,14 @@
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="1"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
         <v>532</v>
       </c>
@@ -25765,7 +25756,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="25" t="s">
         <v>535</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -25999,7 +25990,7 @@
     </row>
     <row r="70" ht="28" spans="1:3">
       <c r="A70" s="1"/>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -26008,7 +25999,7 @@
     </row>
     <row r="71" ht="28" spans="1:3">
       <c r="A71" s="1"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="2" t="s">
         <v>584</v>
       </c>
@@ -26018,7 +26009,7 @@
       <c r="B72" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="18" t="s">
         <v>586</v>
       </c>
     </row>
@@ -26060,7 +26051,7 @@
     </row>
     <row r="77" ht="84" spans="1:3">
       <c r="A77" s="1"/>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -26069,14 +26060,14 @@
     </row>
     <row r="78" ht="57.6" customHeight="1" spans="1:3">
       <c r="A78" s="1"/>
-      <c r="B78" s="5"/>
+      <c r="B78" s="4"/>
       <c r="C78" s="2" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="79" ht="42" spans="1:3">
       <c r="A79" s="1"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="2" t="s">
         <v>598</v>
       </c>
@@ -26172,7 +26163,7 @@
       <c r="C5" s="2"/>
     </row>
     <row r="7" ht="42" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>609</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -26180,13 +26171,13 @@
       </c>
     </row>
     <row r="8" ht="28" spans="1:3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>612</v>
       </c>
@@ -26216,7 +26207,7 @@
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>619</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -26227,11 +26218,11 @@
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>622</v>
       </c>
     </row>
@@ -26239,7 +26230,7 @@
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="26" t="s">
         <v>623</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -26248,15 +26239,15 @@
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="22" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="22" t="s">
         <v>626</v>
       </c>
     </row>
@@ -26297,13 +26288,13 @@
       <c r="B40" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="23" t="s">
         <v>637</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -26312,7 +26303,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="23" t="s">
         <v>639</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -26368,10 +26359,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C40"/>
+  <dimension ref="A2:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -26381,7 +26372,7 @@
   </cols>
   <sheetData>
     <row r="2" ht="112" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>647</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -26389,13 +26380,13 @@
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>650</v>
       </c>
@@ -26404,7 +26395,7 @@
       </c>
     </row>
     <row r="5" ht="42" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>652</v>
       </c>
@@ -26429,7 +26420,7 @@
       <c r="B8" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>657</v>
       </c>
     </row>
@@ -26446,7 +26437,7 @@
       <c r="A11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>660</v>
       </c>
     </row>
@@ -26553,7 +26544,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" ht="70" spans="1:3">
       <c r="A30" s="1" t="s">
@@ -26580,7 +26571,7 @@
       <c r="B32" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>687</v>
       </c>
     </row>
@@ -26589,7 +26580,7 @@
       <c r="B33" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>688</v>
       </c>
     </row>
@@ -26600,7 +26591,7 @@
       <c r="B35" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>691</v>
       </c>
     </row>
@@ -26613,10 +26604,10 @@
       </c>
     </row>
     <row r="38" ht="115.2" customHeight="1" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
         <v>695</v>
       </c>
@@ -26627,6 +26618,14 @@
       </c>
       <c r="C40" s="2" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>698</v>
+      </c>
+      <c r="C55" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="1063">
   <si>
     <t>SE,EE</t>
   </si>
@@ -9164,6 +9164,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注解：
 添加maven依赖</t>
     </r>
@@ -14002,7 +14009,7 @@
     </r>
   </si>
   <si>
-    <t>message queue，消息队列，也叫消息中间件。主要用于各个系统之间通信的解耦。</t>
+    <t>message queue，消息队列，也叫消息中间件，提供消息队列服务的中间件。主要用于各个系统之间通信的解耦。提供消息生产，存储，消费全过程</t>
   </si>
   <si>
     <r>
@@ -14043,6 +14050,12 @@
   </si>
   <si>
     <t>JMS，STOMP，AMQP，MQTT</t>
+  </si>
+  <si>
+    <t>常见MQ</t>
+  </si>
+  <si>
+    <t>ActiveMQ，RabbitMQ，Kafka，RocketMQ</t>
   </si>
   <si>
     <t>核心概念</t>
@@ -20607,16 +20620,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3886200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>87730</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>996950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8351520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>112082</xdr:rowOff>
+      <xdr:colOff>4181475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20633,7 +20646,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6276975" y="2399030"/>
+          <a:off x="2106930" y="2564130"/>
           <a:ext cx="4465320" cy="913130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22581,10 +22594,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -22612,19 +22625,18 @@
         <v>746</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>747</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C5" t="s">
         <v>748</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>750</v>
       </c>
@@ -22632,28 +22644,32 @@
         <v>751</v>
       </c>
     </row>
-    <row r="8" ht="56" spans="1:3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="56" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
@@ -22670,37 +22686,42 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>758</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -22726,151 +22747,151 @@
   <sheetData>
     <row r="1" ht="28" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -22905,31 +22926,31 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -22956,28 +22977,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -23003,94 +23024,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23100,135 +23121,135 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -23236,96 +23257,96 @@
     </row>
     <row r="29" ht="98" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="10" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -23337,42 +23358,42 @@
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -23390,7 +23411,7 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -23398,68 +23419,68 @@
         <v>397</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
       <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
       <c r="A51" s="4"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
       <c r="A55" s="4"/>
       <c r="B55" s="3" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="3" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -23468,46 +23489,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -23520,66 +23541,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -23592,41 +23613,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -23676,13 +23697,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -23691,36 +23712,36 @@
         <v>237</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -23729,14 +23750,14 @@
         <v>387</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="28" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -23751,31 +23772,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -23785,13 +23806,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -23801,21 +23822,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -23848,23 +23869,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -23893,160 +23914,160 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -24079,250 +24100,250 @@
   <sheetData>
     <row r="1" ht="84" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" ht="98" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="6" ht="98" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" ht="140" spans="1:3">
       <c r="A8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12" ht="196" spans="1:3">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="14" ht="70" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="19" ht="56" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" ht="84" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="28" ht="84" spans="1:3">
       <c r="A28" s="5"/>
       <c r="C28" s="7" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="30" ht="42" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:3">
       <c r="A31" s="5"/>
       <c r="C31" s="7" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
       <c r="A32" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B32" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="C33" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
       <c r="A35" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B35" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C39" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -25045,8 +25066,8 @@
   <sheetPr/>
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>

--- a/java.xlsx
+++ b/java.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1082">
   <si>
     <t>SE,EE</t>
   </si>
@@ -14154,6 +14154,64 @@
   </si>
   <si>
     <t>主题</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>数据最小单位，每个消息必属于一个主题</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>一类消息的集合</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>同一主题下区分不同类型的消息</t>
+  </si>
+  <si>
+    <t>队列</t>
+  </si>
+  <si>
+    <t>一个Topic可包含多个Queue（Kafka的分区Partition）
+一个Queue一个消费者，不能被一个消费者组里多个消费者消费，一个消费者可以消费多个</t>
+  </si>
+  <si>
+    <t>消息标识</t>
+  </si>
+  <si>
+    <t>生产者</t>
+  </si>
+  <si>
+    <t>生产者组</t>
+  </si>
+  <si>
+    <t>Producer Group</t>
+  </si>
+  <si>
+    <t>同一类生产者的集合，发送相同Topic的消息</t>
+  </si>
+  <si>
+    <t>消费者</t>
+  </si>
+  <si>
+    <t>一个消费者可以消费多个Queue</t>
+  </si>
+  <si>
+    <t>消费者组</t>
+  </si>
+  <si>
+    <t>消费同一个Topic的消息</t>
   </si>
   <si>
     <t>sout</t>
@@ -19649,7 +19707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19682,6 +19740,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -21507,14 +21568,14 @@
       <c r="A76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="15"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" ht="56" spans="1:3">
       <c r="A77" s="1"/>
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="2" t="s">
         <v>110</v>
       </c>
@@ -21632,7 +21693,7 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="16"/>
+      <c r="A90" s="17"/>
     </row>
     <row r="91" ht="28" spans="1:3">
       <c r="A91" s="1" t="s">
@@ -21688,7 +21749,7 @@
       </c>
     </row>
     <row r="97" ht="98" spans="1:3">
-      <c r="A97" s="17" t="s">
+      <c r="A97" s="18" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -21705,7 +21766,7 @@
       <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -21743,7 +21804,7 @@
       <c r="A104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="18" t="s">
         <v>161</v>
       </c>
       <c r="C104" t="s">
@@ -21752,7 +21813,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1"/>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -21777,7 +21838,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1"/>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C108" t="s">
@@ -21786,7 +21847,7 @@
     </row>
     <row r="109" ht="98" spans="1:3">
       <c r="A109" s="1"/>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -21945,7 +22006,7 @@
     </row>
     <row r="129" ht="126" spans="1:3">
       <c r="A129" s="1"/>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -22594,10 +22655,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -22717,6 +22778,84 @@
     <row r="22" spans="2:2">
       <c r="B22" s="3" t="s">
         <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>764</v>
+      </c>
+      <c r="B25" t="s">
+        <v>765</v>
+      </c>
+      <c r="C25" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>763</v>
+      </c>
+      <c r="B26" t="s">
+        <v>767</v>
+      </c>
+      <c r="C26" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>769</v>
+      </c>
+      <c r="B27" t="s">
+        <v>770</v>
+      </c>
+      <c r="C27" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="28" ht="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>776</v>
+      </c>
+      <c r="B31" t="s">
+        <v>777</v>
+      </c>
+      <c r="C31" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>779</v>
+      </c>
+      <c r="C32" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>781</v>
+      </c>
+      <c r="C33" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -22747,151 +22886,151 @@
   <sheetData>
     <row r="1" ht="28" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -22926,31 +23065,31 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -22977,28 +23116,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -23024,94 +23163,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23121,135 +23260,135 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -23257,96 +23396,96 @@
     </row>
     <row r="29" ht="98" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="1"/>
       <c r="B36" s="3" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="1"/>
       <c r="B37" s="3" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="10" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -23358,42 +23497,42 @@
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="1"/>
       <c r="B42" s="3" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1"/>
       <c r="B43" s="3" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -23411,7 +23550,7 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -23419,68 +23558,68 @@
         <v>397</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
       <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
       <c r="A51" s="4"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
       <c r="A55" s="4"/>
       <c r="B55" s="3" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
       <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="3" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -23489,46 +23628,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="2" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="1"/>
       <c r="B64" s="3" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="1"/>
       <c r="B65" s="3" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="1"/>
       <c r="B66" s="3" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -23541,66 +23680,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="1"/>
       <c r="B70" s="3" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -23613,41 +23752,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1"/>
       <c r="B83" s="3" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="1"/>
       <c r="B84" s="3" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -23697,13 +23836,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -23711,37 +23850,37 @@
       <c r="B2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>943</v>
+      <c r="C2" s="23" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>945</v>
+        <v>963</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>947</v>
+        <v>965</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>950</v>
+        <v>968</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -23749,15 +23888,15 @@
       <c r="B6" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>951</v>
+      <c r="C6" s="28" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="28" t="s">
-        <v>952</v>
+      <c r="C7" s="29" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -23772,31 +23911,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -23806,13 +23945,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -23822,21 +23961,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -23869,23 +24008,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -23914,19 +24053,19 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>974</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>976</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -23934,140 +24073,140 @@
         <v>749</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>980</v>
+        <v>999</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>988</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>990</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="B25" s="3" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
       <c r="B26" s="3" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="1"/>
       <c r="B27" s="3" t="s">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="B28" s="3" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>998</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1002</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="3" t="s">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -24100,250 +24239,250 @@
   <sheetData>
     <row r="1" ht="84" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" ht="98" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1011</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1013</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="5" ht="56" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" ht="98" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="8" ht="140" spans="1:3">
       <c r="A8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12" ht="196" spans="1:3">
       <c r="A12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14" ht="70" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>1028</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="19" ht="56" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="20" ht="42" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1034</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="21" ht="84" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1036</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="23" ht="42" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1046</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="28" ht="84" spans="1:3">
       <c r="A28" s="5"/>
       <c r="C28" s="7" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="30" ht="42" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:3">
       <c r="A31" s="5"/>
       <c r="C31" s="7" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
       <c r="A32" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="B32" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1054</v>
+        <v>1073</v>
       </c>
       <c r="C33" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
       <c r="A35" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="B35" t="s">
-        <v>1057</v>
+        <v>1076</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1058</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="C39" t="s">
-        <v>1062</v>
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -24805,7 +24944,7 @@
       <c r="B16" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="22" t="s">
         <v>366</v>
       </c>
     </row>
@@ -24814,7 +24953,7 @@
       <c r="B17" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
@@ -25272,7 +25411,7 @@
     </row>
     <row r="31" ht="28" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>442</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -25288,7 +25427,7 @@
       <c r="C33" s="2"/>
     </row>
     <row r="34" ht="28" spans="2:3">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>445</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -25296,31 +25435,31 @@
       </c>
     </row>
     <row r="35" ht="112" spans="2:3">
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="36" ht="56" spans="2:3">
-      <c r="B36" s="19"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="23" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="37" ht="154" spans="2:3">
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="39" ht="154" spans="2:3">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="21" t="s">
         <v>451</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -25328,14 +25467,14 @@
       </c>
     </row>
     <row r="40" ht="210" spans="2:3">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="41" ht="84" spans="2:3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="23" t="s">
         <v>454</v>
       </c>
     </row>
@@ -25357,7 +25496,7 @@
       <c r="B44" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
         <v>459</v>
       </c>
     </row>
@@ -25386,7 +25525,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1"/>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -25410,7 +25549,7 @@
       <c r="A57" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>470</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -25419,7 +25558,7 @@
     </row>
     <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1"/>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="24" t="s">
         <v>472</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -25428,7 +25567,7 @@
     </row>
     <row r="59" ht="28" spans="1:3">
       <c r="A59" s="1"/>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="24" t="s">
         <v>474</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -25437,23 +25576,23 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1"/>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="24" t="s">
         <v>476</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" ht="42" spans="1:3">
       <c r="A61" s="1"/>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="25" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:3">
       <c r="A62" s="1"/>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="24" t="s">
         <v>479</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -25462,7 +25601,7 @@
     </row>
     <row r="63" ht="28" spans="1:3">
       <c r="A63" s="1"/>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="24" t="s">
         <v>481</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -25471,7 +25610,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1"/>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="24" t="s">
         <v>483</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -25480,7 +25619,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1"/>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="24" t="s">
         <v>485</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -25491,16 +25630,16 @@
       <c r="A67" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="23" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4"/>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="24" t="s">
         <v>490</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -25509,7 +25648,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4"/>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="24" t="s">
         <v>492</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -25518,7 +25657,7 @@
     </row>
     <row r="70" ht="28" spans="1:3">
       <c r="A70" s="4"/>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="24" t="s">
         <v>494</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -25527,23 +25666,23 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4"/>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4"/>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="22"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4"/>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="24" t="s">
         <v>498</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -25592,17 +25731,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="2" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16" t="s">
         <v>502</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -25610,12 +25749,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="14" ht="42" spans="1:3">
       <c r="A14" s="3" t="s">
@@ -25694,7 +25833,7 @@
     </row>
     <row r="28" ht="56" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>519</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -25703,7 +25842,7 @@
     </row>
     <row r="29" ht="56" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>521</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -25777,7 +25916,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="26" t="s">
         <v>535</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -26030,7 +26169,7 @@
       <c r="B72" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="19" t="s">
         <v>586</v>
       </c>
     </row>
@@ -26243,7 +26382,7 @@
       <c r="B28" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>622</v>
       </c>
     </row>
@@ -26251,7 +26390,7 @@
       <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>623</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -26261,14 +26400,14 @@
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="1"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
       <c r="A32" s="1"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>626</v>
       </c>
     </row>
@@ -26309,13 +26448,13 @@
       <c r="B40" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="24" t="s">
         <v>637</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -26324,7 +26463,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1"/>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>639</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -26441,7 +26580,7 @@
       <c r="B8" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>657</v>
       </c>
     </row>
@@ -26458,7 +26597,7 @@
       <c r="A11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>660</v>
       </c>
     </row>
@@ -26565,7 +26704,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="13"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" ht="70" spans="1:3">
       <c r="A30" s="1" t="s">

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1100">
   <si>
     <t>SE,EE</t>
   </si>
@@ -14214,6 +14214,55 @@
     <t>消费同一个Topic的消息</t>
   </si>
   <si>
+    <t>NameServer</t>
+  </si>
+  <si>
+    <r>
+      <t>Broker和Topic路由的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，支持Broker动态注册与发现。早期使用zookeeper
+以集群方式部署，但各节点不通讯，内部都维护一个Broker列表，Broker与NS长连接，发心跳包</t>
+    </r>
+  </si>
+  <si>
+    <t>客户端定时拉取Topic最新的路由</t>
+  </si>
+  <si>
+    <t>工作流程</t>
+  </si>
+  <si>
+    <t>1.启动NameServer，监听端口等待Broker，producer，Consumer连接
+2.启动Broker，与所有NS建立保持长连接
+3.发消息前，可先创建Topic，指定要存那个Broker上
+4.Producer发消息，与一台NS建立长连接，获取路由信息
+4.Consumer类似</t>
+  </si>
+  <si>
+    <t>读写队列</t>
+  </si>
+  <si>
+    <t>物理上读写是同一队列，一般读写数量相同，允许不同是为了方便缩容</t>
+  </si>
+  <si>
     <t>sout</t>
   </si>
   <si>
@@ -18529,6 +18578,27 @@
       </rPr>
       <t>再skip</t>
     </r>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>面向服务架构，通过服务整合来解决系统集成的一种思想</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>企业服务总线，为了集成不同系统，不同协议的服务，ESB做了消息的转换解释与路由等工作，让不同的服务互联互通。。应用之间通过ESB发送和接受消息</t>
+  </si>
+  <si>
+    <t>WebService和RPC</t>
+  </si>
+  <si>
+    <t>WebService是RPC的一种，RPC按通信协议，可以分为基于HTTP的、基于TCP等；按报文协议可以分为基于XML文本的、基于JSON文本的，二进制的。按照是否跨平台语言，可以分为平台专用的，平台中立的。</t>
+  </si>
+  <si>
+    <t>WebService是一套RPC规范，一般属于基于HTTP的、XML文本的、跨平台（平台中立）的，功能完善、体系成熟、支持事务、支持安全机制，广泛应用在金融电信（中国电信一个省级分公司就有几千个WS），传统企业的业务系统，ESB/SOA体系等。缺点：过于复杂，性能不是最优的，互联网用的较少。</t>
   </si>
   <si>
     <t>XML命名空间</t>
@@ -19032,16 +19102,28 @@
 就是在测试环境下，把数据写死，测试你自己的程序是否执行</t>
   </si>
   <si>
+    <t>java调用ws</t>
+  </si>
+  <si>
     <t>wsimport</t>
   </si>
   <si>
     <t>jdk自带的webservice客户端工具,可以根据wsdl文档生成客户端调用代码(java代码)。无论服务器端的WebService是用什么语言写的,都可以生成调用webservice的客户端代码。wsimport.exe位于JAVA_HOME\bin目录下</t>
   </si>
   <si>
+    <t>CXF</t>
+  </si>
+  <si>
+    <t>Spring-ws</t>
+  </si>
+  <si>
     <t>QName</t>
   </si>
   <si>
     <t>qualified name, 构成为命名空间前缀+冒号+元素名称，&lt;/xsl:template&gt;中，xsl是命名空间前缀，template是元素名称，整体称为QName）</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/BADAO_LIUMANG_QIZHI/article/details/89395156?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromBaidu%7ERate-1-89395156-blog-66974025.pc_relevant_3mothn_strategy_and_data_recovery&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromBaidu%7ERate-1-89395156-blog-66974025.pc_relevant_3mothn_strategy_and_data_recovery&amp;utm_relevant_index=2</t>
   </si>
 </sst>
 </file>
@@ -19071,17 +19153,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -19589,7 +19671,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19707,9 +19789,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19732,22 +19817,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -19762,7 +19853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -19795,7 +19886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -21064,32 +21155,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -21113,23 +21204,23 @@
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" ht="56" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -21137,35 +21228,35 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" ht="28" spans="3:3">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" ht="84" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="70" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -21181,23 +21272,23 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -21206,7 +21297,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -21215,7 +21306,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -21224,7 +21315,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>35</v>
       </c>
@@ -21233,7 +21324,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>37</v>
       </c>
@@ -21242,7 +21333,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -21251,7 +21342,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" t="s">
         <v>41</v>
       </c>
@@ -21260,7 +21351,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" t="s">
         <v>43</v>
       </c>
@@ -21269,20 +21360,20 @@
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -21293,389 +21384,389 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="7"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" ht="42" spans="1:3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2" t="s">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="56" ht="56" spans="1:3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="57" ht="28" spans="1:3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="58" ht="84" spans="1:3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" ht="28" spans="1:3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="65" ht="28" spans="1:3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1"/>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="2"/>
+      <c r="B68" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" ht="42" spans="1:3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="3" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="71" ht="28" spans="1:3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="3" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="72" ht="28" spans="1:3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" ht="56" spans="1:3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="2" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="78" ht="70" spans="1:3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="79" ht="42" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="80" ht="28" spans="1:3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="81" ht="28" spans="1:3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="83" ht="28" spans="1:3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="84" ht="98" spans="1:3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="85" ht="57.6" customHeight="1" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="86" ht="70" spans="1:3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="2" t="s">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="87" ht="28" spans="1:3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
       <c r="B87" t="s">
         <v>130</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
       <c r="B88" t="s">
         <v>132</v>
       </c>
@@ -21684,115 +21775,115 @@
       </c>
     </row>
     <row r="89" ht="57.6" customHeight="1" spans="1:3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="3" t="s">
+      <c r="A89" s="2"/>
+      <c r="B89" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="17"/>
+      <c r="A90" s="20"/>
     </row>
     <row r="91" ht="28" spans="1:3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="92" ht="42" spans="1:3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="3" t="s">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="93" ht="84" spans="1:3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="3" t="s">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="94" ht="28" spans="1:3">
-      <c r="A94" s="1"/>
-      <c r="B94" s="3" t="s">
+      <c r="A94" s="2"/>
+      <c r="B94" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="95" ht="42" spans="1:3">
-      <c r="A95" s="1"/>
-      <c r="B95" s="3" t="s">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="3" t="s">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97" ht="98" spans="1:3">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="10"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" ht="56" spans="1:3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="101" ht="42" spans="1:3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
       <c r="B101" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="2"/>
       <c r="B102" t="s">
         <v>156</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2"/>
       <c r="B103" t="s">
         <v>158</v>
       </c>
@@ -21801,10 +21892,10 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C104" t="s">
@@ -21812,33 +21903,33 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1"/>
-      <c r="B105" s="18" t="s">
+      <c r="A105" s="2"/>
+      <c r="B105" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="18" t="s">
+      <c r="A108" s="2"/>
+      <c r="B108" s="21" t="s">
         <v>169</v>
       </c>
       <c r="C108" t="s">
@@ -21846,25 +21937,25 @@
       </c>
     </row>
     <row r="109" ht="98" spans="1:3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="18" t="s">
+      <c r="A109" s="2"/>
+      <c r="B109" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="110" ht="28" spans="1:3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="2"/>
       <c r="B110" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="2"/>
       <c r="B111" t="s">
         <v>175</v>
       </c>
@@ -21873,517 +21964,517 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="113" ht="28" spans="1:3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1"/>
-      <c r="C117" s="3" t="s">
+      <c r="A117" s="2"/>
+      <c r="C117" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="118" ht="42" spans="1:3">
-      <c r="A118" s="1"/>
-      <c r="B118" s="3" t="s">
+      <c r="A118" s="2"/>
+      <c r="B118" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="119" ht="42" spans="1:3">
-      <c r="A119" s="1"/>
-      <c r="B119" s="3" t="s">
+      <c r="A119" s="2"/>
+      <c r="B119" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="120" ht="56" spans="1:3">
-      <c r="A120" s="1"/>
-      <c r="B120" s="3" t="s">
+      <c r="A120" s="2"/>
+      <c r="B120" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="121" ht="42" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1"/>
-      <c r="B122" s="3" t="s">
+      <c r="A122" s="2"/>
+      <c r="B122" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="123" ht="28" spans="1:3">
-      <c r="A123" s="1"/>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="2"/>
+      <c r="B123" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1"/>
-      <c r="B124" s="3" t="s">
+      <c r="A124" s="2"/>
+      <c r="B124" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="125" ht="28" spans="1:3">
-      <c r="A125" s="1"/>
-      <c r="B125" s="3" t="s">
+      <c r="A125" s="2"/>
+      <c r="B125" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="126" ht="28" spans="1:3">
-      <c r="A126" s="1"/>
-      <c r="B126" s="3" t="s">
+      <c r="A126" s="2"/>
+      <c r="B126" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="129" ht="126" spans="1:3">
-      <c r="A129" s="1"/>
-      <c r="B129" s="18" t="s">
+      <c r="A129" s="2"/>
+      <c r="B129" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="130" ht="70" spans="1:3">
-      <c r="A130" s="1"/>
-      <c r="B130" s="3" t="s">
+      <c r="A130" s="2"/>
+      <c r="B130" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="131" ht="28" spans="1:3">
-      <c r="A131" s="1"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="2" t="s">
+      <c r="A131" s="2"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="132" ht="42" spans="1:3">
-      <c r="A132" s="1"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="2" t="s">
+      <c r="A132" s="2"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="134" ht="98" spans="1:3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="135" ht="56" spans="1:3">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="2" t="s">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="136" ht="70" spans="1:3">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="2" t="s">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" ht="56" spans="1:3">
-      <c r="A137" s="1"/>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="2"/>
+      <c r="B137" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="138" ht="42" spans="1:3">
-      <c r="A138" s="1"/>
-      <c r="B138" s="3" t="s">
+      <c r="A138" s="2"/>
+      <c r="B138" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="139" ht="56" spans="1:3">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1" t="s">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="140" ht="98" spans="1:3">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="2" t="s">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="141" ht="70" spans="1:3">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="2" t="s">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="142" ht="28" spans="1:3">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1" t="s">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="143" ht="126" spans="1:3">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1" t="s">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="144" ht="56" spans="1:3">
-      <c r="A144" s="1"/>
-      <c r="B144" s="3" t="s">
+      <c r="A144" s="2"/>
+      <c r="B144" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="145" ht="42" spans="1:3">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1" t="s">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="146" ht="42" spans="1:3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="2" t="s">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="147" ht="28" spans="1:3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="4" t="s">
+      <c r="A147" s="2"/>
+      <c r="B147" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="1"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="150" ht="56" spans="1:3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="3" t="s">
+      <c r="A150" s="2"/>
+      <c r="B150" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="151" ht="70" spans="1:3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="3" t="s">
+      <c r="A151" s="2"/>
+      <c r="B151" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="152" ht="168" spans="1:3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="3" t="s">
+      <c r="A152" s="2"/>
+      <c r="B152" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="154" ht="42" spans="1:3">
-      <c r="A154" s="5"/>
-      <c r="B154" s="3" t="s">
+      <c r="A154" s="6"/>
+      <c r="B154" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="155" ht="56" spans="1:3">
-      <c r="A155" s="5"/>
-      <c r="B155" s="3" t="s">
+      <c r="A155" s="6"/>
+      <c r="B155" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="156" ht="70" spans="1:3">
-      <c r="A156" s="5"/>
-      <c r="B156" s="3" t="s">
+      <c r="A156" s="6"/>
+      <c r="B156" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="157" ht="56" spans="1:3">
-      <c r="A157" s="5"/>
-      <c r="B157" s="2" t="s">
+      <c r="A157" s="6"/>
+      <c r="B157" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="158" ht="98" spans="1:3">
-      <c r="A158" s="5"/>
-      <c r="B158" s="2" t="s">
+      <c r="A158" s="6"/>
+      <c r="B158" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="159" ht="28" spans="1:3">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="160" ht="126" spans="1:3">
-      <c r="A160" s="4"/>
-      <c r="B160" s="2" t="s">
+      <c r="A160" s="5"/>
+      <c r="B160" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="161" ht="196" spans="1:3">
-      <c r="A161" s="4"/>
-      <c r="B161" s="2" t="s">
+      <c r="A161" s="5"/>
+      <c r="B161" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="163" ht="28" spans="1:3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="166" ht="56" spans="1:3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="168" ht="42" spans="1:3">
-      <c r="A168" s="1"/>
-      <c r="C168" s="2" t="s">
+      <c r="A168" s="2"/>
+      <c r="C168" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="169" ht="28" spans="1:3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="1"/>
-      <c r="C171" s="2" t="s">
+      <c r="A171" s="2"/>
+      <c r="C171" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="172" ht="42" spans="1:3">
-      <c r="A172" s="1"/>
-      <c r="C172" s="2" t="s">
+      <c r="A172" s="2"/>
+      <c r="C172" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="173" ht="28" spans="1:3">
-      <c r="A173" s="1"/>
-      <c r="C173" s="2" t="s">
+      <c r="A173" s="2"/>
+      <c r="C173" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="175" ht="98" spans="1:3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="177" ht="28" spans="1:3">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="178" ht="84" spans="1:3">
-      <c r="A178" s="1"/>
-      <c r="C178" s="2" t="s">
+      <c r="A178" s="2"/>
+      <c r="C178" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="180" ht="56" spans="1:3">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="181" ht="98" spans="2:3">
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="182" ht="56" spans="3:3">
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>288</v>
       </c>
     </row>
@@ -22450,190 +22541,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="45" ht="70" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="47" ht="42" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="52" ht="56" spans="1:3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="53" ht="56" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>742</v>
       </c>
     </row>
@@ -22655,9 +22746,9 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+    <sheetView topLeftCell="C27" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -22669,20 +22760,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="2" ht="28" spans="3:3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>746</v>
       </c>
     </row>
@@ -22695,88 +22786,88 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>763</v>
       </c>
     </row>
@@ -22817,7 +22908,7 @@
       <c r="A28" t="s">
         <v>772</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="8" t="s">
         <v>773</v>
       </c>
     </row>
@@ -22858,9 +22949,40 @@
         <v>782</v>
       </c>
     </row>
+    <row r="35" ht="28" spans="1:3">
+      <c r="A35" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="9"/>
+      <c r="C36" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="38" ht="70" spans="1:3">
+      <c r="A38" t="s">
+        <v>786</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>788</v>
+      </c>
+      <c r="C40" t="s">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -22885,156 +23007,156 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>784</v>
+      <c r="A1" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>786</v>
+      <c r="A2" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>788</v>
+      <c r="A3" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>790</v>
+      <c r="A4" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>792</v>
+      <c r="A5" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>794</v>
+      <c r="A6" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>796</v>
+      <c r="A8" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>797</v>
+      <c r="A9" s="4" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>799</v>
+      <c r="A10" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>801</v>
+      <c r="A11" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>803</v>
+      <c r="A12" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>805</v>
+      <c r="A14" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>807</v>
+      <c r="A16" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>809</v>
+      <c r="A18" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>811</v>
+      <c r="A20" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>813</v>
+      <c r="A21" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>815</v>
+      <c r="A23" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>817</v>
+      <c r="A25" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>819</v>
+      <c r="A29" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23058,38 +23180,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>821</v>
+      <c r="A3" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>823</v>
+      <c r="A5" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>826</v>
+      <c r="A19" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -23115,29 +23237,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="3" t="s">
-        <v>827</v>
+      <c r="C1" s="4" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="3" t="s">
-        <v>828</v>
+      <c r="C2" s="4" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>830</v>
+      <c r="B3" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
-      <c r="B4" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>832</v>
+      <c r="B4" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -23162,631 +23284,631 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>834</v>
+      <c r="A1" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>836</v>
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>838</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>839</v>
+      <c r="A4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>841</v>
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>843</v>
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>845</v>
+      <c r="A7" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>846</v>
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>848</v>
+      <c r="C9" s="3" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="17" ht="84" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="18" ht="56" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="20" ht="70" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="22" ht="42" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="23" ht="14.4" customHeight="1" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="1:3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="26" ht="42" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" ht="98" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="31" ht="42" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="32" ht="42" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="33" ht="42" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" ht="28" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="35" ht="168" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="36" ht="42" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="38" ht="28" spans="1:3">
+      <c r="A38" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="41" ht="42" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="42" ht="56" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" ht="42" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" ht="28" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" ht="84" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="C47" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" ht="28" spans="1:3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" ht="42" spans="1:3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="54" ht="56" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="55" ht="56" spans="1:3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="58" ht="42" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="59" ht="70" spans="1:3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="60" ht="56" spans="2:3">
+      <c r="B60" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" ht="56" spans="1:3">
+      <c r="A62" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="63" ht="42" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="64" ht="42" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="65" ht="42" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="66" ht="98" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" ht="56" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="70" ht="42" spans="1:3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="72" ht="84" spans="1:3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="73" ht="56" spans="1:3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="74" ht="42" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="75" ht="28" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="80" ht="98" spans="1:3">
+      <c r="A80" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="82" ht="28" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="4" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="11" ht="28" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="15" ht="42" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="17" ht="84" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="18" ht="56" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="20" ht="70" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="22" ht="42" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="23" ht="14.4" customHeight="1" spans="1:3">
-      <c r="A23" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="24" ht="28" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="26" ht="42" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" ht="98" spans="1:3">
-      <c r="A29" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="31" ht="42" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
+      <c r="C83" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="84" ht="28" spans="1:3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
         <v>887</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="32" ht="42" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="33" ht="42" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="34" ht="28" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="35" ht="168" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="36" ht="42" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="37" ht="28" spans="1:3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="38" ht="28" spans="1:3">
-      <c r="A38" s="10" t="s">
-        <v>902</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="41" ht="42" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>905</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="42" ht="56" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" ht="42" spans="1:3">
-      <c r="A44" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" ht="28" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" ht="84" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="C47" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="50" ht="28" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="51" ht="42" spans="1:3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="54" ht="56" spans="1:3">
-      <c r="A54" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="55" ht="56" spans="1:3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="58" ht="42" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="59" ht="70" spans="1:3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="60" ht="56" spans="2:3">
-      <c r="B60" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" ht="56" spans="1:3">
-      <c r="A62" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="63" ht="42" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="64" ht="42" spans="1:3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="65" ht="42" spans="1:3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="66" ht="98" spans="1:3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" ht="56" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="70" ht="42" spans="1:3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="72" ht="84" spans="1:3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="73" ht="56" spans="1:3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="74" ht="42" spans="1:3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="75" ht="28" spans="1:3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="3"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="80" ht="98" spans="1:3">
-      <c r="A80" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="82" ht="28" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="84" ht="28" spans="1:3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
-        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -23835,147 +23957,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>961</v>
+      <c r="A1" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>962</v>
+      <c r="C2" s="26" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>964</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>966</v>
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>969</v>
+      <c r="A5" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>970</v>
+      <c r="C6" s="31" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
-        <v>971</v>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="32" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" ht="56" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>974</v>
+      <c r="A10" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>976</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>978</v>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" ht="112" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>981</v>
+      <c r="A14" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="42" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>984</v>
+      <c r="A16" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>986</v>
+      <c r="A20" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -23995,7 +24117,7 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -24007,206 +24129,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="3" t="s">
-        <v>987</v>
+      <c r="C1" s="4" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>989</v>
+      <c r="A3" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>991</v>
+      <c r="A5" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>993</v>
+      <c r="A15" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>995</v>
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>997</v>
+      <c r="B18" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>999</v>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1001</v>
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1003</v>
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1005</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1007</v>
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1009</v>
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1011</v>
+      <c r="A25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>1013</v>
+      <c r="A26" s="2"/>
+      <c r="B26" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1015</v>
+      <c r="A27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1017</v>
+      <c r="A28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1019</v>
+      <c r="A29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1021</v>
+      <c r="A30" s="2"/>
+      <c r="B30" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2" t="s">
-        <v>1022</v>
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2" t="s">
-        <v>1023</v>
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
-      <c r="B33" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1025</v>
+      <c r="B33" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -24224,10 +24346,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -24237,269 +24359,321 @@
     <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="84" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1027</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="3" ht="98" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="5" ht="56" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="6" ht="98" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A2" t="s">
         <v>1035</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
+    <row r="3" ht="28" spans="1:3">
+      <c r="A3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="3:3">
+      <c r="C4" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="6" ht="84" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
     <row r="7" ht="28" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="8" ht="140" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="11" ht="56" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="8" ht="98" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="12" ht="196" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="13" ht="42" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="14" ht="70" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+    <row r="10" ht="56" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="11" ht="98" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="19" ht="56" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="20" ht="42" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="12" ht="28" spans="1:3">
+      <c r="A12" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="13" ht="140" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="C13" s="3" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="21" ht="84" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="22" ht="42" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
+    <row r="16" ht="56" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="23" ht="42" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="17" ht="196" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="C17" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="18" ht="42" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>1060</v>
       </c>
+    </row>
+    <row r="19" ht="70" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="24" ht="56" spans="1:3">
+      <c r="A24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
         <v>1064</v>
       </c>
-      <c r="C27" s="6" t="s">
+    </row>
+    <row r="25" ht="42" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="28" ht="84" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="C28" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="30" ht="42" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="26" ht="84" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="31" ht="28" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="C31" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="32" ht="28" spans="1:3">
-      <c r="A32" t="s">
+    <row r="27" ht="42" spans="1:3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C27" s="3" t="s">
         <v>1071</v>
       </c>
+    </row>
+    <row r="28" ht="42" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6" t="s">
+        <v>1078</v>
+      </c>
       <c r="C32" s="7" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:3">
-      <c r="A35" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>1077</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="33" ht="84" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="C33" s="8" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="35" ht="42" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="36" ht="28" spans="1:3">
+      <c r="A36" s="6"/>
+      <c r="C36" s="8" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1081</v>
+        <v>1084</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="40" ht="28" spans="1:3">
+      <c r="A40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="42" ht="28" spans="1:3">
+      <c r="A42" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="9"/>
+      <c r="B43" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="10" t="s">
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="11">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" display="https://blog.csdn.net/ciasck6848/article/details/100685978"/>
+    <hyperlink ref="C32" r:id="rId1" display="https://blog.csdn.net/ciasck6848/article/details/100685978"/>
+    <hyperlink ref="C48" r:id="rId2" display="https://blog.csdn.net/BADAO_LIUMANG_QIZHI/article/details/89395156?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromBaidu%7ERate-1-89395156-blog-66974025.pc_relevant_3mothn_strategy_and_data_recovery&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromBaidu%7ERate-1-89395156-blog-66974025.pc_relevant_3mothn_strategy_and_data_recovery&amp;utm_relevant_index=2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -24522,7 +24696,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B1" t="s">
@@ -24530,31 +24704,31 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -24567,18 +24741,18 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>301</v>
       </c>
     </row>
@@ -24608,201 +24782,201 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" ht="56" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="10" ht="112" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="C11" s="4" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="12" ht="70" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="C13" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="23" ht="56" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="29" ht="28" spans="3:3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="33" ht="56" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="2" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="35" ht="56" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>342</v>
       </c>
     </row>
@@ -24837,222 +25011,222 @@
   </cols>
   <sheetData>
     <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="C8" s="4" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="2"/>
+      <c r="C28" s="3" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="C29" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="C30" s="2" t="s">
+      <c r="A30" s="2"/>
+      <c r="C30" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="34" ht="42" spans="1:3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>390</v>
       </c>
     </row>
@@ -25087,109 +25261,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:3">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="2" ht="70" spans="3:3">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" ht="42" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="22" ht="28" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="24" ht="84" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>410</v>
       </c>
     </row>
@@ -25217,475 +25391,475 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="C15" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="16" ht="70" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="22" ht="28" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="24" ht="112" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="25" ht="56" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="26" ht="28" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" ht="28" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="32" ht="56" spans="3:3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="2"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" ht="28" spans="2:3">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="35" ht="112" spans="2:3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="3" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="36" ht="56" spans="2:3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="26" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="37" ht="154" spans="2:3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="3" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="39" ht="154" spans="2:3">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="40" ht="210" spans="2:3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="3" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="41" ht="84" spans="2:3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="26" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="43" ht="84" spans="2:3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="44" ht="28" spans="2:3">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="26" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="46" ht="28" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="47" ht="98" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="C47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="C47" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1"/>
-      <c r="C49" s="13" t="s">
+      <c r="A49" s="2"/>
+      <c r="C49" s="16" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="52" ht="70" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" ht="42" spans="1:3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="58" ht="70" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="24" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" ht="42" spans="1:3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="28" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="2"/>
+      <c r="B62" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="24" t="s">
+      <c r="A63" s="2"/>
+      <c r="B63" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="24" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="67" ht="42" spans="1:3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B67" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="26" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="24" t="s">
+      <c r="A68" s="5"/>
+      <c r="B68" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="24" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="24" t="s">
+      <c r="A70" s="5"/>
+      <c r="B70" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="24" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="24" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="27" t="s">
         <v>497</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="5"/>
+      <c r="B73" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>499</v>
       </c>
     </row>
@@ -25731,513 +25905,513 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="3" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="14" ht="42" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="22" ht="56" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="C25" s="3" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="28" ht="56" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="29" ht="56" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="21" t="s">
         <v>521</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" ht="28" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="43" ht="28" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="44" ht="84" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="45" ht="42" spans="1:3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="47" ht="168" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="50" ht="56" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="52" ht="42" spans="1:3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="53" ht="28" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3" t="s">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="54" ht="84" spans="1:3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="59" ht="98" spans="1:3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="61" ht="70" spans="1:3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2" t="s">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="66" ht="70" spans="1:3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="2" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="68" ht="182" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1"/>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="71" ht="28" spans="1:3">
-      <c r="A71" s="1"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="2" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="3" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="22" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1"/>
-      <c r="B74" s="3" t="s">
+      <c r="A74" s="2"/>
+      <c r="B74" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="75" ht="98" spans="1:3">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="76" ht="42" spans="1:3">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="77" ht="84" spans="1:3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="2"/>
+      <c r="B77" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="78" ht="57.6" customHeight="1" spans="1:3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="2" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="3" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="79" ht="42" spans="1:3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="2" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="3" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="80" ht="168" spans="1:3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="3" t="s">
+      <c r="A80" s="2"/>
+      <c r="B80" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>600</v>
       </c>
     </row>
@@ -26283,220 +26457,220 @@
   </cols>
   <sheetData>
     <row r="1" ht="56" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="7" ht="42" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="15" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="30" t="s">
         <v>623</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="23" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="26" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="23" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="26" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="18" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="27" t="s">
         <v>639</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="43" ht="42" spans="1:3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1"/>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="2"/>
+      <c r="C44" s="4" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="47" ht="70" spans="1:3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>646</v>
       </c>
     </row>
@@ -26532,251 +26706,251 @@
   </cols>
   <sheetData>
     <row r="2" ht="112" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="5"/>
+      <c r="C3" s="3" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="8" ht="84" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="2"/>
+      <c r="C12" s="4" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="C13" s="4" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="21" ht="126" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="C21" s="3" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="14"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" ht="70" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="11" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="11" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="35" ht="84" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="11" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="38" ht="115.2" customHeight="1" spans="1:3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="3" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>697</v>
       </c>
     </row>

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="12" activeTab="17"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1111">
   <si>
     <t>SE,EE</t>
   </si>
@@ -8346,54 +8346,11 @@
     <t>实现</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>经典基于代理：
-实现接口MethodBeforeAdvice，AfterReturningAdvice，ThrowsAdvice，即拦截器
-pom中引入依赖</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AspectJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，（spring-context）
-xml文件中写注入</t>
-    </r>
-  </si>
-  <si>
     <t>AspectJ基于XML配置：AspectJ是面向切面的框架，定义了aop语言，有专门的编译器生产java规范的class文件。
 在xml中添加&lt;aop&gt;…</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>AspectJ基于</t>
     </r>
     <r>
@@ -8458,7 +8415,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>…&gt;，配置开启aop环境</t>
+      <t>…&gt;（不加的话可以在xml中定义bean），配置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开启aop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环境</t>
     </r>
     <r>
       <rPr>
@@ -8480,7 +8458,151 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-注解@Aspect定义切面</t>
+使用注解</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Aspect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添加到类上定义切面</t>
+    </r>
+  </si>
+  <si>
+    <t>@Around</t>
+  </si>
+  <si>
+    <t>自定义代理方法执行前后需要进行的操作。
+参数：ProceedingJoinPoint 包含proceed()方法，表示某个代理方法的执行</t>
+  </si>
+  <si>
+    <t>@Before</t>
+  </si>
+  <si>
+    <t>前置方法，针对哪些类的哪些方法</t>
+  </si>
+  <si>
+    <t>@Pointcut</t>
+  </si>
+  <si>
+    <t>如果有多个注解的value表达式相同，可以用加此注解的空方法进行抽象
+定义：@Pointcut(value="xxx")
+ public void pointdemo(){}
+使用时：@Before(value = "pointdemo()")</t>
+  </si>
+  <si>
+    <t>@After</t>
+  </si>
+  <si>
+    <t>方法执行后无论有没有异常都会执行
+AfterReturning: 出现异常不执行
+AfterThrowing：出现异常后执行</t>
+  </si>
+  <si>
+    <t>处理自定义注解</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">@Around("execution(xxx) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp; @annotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>args</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)")
+Object saveLog(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProceedingJoinPoint pJoinPoint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>args</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -12257,6 +12379,12 @@
     </r>
   </si>
   <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以条件构造器为参数删除:传入LambdaQueryWrapper或QueryWrapper </t>
+  </si>
+  <si>
     <t>乐观锁</t>
   </si>
   <si>
@@ -14218,6 +14346,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Broker和Topic路由的</t>
     </r>
     <r>
@@ -19789,7 +19924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19814,12 +19949,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
@@ -19831,9 +19960,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -19869,6 +19995,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -19876,9 +20005,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21173,14 +21299,14 @@
     <row r="3" ht="28" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -21228,7 +21354,7 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -21242,21 +21368,21 @@
         <v>18</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="70" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -21272,7 +21398,7 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -21384,12 +21510,12 @@
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="8"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
@@ -21407,7 +21533,7 @@
       <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2"/>
@@ -21450,7 +21576,7 @@
       <c r="B52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2"/>
@@ -21659,14 +21785,14 @@
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="19"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" ht="56" spans="1:3">
       <c r="A77" s="2"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="3" t="s">
         <v>110</v>
       </c>
@@ -21784,7 +21910,7 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="17"/>
     </row>
     <row r="91" ht="28" spans="1:3">
       <c r="A91" s="2" t="s">
@@ -21840,7 +21966,7 @@
       </c>
     </row>
     <row r="97" ht="98" spans="1:3">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="18" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -21848,16 +21974,16 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="100" ht="56" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -21895,7 +22021,7 @@
       <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="18" t="s">
         <v>161</v>
       </c>
       <c r="C104" t="s">
@@ -21904,7 +22030,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2"/>
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="18" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -21929,7 +22055,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C108" t="s">
@@ -21938,7 +22064,7 @@
     </row>
     <row r="109" ht="98" spans="1:3">
       <c r="A109" s="2"/>
-      <c r="B109" s="21" t="s">
+      <c r="B109" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -22097,7 +22223,7 @@
     </row>
     <row r="129" ht="126" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="21" t="s">
+      <c r="B129" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -22542,62 +22668,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22606,126 +22732,126 @@
         <v>226</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
     </row>
     <row r="45" ht="70" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
     </row>
     <row r="47" ht="42" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52" ht="56" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" ht="56" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -22761,66 +22887,66 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" ht="28" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="C5" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -22845,138 +22971,138 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="B25" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="C25" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="B26" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="B27" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="C27" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" t="s">
-        <v>772</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>773</v>
+        <v>783</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="B31" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="C31" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="C32" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="C33" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
-      <c r="A35" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>784</v>
+      <c r="A35" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="6"/>
       <c r="C36" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" ht="70" spans="1:3">
       <c r="A38" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="C40" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -23008,151 +23134,151 @@
   <sheetData>
     <row r="1" ht="28" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -23181,37 +23307,37 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -23238,28 +23364,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="4" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -23285,94 +23411,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23382,135 +23508,135 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -23518,96 +23644,96 @@
     </row>
     <row r="29" ht="98" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>902</v>
+        <v>913</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>903</v>
+        <v>914</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>904</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>905</v>
+        <v>916</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>906</v>
+        <v>917</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>907</v>
+        <v>918</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>908</v>
+        <v>919</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
-      <c r="A38" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="B38" s="13"/>
+      <c r="A38" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
-        <v>910</v>
+        <v>921</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -23619,42 +23745,42 @@
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
-        <v>911</v>
+        <v>922</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>912</v>
+        <v>923</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>913</v>
+        <v>924</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>914</v>
+        <v>925</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>915</v>
+        <v>926</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>916</v>
+        <v>927</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>917</v>
+        <v>928</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -23672,7 +23798,7 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -23680,68 +23806,68 @@
         <v>397</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>921</v>
+        <v>932</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
-        <v>922</v>
+        <v>933</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>924</v>
+        <v>935</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>926</v>
+        <v>937</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>927</v>
+        <v>938</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>929</v>
+        <v>940</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>930</v>
+        <v>941</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>933</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="4" t="s">
-        <v>934</v>
+        <v>945</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>935</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -23750,46 +23876,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>936</v>
+        <v>947</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="4" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="4" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="4" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -23802,66 +23928,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>948</v>
+        <v>959</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>949</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>950</v>
+        <v>961</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>951</v>
+        <v>962</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>952</v>
+        <v>963</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>953</v>
+        <v>964</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>954</v>
+        <v>965</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>955</v>
+        <v>966</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>956</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -23874,41 +24000,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>962</v>
+        <v>973</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>964</v>
+        <v>975</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -23958,13 +24084,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -23972,37 +24098,37 @@
       <c r="B2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>969</v>
+      <c r="C2" s="24" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>971</v>
+        <v>981</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>973</v>
+        <v>983</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>975</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>976</v>
+        <v>986</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -24010,15 +24136,15 @@
       <c r="B6" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>977</v>
+      <c r="C6" s="28" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="32" t="s">
-        <v>978</v>
+      <c r="C7" s="29" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -24033,31 +24159,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -24067,13 +24193,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -24083,21 +24209,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>993</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -24130,23 +24256,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>994</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>995</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>996</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>997</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>998</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -24175,160 +24301,160 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1002</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>1005</v>
+        <v>1016</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1006</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>1007</v>
+        <v>1018</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1008</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>1009</v>
+        <v>1020</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1010</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>1011</v>
+        <v>1022</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1012</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>1013</v>
+        <v>1024</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1014</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1018</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>1021</v>
+        <v>1032</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1022</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1024</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1026</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1028</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -24348,7 +24474,7 @@
   <sheetPr/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -24361,300 +24487,300 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="C1" t="s">
-        <v>1034</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1036</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1038</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" ht="42" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1039</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>1040</v>
+        <v>1051</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1041</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>1042</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>1043</v>
+        <v>1054</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1044</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>1045</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1048</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" ht="98" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" ht="140" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>1053</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1054</v>
+        <v>1065</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1055</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" ht="196" spans="1:3">
       <c r="A17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>1058</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1060</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="19" ht="70" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>1061</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1063</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:3">
       <c r="A24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>1064</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1066</v>
+        <v>1077</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1067</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="26" ht="84" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>1072</v>
+        <v>1083</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1073</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1075</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="33" ht="84" spans="1:3">
       <c r="A33" s="6"/>
-      <c r="C33" s="8" t="s">
-        <v>1080</v>
+      <c r="C33" s="1" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1082</v>
+        <v>1092</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="6"/>
-      <c r="C36" s="8" t="s">
-        <v>1083</v>
+      <c r="C36" s="1" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1084</v>
+        <v>1095</v>
       </c>
       <c r="B37" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>1086</v>
+        <v>1096</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="C38" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:3">
       <c r="A40" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="B40" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>1091</v>
+        <v>1101</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
-      <c r="A42" s="9" t="s">
-        <v>1092</v>
+      <c r="A42" s="6" t="s">
+        <v>1103</v>
       </c>
       <c r="B42" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1094</v>
+        <v>1104</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="6"/>
       <c r="B43" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C43" s="8"/>
+        <v>1106</v>
+      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="C45" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="10" t="s">
-        <v>1099</v>
+      <c r="C48" s="8" t="s">
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -24999,7 +25125,7 @@
   <sheetPr/>
   <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
@@ -25118,7 +25244,7 @@
       <c r="B16" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="22" t="s">
         <v>366</v>
       </c>
     </row>
@@ -25127,7 +25253,7 @@
       <c r="B17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -25377,10 +25503,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:A73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -25539,328 +25665,378 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" ht="56" spans="1:3">
+    <row r="25" ht="112" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" ht="28" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" ht="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="23" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" ht="28" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B29" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="23" t="s">
+        <v>439</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="30" ht="28" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="4" t="s">
         <v>440</v>
       </c>
+    </row>
+    <row r="30" ht="56" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" ht="28" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="21" t="s">
         <v>442</v>
       </c>
+    </row>
+    <row r="31" ht="42" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="23" t="s">
+        <v>443</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="32" ht="56" spans="3:3">
-      <c r="C32" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="32" ht="28" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" ht="28" spans="2:3">
-      <c r="B34" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="35" ht="112" spans="2:3">
-      <c r="B35" s="23"/>
+    <row r="34" spans="3:3">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" ht="28" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B35" s="4"/>
       <c r="C35" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="36" ht="56" spans="2:3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="26" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="37" ht="154" spans="2:3">
-      <c r="B37" s="23"/>
+    <row r="36" ht="28" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="18" t="s">
+        <v>451</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="23"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" ht="56" spans="3:3">
       <c r="C38" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="39" ht="154" spans="2:3">
-      <c r="B39" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="40" ht="210" spans="2:3">
-      <c r="B40" s="24"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" ht="28" spans="2:3">
+      <c r="B40" s="20" t="s">
+        <v>454</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="41" ht="84" spans="2:3">
-      <c r="B41" s="24"/>
-      <c r="C41" s="26" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="41" ht="112" spans="2:3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="43" ht="84" spans="2:3">
-      <c r="B43" s="2"/>
+    <row r="42" ht="56" spans="2:3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" ht="154" spans="2:3">
+      <c r="B43" s="20"/>
       <c r="C43" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="44" ht="28" spans="2:3">
-      <c r="B44" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C44" s="26" t="s">
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="46" ht="28" spans="1:3">
-      <c r="A46" s="2" t="s">
+    <row r="45" ht="154" spans="2:3">
+      <c r="B45" s="21" t="s">
         <v>460</v>
       </c>
+      <c r="C45" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="46" ht="210" spans="2:3">
+      <c r="B46" s="21"/>
       <c r="C46" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="47" ht="98" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="C47" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4" t="s">
+    <row r="47" ht="84" spans="2:3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="24" t="s">
         <v>463</v>
       </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="C49" s="16" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="52" ht="70" spans="1:3">
-      <c r="A52" s="4" t="s">
+    <row r="49" ht="84" spans="2:3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3" t="s">
         <v>466</v>
       </c>
+    </row>
+    <row r="50" ht="28" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="52" ht="28" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>469</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" ht="42" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B57" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="C57" s="3" t="s">
+    </row>
+    <row r="53" ht="98" spans="1:3">
+      <c r="A53" s="2"/>
+      <c r="C53" s="3" t="s">
         <v>471</v>
       </c>
     </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
+      <c r="C55" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
     <row r="58" ht="70" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="27" t="s">
-        <v>472</v>
+      <c r="A58" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="59" ht="28" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="27" t="s">
-        <v>474</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" ht="42" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="27" t="s">
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C61" s="28" t="s">
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" ht="42" spans="1:3">
+      <c r="A63" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="62" ht="28" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="27" t="s">
+      <c r="B63" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="63" ht="28" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="27" t="s">
+    <row r="64" ht="70" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="27" t="s">
+    <row r="65" ht="28" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="27" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" ht="42" spans="1:3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="25" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="67" ht="42" spans="1:3">
-      <c r="A67" s="5" t="s">
+      <c r="C67" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="B67" s="26" t="s">
+    </row>
+    <row r="68" ht="28" spans="1:3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C68" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="27" t="s">
+    <row r="69" ht="28" spans="1:3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="27" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="1:3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="27" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="27" t="s">
+    <row r="73" ht="42" spans="1:3">
+      <c r="A73" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="B73" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76" ht="28" spans="1:3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="C72" s="25"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>499</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C78" s="22"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -25868,19 +26044,19 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="A73:A79"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C77:C78"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C49" r:id="rId2" display="https://cloud.tencent.com/developer/article/1062946"/>
+    <hyperlink ref="C55" r:id="rId2" display="https://cloud.tencent.com/developer/article/1062946"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -25892,10 +26068,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="C77" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -25905,37 +26081,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="19" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="3" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="19" t="s">
-        <v>502</v>
+      <c r="A2" s="17"/>
+      <c r="B2" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="14" ht="42" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:3">
@@ -25943,41 +26119,41 @@
         <v>263</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" ht="56" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -25985,68 +26161,68 @@
         <v>389</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" ht="56" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="21" t="s">
-        <v>519</v>
+      <c r="B28" s="18" t="s">
+        <v>528</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" ht="56" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="21" t="s">
-        <v>521</v>
+      <c r="B29" s="18" t="s">
+        <v>530</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -26059,49 +26235,49 @@
         <v>83</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="3" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2"/>
-      <c r="B39" s="29" t="s">
-        <v>535</v>
+      <c r="B39" s="23" t="s">
+        <v>544</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
@@ -26110,113 +26286,113 @@
         <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" ht="28" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" ht="84" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" ht="42" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47" ht="168" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="4" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" ht="56" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" ht="42" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" ht="28" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" ht="84" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -26226,55 +26402,55 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" ht="98" spans="1:3">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:3">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" ht="70" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -26289,130 +26465,139 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" ht="70" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
       <c r="C66" s="3" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68" ht="182" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="4" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="5" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" ht="28" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="5"/>
       <c r="C71" s="3" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>586</v>
+        <v>594</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="4" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="4" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" ht="98" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" ht="42" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" ht="84" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77" s="5" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" ht="57.6" customHeight="1" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="5"/>
       <c r="C78" s="3" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" ht="42" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="5"/>
       <c r="C79" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="80" ht="168" spans="1:3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2"/>
-      <c r="B80" s="4" t="s">
-        <v>599</v>
+      <c r="B80" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>600</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81" ht="168" spans="1:3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -26426,7 +26611,7 @@
     <mergeCell ref="A50:A54"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A80"/>
+    <mergeCell ref="A68:A81"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B46:B47"/>
@@ -26458,37 +26643,37 @@
   <sheetData>
     <row r="1" ht="56" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -26498,57 +26683,57 @@
     </row>
     <row r="7" ht="42" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:3">
       <c r="A8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
@@ -26556,122 +26741,122 @@
       <c r="B28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>622</v>
+      <c r="C28" s="12" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>623</v>
+      <c r="B30" s="27" t="s">
+        <v>634</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="26" t="s">
-        <v>625</v>
+      <c r="C31" s="24" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="26" t="s">
-        <v>626</v>
+      <c r="C32" s="24" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>636</v>
+        <v>646</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
-      <c r="B41" s="27" t="s">
-        <v>637</v>
+      <c r="B41" s="25" t="s">
+        <v>648</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="27" t="s">
-        <v>639</v>
+      <c r="B42" s="25" t="s">
+        <v>650</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" ht="42" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" ht="70" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -26707,34 +26892,34 @@
   <sheetData>
     <row r="2" ht="112" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" s="5"/>
       <c r="C3" s="3" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -26743,170 +26928,170 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" ht="84" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>657</v>
+        <v>667</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>660</v>
+      <c r="C11" s="13" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="21" ht="126" spans="1:3">
       <c r="A21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="4" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="17"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" ht="70" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>687</v>
+        <v>697</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
@@ -26914,52 +27099,52 @@
       <c r="B33" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>688</v>
+      <c r="C33" s="9" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="35" ht="84" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>691</v>
+        <v>701</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" ht="115.2" customHeight="1" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="C55" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Spring Boot" sheetId="7" r:id="rId9"/>
     <sheet name="Spring cloud" sheetId="11" r:id="rId10"/>
     <sheet name="MQ" sheetId="13" r:id="rId11"/>
-    <sheet name="IDEA快捷键" sheetId="9" r:id="rId12"/>
-    <sheet name="前端" sheetId="10" r:id="rId13"/>
-    <sheet name="AJAX" sheetId="12" r:id="rId14"/>
-    <sheet name="React" sheetId="15" r:id="rId15"/>
+    <sheet name="前端" sheetId="10" r:id="rId12"/>
+    <sheet name="AJAX" sheetId="12" r:id="rId13"/>
+    <sheet name="React" sheetId="15" r:id="rId14"/>
+    <sheet name="IDEA快捷键" sheetId="9" r:id="rId15"/>
     <sheet name="Mockito" sheetId="16" r:id="rId16"/>
     <sheet name="SpringBatch" sheetId="17" r:id="rId17"/>
     <sheet name="XML&amp;webservice" sheetId="19" r:id="rId18"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1153">
   <si>
     <t>SE,EE</t>
   </si>
@@ -8351,6 +8351,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AspectJ基于</t>
     </r>
     <r>
@@ -8517,6 +8524,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">@Around("execution(xxx) </t>
     </r>
     <r>
@@ -14266,31 +14280,38 @@
     <t>负责从 Broker 中获取消息，并进行相应处理</t>
   </si>
   <si>
-    <t>工作模式</t>
-  </si>
-  <si>
-    <t>简单</t>
-  </si>
-  <si>
-    <t>点对点</t>
-  </si>
-  <si>
-    <t>发布订阅</t>
-  </si>
-  <si>
-    <t>发布确认</t>
+    <t>消息模型</t>
+  </si>
+  <si>
+    <t>JMS模型</t>
+  </si>
+  <si>
+    <t>队列-点对点</t>
+  </si>
+  <si>
+    <t>主题-发布订阅</t>
+  </si>
+  <si>
+    <t>AMQP模型</t>
+  </si>
+  <si>
+    <t>跨语言，而JMS局限于JAVA
+支持事务，数据一致性高，多用于银行、金融行业</t>
+  </si>
+  <si>
+    <t>RocketMQ</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>数据最小单位，每个消息必属于一个主题</t>
   </si>
   <si>
     <t>主题</t>
-  </si>
-  <si>
-    <t>消息</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>数据最小单位，每个消息必属于一个主题</t>
   </si>
   <si>
     <t>Topic</t>
@@ -14398,218 +14419,183 @@
     <t>物理上读写是同一队列，一般读写数量相同，允许不同是为了方便缩容</t>
   </si>
   <si>
-    <t>sout</t>
-  </si>
-  <si>
-    <t>System.out.print
-xxx.sout</t>
-  </si>
-  <si>
-    <t>psvm</t>
-  </si>
-  <si>
-    <t>快速写出main</t>
-  </si>
-  <si>
-    <t>psf</t>
-  </si>
-  <si>
-    <t>public static final</t>
-  </si>
-  <si>
-    <t>/**回车</t>
-  </si>
-  <si>
-    <t>/**
- * 
- */</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>factory.openSession()</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.var</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SqlSession sqlSession = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>factory.openSession();</t>
-    </r>
-  </si>
-  <si>
-    <t>shift+shift</t>
-  </si>
-  <si>
-    <t>搜索并打开某个文件</t>
-  </si>
-  <si>
-    <t>alt+insert</t>
-  </si>
-  <si>
-    <t>代码自动生成，如生成对象的 set / get 方法，构造函数，toString() 等</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ctrl+h</t>
-  </si>
-  <si>
-    <t>查看继承关系</t>
-  </si>
-  <si>
-    <t>Ctrl + I</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选择可</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>继承</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的方法</t>
-    </r>
-  </si>
-  <si>
-    <t>Ctrl + O</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选择可</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>重写</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的方法</t>
-    </r>
-  </si>
-  <si>
-    <t>alt+enter</t>
-  </si>
-  <si>
-    <t>IntelliJ IDEA 根据光标所在问题，提供快速修复选择，光标放在的位置不同提示的结果也不同 （必备）</t>
-  </si>
-  <si>
-    <t>Ctrl + Alt + L</t>
-  </si>
-  <si>
-    <t>格式化代码，可以对当前文件和整个包目录使用 （必备）</t>
-  </si>
-  <si>
-    <t>Ctrl + Y</t>
-  </si>
-  <si>
-    <t>删除光标所在行 或 删除选中的行 （必备）</t>
-  </si>
-  <si>
-    <t>Ctrl + +</t>
-  </si>
-  <si>
-    <t>展开代码</t>
-  </si>
-  <si>
-    <t>Ctrl + -</t>
-  </si>
-  <si>
-    <t>折叠代码</t>
-  </si>
-  <si>
-    <t>Ctrl + Alt + T</t>
-  </si>
-  <si>
-    <t>对选中的代码弹出环绕选项弹出层，快速添加if,for,try语句</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + Up / Down</t>
-  </si>
-  <si>
-    <t>代码向上/下移动</t>
-  </si>
-  <si>
-    <t>win10 cmd 跳转目录</t>
-  </si>
-  <si>
-    <t>cd /d xxx</t>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>分布式的，基于发布 / 订阅的消息系统</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>对应一个服务器，一个服务器部署一个Broker实例</t>
+  </si>
+  <si>
+    <t>主题，可类比数据库的表，存同种类型消息</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>分区，一个主题有多个分区
+是最小的并行单元
+一个消费者可以消费多个分区
+一个分区可以被多个消费者组里的消费者消费，不能同时被同一个消费者组里的多个消费者消费（一个组做一种事情，这种规则出于性能考虑，需要加锁，以及额外开销）</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <r>
+      <t>偏移量，相当于每个消息在分区中的id，是唯一的，通常通过也这个记录消费位置
+有序的，不可变的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">提交日志
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由消费者提交，存储在kafka的一个系统主题里持久化保存（因为消费者出现故障恢复后需要知道从哪继续消费，不能存在自己这里）</t>
+    </r>
+  </si>
+  <si>
+    <t>Replication</t>
+  </si>
+  <si>
+    <t>副本，实现容错性
+例：Broker1中part1为leader，用于处理读写请求， Broker2中part2和part4为follwer，用于同步备份，当Broker1故障，Broker2的part2将成为leader</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>段，数据存分区里，如果都存一个文件里，文件太大，读写性能下降，因此kafka中数据以分段的形式存储</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <r>
+      <t>生产消息，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>决定发送到哪个分区</t>
+    </r>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>通过保存offset记录消费位置
+消息消费后也不会立即删除，重复消费可以通过重置offset实现</t>
+  </si>
+  <si>
+    <t>Consumer Group</t>
+  </si>
+  <si>
+    <t>消费者组，通过它统一进行点对点，发布订阅模式
+每个消费者都属于不同的消费者组，1对1关系，消费时，每个分区都被每个消费者消费一次</t>
+  </si>
+  <si>
+    <t>把一个消费者组看成一个消费者整体</t>
+  </si>
+  <si>
+    <t>发布订阅模式</t>
+  </si>
+  <si>
+    <t>点对点</t>
+  </si>
+  <si>
+    <t>多个消费者在一个组，多对1关系，一个消息被一个消费者所消费
+可以实现负载均衡，消息多时可以添加消费者，消费者挂掉时，转为其他消费者消费</t>
+  </si>
+  <si>
+    <t>分区与消费顺序</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <r>
+      <t>同一生产者发送到同一分区的消息（可通过设置消息的key，相同key的消息会到一个分区），先发送的offset比后面的小，消费的时候顺序也是一致的
+如果发送到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同分区，顺序不能保证</t>
+    </r>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>按消息在分区里存放顺序进行消费</t>
+  </si>
+  <si>
+    <t>消息传递语义</t>
+  </si>
+  <si>
+    <t>指生产者与消费者间传递消息的一种保障</t>
+  </si>
+  <si>
+    <t>最多一次</t>
+  </si>
+  <si>
+    <t>消息可能丢失，不重复发送</t>
+  </si>
+  <si>
+    <t>最少一次</t>
+  </si>
+  <si>
+    <t>消息不丢失，可能会重复</t>
+  </si>
+  <si>
+    <t>精确一次</t>
+  </si>
+  <si>
+    <t>保证消息传到服务端且不重复</t>
+  </si>
+  <si>
+    <t>消费方式</t>
+  </si>
+  <si>
+    <t>拉pull</t>
+  </si>
+  <si>
+    <t>consumer主动从broker中拉数据（Kafka采用），不足：如果没有数据，消费者可能会陷入循环中</t>
+  </si>
+  <si>
+    <t>推push</t>
   </si>
   <si>
     <t>框架</t>
@@ -17590,6 +17576,220 @@
   <si>
     <t>rcc   快速创建类组件
 rfc   快速创建函数式组件</t>
+  </si>
+  <si>
+    <t>sout</t>
+  </si>
+  <si>
+    <t>System.out.print
+xxx.sout</t>
+  </si>
+  <si>
+    <t>psvm</t>
+  </si>
+  <si>
+    <t>快速写出main</t>
+  </si>
+  <si>
+    <t>psf</t>
+  </si>
+  <si>
+    <t>public static final</t>
+  </si>
+  <si>
+    <t>/**回车</t>
+  </si>
+  <si>
+    <t>/**
+ * 
+ */</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>factory.openSession()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.var</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SqlSession sqlSession = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>factory.openSession();</t>
+    </r>
+  </si>
+  <si>
+    <t>shift+shift</t>
+  </si>
+  <si>
+    <t>搜索并打开某个文件</t>
+  </si>
+  <si>
+    <t>alt+insert</t>
+  </si>
+  <si>
+    <t>代码自动生成，如生成对象的 set / get 方法，构造函数，toString() 等</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ctrl+h</t>
+  </si>
+  <si>
+    <t>查看继承关系</t>
+  </si>
+  <si>
+    <t>Ctrl + I</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择可</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继承</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+  </si>
+  <si>
+    <t>Ctrl + O</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择可</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方法</t>
+    </r>
+  </si>
+  <si>
+    <t>alt+enter</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA 根据光标所在问题，提供快速修复选择，光标放在的位置不同提示的结果也不同 （必备）</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + L</t>
+  </si>
+  <si>
+    <t>格式化代码，可以对当前文件和整个包目录使用 （必备）</t>
+  </si>
+  <si>
+    <t>Ctrl + Y</t>
+  </si>
+  <si>
+    <t>删除光标所在行 或 删除选中的行 （必备）</t>
+  </si>
+  <si>
+    <t>Ctrl + +</t>
+  </si>
+  <si>
+    <t>展开代码</t>
+  </si>
+  <si>
+    <t>Ctrl + -</t>
+  </si>
+  <si>
+    <t>折叠代码</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + T</t>
+  </si>
+  <si>
+    <t>对选中的代码弹出环绕选项弹出层，快速添加if,for,try语句</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Up / Down</t>
+  </si>
+  <si>
+    <t>代码向上/下移动</t>
+  </si>
+  <si>
+    <t>win10 cmd 跳转目录</t>
+  </si>
+  <si>
+    <t>cd /d xxx</t>
   </si>
   <si>
     <t>Mockito</t>
@@ -19271,7 +19471,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19298,6 +19498,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -19782,10 +19990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19794,16 +20002,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19812,16 +20020,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19833,98 +20038,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19961,13 +20169,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -19985,10 +20208,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -21785,14 +22008,14 @@
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="16"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" ht="56" spans="1:3">
       <c r="A77" s="2"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="3" t="s">
         <v>110</v>
       </c>
@@ -21910,7 +22133,7 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="17"/>
+      <c r="A90" s="22"/>
     </row>
     <row r="91" ht="28" spans="1:3">
       <c r="A91" s="2" t="s">
@@ -21966,7 +22189,7 @@
       </c>
     </row>
     <row r="97" ht="98" spans="1:3">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="23" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -21983,7 +22206,7 @@
       <c r="A100" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="23" t="s">
         <v>152</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -22021,7 +22244,7 @@
       <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="23" t="s">
         <v>161</v>
       </c>
       <c r="C104" t="s">
@@ -22030,7 +22253,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2"/>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="23" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -22055,7 +22278,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="23" t="s">
         <v>169</v>
       </c>
       <c r="C108" t="s">
@@ -22064,7 +22287,7 @@
     </row>
     <row r="109" ht="98" spans="1:3">
       <c r="A109" s="2"/>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -22223,7 +22446,7 @@
     </row>
     <row r="129" ht="126" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -22872,10 +23095,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -22970,145 +23193,338 @@
       <c r="C14" s="4"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>769</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="4" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+    <row r="21" ht="28" spans="2:3">
+      <c r="B21" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="C21" s="13" t="s">
         <v>774</v>
       </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="24" ht="17.5" spans="1:3">
+      <c r="A24" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C25" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B26" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C26" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C27" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C31" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C32" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C33" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="C36" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" ht="70" spans="1:3">
       <c r="A38" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C40" t="s">
-        <v>800</v>
+        <v>802</v>
+      </c>
+    </row>
+    <row r="45" ht="17.5" spans="1:3">
+      <c r="A45" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" ht="17.5" spans="1:3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>805</v>
+      </c>
+      <c r="C47" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>780</v>
+      </c>
+      <c r="C48" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="49" ht="70" spans="2:3">
+      <c r="B49" t="s">
+        <v>808</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" ht="42" spans="2:3">
+      <c r="B50" t="s">
+        <v>810</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="51" ht="28" spans="2:3">
+      <c r="B51" t="s">
+        <v>812</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>814</v>
+      </c>
+      <c r="C52" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>816</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="54" ht="28" spans="2:3">
+      <c r="B54" t="s">
+        <v>818</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="55" ht="28" spans="2:3">
+      <c r="B55" t="s">
+        <v>820</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="58" ht="28" spans="1:3">
+      <c r="A58" t="s">
+        <v>824</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="60" ht="28" spans="1:3">
+      <c r="A60" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B60" t="s">
+        <v>827</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12"/>
+      <c r="B61" t="s">
+        <v>829</v>
+      </c>
+      <c r="C61" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="C62" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="12"/>
+      <c r="B63" t="s">
+        <v>833</v>
+      </c>
+      <c r="C63" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="12"/>
+      <c r="B64" t="s">
+        <v>835</v>
+      </c>
+      <c r="C64" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="12"/>
+      <c r="B65" t="s">
+        <v>837</v>
+      </c>
+      <c r="C65" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B66" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="12"/>
+      <c r="B67" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -23118,179 +23534,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="28.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="116.781818181818" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="4" ht="42" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:C19"/>
@@ -23313,31 +23556,31 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -23347,7 +23590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:C4"/>
@@ -23364,28 +23607,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="4" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -23394,7 +23637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C86"/>
@@ -23411,94 +23654,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23508,135 +23751,135 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -23644,96 +23887,96 @@
     </row>
     <row r="29" ht="98" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -23745,42 +23988,42 @@
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -23798,7 +24041,7 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -23806,68 +24049,68 @@
         <v>397</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="4" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -23876,46 +24119,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="4" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="4" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="4" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -23928,66 +24171,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -24000,41 +24243,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -24067,6 +24310,179 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="28.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="116.781818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" ht="42" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -24084,13 +24500,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>977</v>
+        <v>1019</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>979</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -24098,37 +24514,37 @@
       <c r="B2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>980</v>
+      <c r="C2" s="29" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>981</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>982</v>
+        <v>1023</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>984</v>
+        <v>1025</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>985</v>
+        <v>1027</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>987</v>
+        <v>1028</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -24136,15 +24552,15 @@
       <c r="B6" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>988</v>
+      <c r="C6" s="33" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="29" t="s">
-        <v>989</v>
+      <c r="C7" s="34" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -24159,31 +24575,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>990</v>
+        <v>1032</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>991</v>
+        <v>1033</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>992</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>993</v>
+        <v>1035</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>996</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -24193,13 +24609,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>998</v>
+        <v>1040</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>999</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -24209,21 +24625,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>1000</v>
+        <v>1042</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1001</v>
+        <v>1043</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1002</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1003</v>
+        <v>1045</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1004</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -24256,23 +24672,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>1005</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1007</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>1008</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1009</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -24301,19 +24717,19 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1010</v>
+        <v>1052</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1011</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1012</v>
+        <v>1054</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1013</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -24321,140 +24737,140 @@
         <v>760</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1014</v>
+        <v>1056</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1015</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>1016</v>
+        <v>1058</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1017</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>1018</v>
+        <v>1060</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1019</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>1020</v>
+        <v>1062</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1021</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>1022</v>
+        <v>1064</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1023</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>1024</v>
+        <v>1066</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1025</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>1026</v>
+        <v>1068</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1027</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>1028</v>
+        <v>1070</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1029</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1030</v>
+        <v>1072</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1031</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>1032</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1033</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>1034</v>
+        <v>1076</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1035</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>1036</v>
+        <v>1078</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1037</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
-        <v>1038</v>
+        <v>1080</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1039</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3" t="s">
-        <v>1040</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3" t="s">
-        <v>1041</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1043</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -24487,300 +24903,300 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1044</v>
+        <v>1086</v>
       </c>
       <c r="C1" t="s">
-        <v>1045</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" t="s">
-        <v>1046</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1047</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" t="s">
-        <v>1048</v>
+        <v>1090</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1049</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="4" ht="42" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1050</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>1051</v>
+        <v>1093</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1052</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>1053</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>1054</v>
+        <v>1096</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1055</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>1056</v>
+        <v>1098</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1057</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>1058</v>
+        <v>1100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1059</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="11" ht="98" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>1060</v>
+        <v>1102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1061</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>1062</v>
+        <v>1104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1063</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="13" ht="140" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>1064</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1065</v>
+        <v>1107</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1066</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1068</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="17" ht="196" spans="1:3">
       <c r="A17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>1069</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>1070</v>
+        <v>1112</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1071</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="19" ht="70" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>1072</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>1073</v>
+        <v>1115</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1074</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:3">
       <c r="A24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>1075</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>1076</v>
+        <v>1118</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1077</v>
+        <v>1119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1078</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="26" ht="84" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1079</v>
+        <v>1121</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1080</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>1081</v>
+        <v>1123</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1082</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>1083</v>
+        <v>1125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1076</v>
+        <v>1118</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1084</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>1085</v>
+        <v>1127</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1086</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>1087</v>
+        <v>1129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1088</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>1089</v>
+        <v>1131</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1090</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="33" ht="84" spans="1:3">
       <c r="A33" s="6"/>
       <c r="C33" s="1" t="s">
-        <v>1091</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>1092</v>
+        <v>1134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1093</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="6"/>
       <c r="C36" s="1" t="s">
-        <v>1094</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1095</v>
+        <v>1137</v>
       </c>
       <c r="B37" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1097</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1098</v>
+        <v>1140</v>
       </c>
       <c r="C38" t="s">
-        <v>1099</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:3">
       <c r="A40" t="s">
-        <v>1100</v>
+        <v>1142</v>
       </c>
       <c r="B40" t="s">
-        <v>1101</v>
+        <v>1143</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1102</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>1103</v>
+        <v>1145</v>
       </c>
       <c r="B42" t="s">
-        <v>1104</v>
+        <v>1146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1105</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
-        <v>1106</v>
+        <v>1148</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>1107</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1108</v>
+        <v>1150</v>
       </c>
       <c r="C45" t="s">
-        <v>1109</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="8" t="s">
-        <v>1110</v>
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
@@ -25244,7 +25660,7 @@
       <c r="B16" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="27" t="s">
         <v>366</v>
       </c>
     </row>
@@ -25253,7 +25669,7 @@
       <c r="B17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -25505,8 +25921,8 @@
   <sheetPr/>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -25690,7 +26106,7 @@
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" s="5"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="28" t="s">
         <v>437</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -25699,7 +26115,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>439</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -25717,7 +26133,7 @@
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="5"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="28" t="s">
         <v>443</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -25729,7 +26145,7 @@
       <c r="B32" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="29" t="s">
         <v>446</v>
       </c>
     </row>
@@ -25761,7 +26177,7 @@
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="23" t="s">
         <v>451</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -25777,7 +26193,7 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="28" spans="2:3">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="25" t="s">
         <v>454</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -25785,31 +26201,31 @@
       </c>
     </row>
     <row r="41" ht="112" spans="2:3">
-      <c r="B41" s="20"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="42" ht="56" spans="2:3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="29" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="43" ht="154" spans="2:3">
-      <c r="B43" s="20"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="20"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="45" ht="154" spans="2:3">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="26" t="s">
         <v>460</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -25817,14 +26233,14 @@
       </c>
     </row>
     <row r="46" ht="210" spans="2:3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="47" ht="84" spans="2:3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="24" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="29" t="s">
         <v>463</v>
       </c>
     </row>
@@ -25846,7 +26262,7 @@
       <c r="B50" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="29" t="s">
         <v>468</v>
       </c>
     </row>
@@ -25875,7 +26291,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2"/>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -25899,7 +26315,7 @@
       <c r="A63" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="30" t="s">
         <v>479</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -25908,7 +26324,7 @@
     </row>
     <row r="64" ht="70" spans="1:3">
       <c r="A64" s="2"/>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="30" t="s">
         <v>481</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -25917,7 +26333,7 @@
     </row>
     <row r="65" ht="28" spans="1:3">
       <c r="A65" s="2"/>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="30" t="s">
         <v>483</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -25926,23 +26342,23 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2"/>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="30" t="s">
         <v>485</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" ht="42" spans="1:3">
       <c r="A67" s="2"/>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="31" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="68" ht="28" spans="1:3">
       <c r="A68" s="2"/>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="30" t="s">
         <v>488</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -25951,7 +26367,7 @@
     </row>
     <row r="69" ht="28" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="30" t="s">
         <v>490</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -25960,7 +26376,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="30" t="s">
         <v>492</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -25969,7 +26385,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2"/>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="30" t="s">
         <v>494</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -25980,16 +26396,16 @@
       <c r="A73" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="29" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5"/>
-      <c r="B74" s="25" t="s">
+      <c r="B74" s="30" t="s">
         <v>499</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -25998,7 +26414,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5"/>
-      <c r="B75" s="25" t="s">
+      <c r="B75" s="30" t="s">
         <v>501</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -26007,7 +26423,7 @@
     </row>
     <row r="76" ht="28" spans="1:3">
       <c r="A76" s="5"/>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="30" t="s">
         <v>503</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -26016,23 +26432,23 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5"/>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5"/>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="30" t="s">
         <v>506</v>
       </c>
-      <c r="C78" s="22"/>
+      <c r="C78" s="27"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5"/>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="30" t="s">
         <v>507</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -26081,17 +26497,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
         <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -26099,12 +26515,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="14" ht="42" spans="1:3">
       <c r="A14" s="4" t="s">
@@ -26183,7 +26599,7 @@
     </row>
     <row r="28" ht="56" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="23" t="s">
         <v>528</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -26192,7 +26608,7 @@
     </row>
     <row r="29" ht="56" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="23" t="s">
         <v>530</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -26266,7 +26682,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="28" t="s">
         <v>544</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -26519,7 +26935,7 @@
       <c r="B72" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="24" t="s">
         <v>595</v>
       </c>
     </row>
@@ -26741,7 +27157,7 @@
       <c r="B28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="17" t="s">
         <v>633</v>
       </c>
     </row>
@@ -26749,7 +27165,7 @@
       <c r="A30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="32" t="s">
         <v>634</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -26759,14 +27175,14 @@
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="29" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="29" t="s">
         <v>637</v>
       </c>
     </row>
@@ -26807,13 +27223,13 @@
       <c r="B40" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="20" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="30" t="s">
         <v>648</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -26822,7 +27238,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="30" t="s">
         <v>650</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -26939,7 +27355,7 @@
       <c r="B8" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="17" t="s">
         <v>668</v>
       </c>
     </row>
@@ -26956,7 +27372,7 @@
       <c r="A11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>671</v>
       </c>
     </row>
@@ -27063,7 +27479,7 @@
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="14"/>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" ht="70" spans="1:3">
       <c r="A30" s="2" t="s">

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="8" activeTab="10"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1157">
   <si>
     <t>SE,EE</t>
   </si>
@@ -10539,6 +10539,11 @@
 java.util.ArrayList</t>
   </si>
   <si>
+    <t>#{}与${}的区别：#{}方式能够很大程度防止sql注入(安全)，${}方式无法防止Sql注入
+${}: 解析为SQL时，将形参变量的值直接取出，直接拼接显示在SQL中
+#{}: 解析为SQL时，会将形参变量的值取出，并自动给其添加引号</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -11355,6 +11360,17 @@
   &lt;foreach collection='ids' item="id" separetor=","&gt;    // ids可通过@param
   &lt;/foreach&gt;
 )</t>
+  </si>
+  <si>
+    <t>提取出重复出现的sql片段
+可在提取出来的sql中使用 ${}传入参数</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>refid属性中设置&lt;sql&gt;的id
+子标签property，属性name设置传给&lt;sql&gt;的参数名称，value设置值</t>
   </si>
   <si>
     <t>简化单表操作</t>
@@ -14447,6 +14463,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>偏移量，相当于每个消息在分区中的id，是唯一的，通常通过也这个记录消费位置
 有序的，不可变的</t>
     </r>
@@ -14491,6 +14514,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>生产消息，</t>
     </r>
     <r>
@@ -14540,6 +14570,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同一生产者发送到同一分区的消息（可通过设置消息的key，相同key的消息会到一个分区），先发送的offset比后面的小，消费的时候顺序也是一致的
 如果发送到</t>
     </r>
@@ -20132,7 +20169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20169,20 +20206,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -22008,14 +22033,14 @@
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" ht="56" spans="1:3">
       <c r="A77" s="2"/>
-      <c r="B77" s="21"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="3" t="s">
         <v>110</v>
       </c>
@@ -22133,7 +22158,7 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="18"/>
     </row>
     <row r="91" ht="28" spans="1:3">
       <c r="A91" s="2" t="s">
@@ -22189,7 +22214,7 @@
       </c>
     </row>
     <row r="97" ht="98" spans="1:3">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="19" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -22206,7 +22231,7 @@
       <c r="A100" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="19" t="s">
         <v>152</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -22244,7 +22269,7 @@
       <c r="A104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B104" s="19" t="s">
         <v>161</v>
       </c>
       <c r="C104" t="s">
@@ -22253,7 +22278,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2"/>
-      <c r="B105" s="23" t="s">
+      <c r="B105" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -22278,7 +22303,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2"/>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="19" t="s">
         <v>169</v>
       </c>
       <c r="C108" t="s">
@@ -22287,7 +22312,7 @@
     </row>
     <row r="109" ht="98" spans="1:3">
       <c r="A109" s="2"/>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="19" t="s">
         <v>171</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -22446,7 +22471,7 @@
     </row>
     <row r="129" ht="126" spans="1:3">
       <c r="A129" s="2"/>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="19" t="s">
         <v>207</v>
       </c>
       <c r="C129" s="3" t="s">
@@ -22891,62 +22916,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22955,126 +22980,126 @@
         <v>226</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" ht="70" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" ht="42" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="52" ht="56" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="53" ht="56" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -23097,7 +23122,7 @@
   <sheetPr/>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+    <sheetView topLeftCell="C49" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -23110,66 +23135,66 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" ht="28" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C5" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -23198,321 +23223,321 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>769</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>770</v>
+        <v>773</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>774</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" ht="28" spans="2:3">
       <c r="B21" t="s">
-        <v>773</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>774</v>
+        <v>777</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="4"/>
     </row>
     <row r="24" ht="17.5" spans="1:3">
-      <c r="A24" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B25" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C25" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B26" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C26" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B27" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C27" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B31" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C31" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C32" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C33" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="C36" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
     </row>
     <row r="38" ht="70" spans="1:3">
       <c r="A38" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C40" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="45" ht="17.5" spans="1:3">
-      <c r="A45" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" ht="17.5" spans="1:3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C47" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C48" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="49" ht="70" spans="2:3">
       <c r="B49" t="s">
-        <v>808</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>809</v>
+        <v>812</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="50" ht="42" spans="2:3">
       <c r="B50" t="s">
-        <v>810</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>811</v>
+        <v>814</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="51" ht="28" spans="2:3">
       <c r="B51" t="s">
-        <v>812</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>813</v>
+        <v>816</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C52" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="54" ht="28" spans="2:3">
       <c r="B54" t="s">
-        <v>818</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>819</v>
+        <v>822</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="55" ht="28" spans="2:3">
       <c r="B55" t="s">
-        <v>820</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>821</v>
+        <v>824</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:3">
       <c r="A58" t="s">
-        <v>824</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>825</v>
+        <v>828</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:3">
-      <c r="A60" s="12" t="s">
-        <v>826</v>
+      <c r="A60" s="6" t="s">
+        <v>830</v>
       </c>
       <c r="B60" t="s">
-        <v>827</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>828</v>
+        <v>831</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="12"/>
+      <c r="A61" s="6"/>
       <c r="B61" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C61" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="12" t="s">
-        <v>831</v>
+      <c r="A62" s="6" t="s">
+        <v>835</v>
       </c>
       <c r="C62" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="6"/>
       <c r="B63" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C63" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="12"/>
+      <c r="A64" s="6"/>
       <c r="B64" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C64" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="12"/>
+      <c r="A65" s="6"/>
       <c r="B65" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C65" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="12" t="s">
-        <v>839</v>
+      <c r="A66" s="6" t="s">
+        <v>843</v>
       </c>
       <c r="B66" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C66" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="6"/>
       <c r="B67" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -23550,37 +23575,37 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -23607,28 +23632,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -23654,94 +23679,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23751,135 +23776,135 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -23887,96 +23912,96 @@
     </row>
     <row r="29" ht="98" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -23988,42 +24013,42 @@
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -24041,7 +24066,7 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -24049,68 +24074,68 @@
         <v>397</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="4" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -24119,46 +24144,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="4" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="4" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="4" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -24171,66 +24196,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -24243,41 +24268,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -24327,151 +24352,151 @@
   <sheetData>
     <row r="1" ht="28" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -24500,13 +24525,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -24514,37 +24539,37 @@
       <c r="B2" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>1022</v>
+      <c r="C2" s="25" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>1024</v>
+        <v>1027</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>1026</v>
+        <v>1029</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>1029</v>
+        <v>1032</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -24552,15 +24577,15 @@
       <c r="B6" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>1030</v>
+      <c r="C6" s="29" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="34" t="s">
-        <v>1031</v>
+      <c r="C7" s="30" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -24575,31 +24600,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -24609,13 +24634,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -24625,21 +24650,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -24672,23 +24697,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -24717,160 +24742,160 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -24903,300 +24928,300 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="C1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4" ht="42" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" ht="98" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" ht="140" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="17" ht="196" spans="1:3">
       <c r="A17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="19" ht="70" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:3">
       <c r="A24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="26" ht="84" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="33" ht="84" spans="1:3">
       <c r="A33" s="6"/>
       <c r="C33" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="6"/>
       <c r="C36" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B37" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="C38" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:3">
       <c r="A40" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B40" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B42" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="C45" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="8" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
     </row>
   </sheetData>
@@ -25660,7 +25685,7 @@
       <c r="B16" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>366</v>
       </c>
     </row>
@@ -25669,7 +25694,7 @@
       <c r="B17" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
@@ -26106,7 +26131,7 @@
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" s="5"/>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="24" t="s">
         <v>437</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -26115,7 +26140,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="24" t="s">
         <v>439</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -26133,7 +26158,7 @@
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="5"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>443</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -26145,7 +26170,7 @@
       <c r="B32" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="25" t="s">
         <v>446</v>
       </c>
     </row>
@@ -26177,7 +26202,7 @@
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="19" t="s">
         <v>451</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -26193,7 +26218,7 @@
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="28" spans="2:3">
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="21" t="s">
         <v>454</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -26201,31 +26226,31 @@
       </c>
     </row>
     <row r="41" ht="112" spans="2:3">
-      <c r="B41" s="25"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="42" ht="56" spans="2:3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="29" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="25" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="43" ht="154" spans="2:3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="3" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="25"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="45" ht="154" spans="2:3">
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="22" t="s">
         <v>460</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -26233,14 +26258,14 @@
       </c>
     </row>
     <row r="46" ht="210" spans="2:3">
-      <c r="B46" s="26"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="3" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="47" ht="84" spans="2:3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="29" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="25" t="s">
         <v>463</v>
       </c>
     </row>
@@ -26262,7 +26287,7 @@
       <c r="B50" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="25" t="s">
         <v>468</v>
       </c>
     </row>
@@ -26291,7 +26316,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2"/>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="14" t="s">
         <v>474</v>
       </c>
     </row>
@@ -26315,7 +26340,7 @@
       <c r="A63" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="26" t="s">
         <v>479</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -26324,7 +26349,7 @@
     </row>
     <row r="64" ht="70" spans="1:3">
       <c r="A64" s="2"/>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="26" t="s">
         <v>481</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -26333,7 +26358,7 @@
     </row>
     <row r="65" ht="28" spans="1:3">
       <c r="A65" s="2"/>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="26" t="s">
         <v>483</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -26342,23 +26367,23 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2"/>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="26" t="s">
         <v>485</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" ht="42" spans="1:3">
       <c r="A67" s="2"/>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="27" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="68" ht="28" spans="1:3">
       <c r="A68" s="2"/>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="26" t="s">
         <v>488</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -26367,7 +26392,7 @@
     </row>
     <row r="69" ht="28" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="26" t="s">
         <v>490</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -26376,7 +26401,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2"/>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="26" t="s">
         <v>492</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -26385,7 +26410,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2"/>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="26" t="s">
         <v>494</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -26396,16 +26421,16 @@
       <c r="A73" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="25" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="5"/>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="26" t="s">
         <v>499</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -26414,7 +26439,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5"/>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="26" t="s">
         <v>501</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -26423,7 +26448,7 @@
     </row>
     <row r="76" ht="28" spans="1:3">
       <c r="A76" s="5"/>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="26" t="s">
         <v>503</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -26432,23 +26457,23 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="5"/>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5"/>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="C78" s="27"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5"/>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="26" t="s">
         <v>507</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -26484,10 +26509,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="C77" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -26497,17 +26522,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="3" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="17" t="s">
         <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -26515,12 +26540,12 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="14" ht="42" spans="1:3">
       <c r="A14" s="4" t="s">
@@ -26599,7 +26624,7 @@
     </row>
     <row r="28" ht="56" spans="1:3">
       <c r="A28" s="2"/>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="19" t="s">
         <v>528</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -26608,7 +26633,7 @@
     </row>
     <row r="29" ht="56" spans="1:3">
       <c r="A29" s="2"/>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="19" t="s">
         <v>530</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -26664,7 +26689,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="37" ht="28" spans="1:3">
+    <row r="37" ht="42" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="3" t="s">
@@ -26673,332 +26698,334 @@
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="2"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="39" ht="28" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="28" t="s">
+      <c r="C39" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="24" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="40" ht="28" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="41" ht="42" spans="1:3">
+    <row r="41" ht="28" spans="1:3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="42" ht="28" spans="1:3">
+    <row r="42" ht="42" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="43" ht="28" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="44" ht="84" spans="1:3">
+    </row>
+    <row r="44" ht="28" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="45" ht="42" spans="1:3">
+    </row>
+    <row r="45" ht="84" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C45" s="3" t="s">
+    </row>
+    <row r="46" ht="42" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="47" ht="168" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
       <c r="C47" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="4" t="s">
+    <row r="48" ht="168" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="50" ht="56" spans="1:3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B50" s="4" t="s">
+    </row>
+    <row r="51" ht="56" spans="1:3">
+      <c r="A51" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="52" ht="42" spans="1:3">
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="53" ht="28" spans="1:3">
+    </row>
+    <row r="53" ht="42" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="54" ht="84" spans="1:3">
+    </row>
+    <row r="54" ht="28" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C54" s="3" t="s">
+    </row>
+    <row r="55" ht="84" spans="1:3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>572</v>
+      </c>
+    </row>
+    <row r="56" ht="28" spans="1:3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
+    <row r="57" ht="28" spans="1:3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2"/>
-      <c r="B58" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="59" ht="98" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="4" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="60" ht="28" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C60" s="3" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
+    <row r="62" ht="98" spans="1:3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="C62" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="63" ht="28" spans="1:3">
       <c r="A63" s="2"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="3"/>
+      <c r="B63" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="64" ht="70" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="66" ht="70" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="3" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="68" ht="182" spans="1:3">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="C68" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" ht="70" spans="1:3">
       <c r="A69" s="2"/>
-      <c r="B69" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="70" ht="28" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="5" t="s">
+    <row r="71" ht="182" spans="1:3">
+      <c r="A71" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="71" ht="28" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:3">
       <c r="A73" s="2"/>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C73" s="3" t="s">
+    </row>
+    <row r="74" ht="28" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="4" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C75" s="20" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="75" ht="98" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+    <row r="76" ht="28" spans="1:3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="77" ht="84" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5" t="s">
+    <row r="78" ht="98" spans="1:3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="78" ht="57.6" customHeight="1" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="79" ht="42" spans="1:3">
       <c r="A79" s="2"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="3" t="s">
+        <v>606</v>
+      </c>
       <c r="C79" s="3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" ht="84" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="5" t="s">
         <v>608</v>
@@ -27007,13 +27034,36 @@
         <v>609</v>
       </c>
     </row>
-    <row r="81" ht="168" spans="1:3">
+    <row r="81" ht="57.6" customHeight="1" spans="1:3">
       <c r="A81" s="2"/>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C81" s="3" t="s">
+    </row>
+    <row r="82" ht="42" spans="1:3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="3" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" ht="168" spans="1:3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -27022,18 +27072,18 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A81"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A71:A84"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B80:B82"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -27059,37 +27109,37 @@
   <sheetData>
     <row r="1" ht="56" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27099,57 +27149,57 @@
     </row>
     <row r="7" ht="42" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:3">
       <c r="A8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
@@ -27157,122 +27207,122 @@
       <c r="B28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>633</v>
+      <c r="C28" s="13" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>634</v>
+      <c r="B30" s="28" t="s">
+        <v>638</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="29" t="s">
-        <v>636</v>
+      <c r="C31" s="25" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="29" t="s">
-        <v>637</v>
+      <c r="C32" s="25" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>647</v>
+        <v>650</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
-      <c r="B41" s="30" t="s">
-        <v>648</v>
+      <c r="B41" s="26" t="s">
+        <v>652</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
-      <c r="B42" s="30" t="s">
-        <v>650</v>
+      <c r="B42" s="26" t="s">
+        <v>654</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" ht="42" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" ht="70" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -27308,34 +27358,34 @@
   <sheetData>
     <row r="2" ht="112" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" s="5"/>
       <c r="C3" s="3" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -27344,170 +27394,170 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" ht="84" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>668</v>
+        <v>671</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>671</v>
+      <c r="C11" s="14" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" ht="126" spans="1:3">
       <c r="A21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="19"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" ht="70" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
@@ -27516,51 +27566,51 @@
         <v>263</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" ht="84" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="38" ht="115.2" customHeight="1" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C55" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="6" activeTab="6"/>
+    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1161">
   <si>
     <t>SE,EE</t>
   </si>
@@ -9823,6 +9823,13 @@
     <t>声明此属性为主键</t>
   </si>
   <si>
+    <t>@ContextConfiguration</t>
+  </si>
+  <si>
+    <t>@ContextConfiguration(locations = {"classpath*:/*.xml"})
+表示将class路径里的所有.xml文件都包括进来，那么刚刚创建的那么XML文件就会包括进来，那么里面自动扫描的bean就都可以拿到了，此时就可以在测试类中使用@Autowired注解来获取之前自动扫描包下的所有bean</t>
+  </si>
+  <si>
     <t>实用注解Lombok</t>
   </si>
   <si>
@@ -9924,6 +9931,12 @@
       </rPr>
       <t>成员方法</t>
     </r>
+  </si>
+  <si>
+    <t>PropertyPlaceholderConfigurer</t>
+  </si>
+  <si>
+    <t>引入外部properties文件</t>
   </si>
   <si>
     <t>MyBatis</t>
@@ -22916,62 +22929,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -22980,126 +22993,126 @@
         <v>226</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="45" ht="70" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" ht="42" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="4" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" ht="56" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="53" ht="56" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -23135,66 +23148,66 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" ht="28" spans="3:3">
       <c r="C2" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C5" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -23223,27 +23236,27 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="21" ht="28" spans="2:3">
       <c r="B21" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -23251,122 +23264,122 @@
     </row>
     <row r="24" ht="17.5" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B25" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C25" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B26" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C26" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B27" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C27" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:3">
       <c r="A28" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B31" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C31" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C32" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C33" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="6"/>
       <c r="C36" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
     </row>
     <row r="38" ht="70" spans="1:3">
       <c r="A38" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C40" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" ht="17.5" spans="1:3">
       <c r="A45" s="12" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -23375,169 +23388,169 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C47" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C48" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" ht="70" spans="2:3">
       <c r="B49" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" ht="42" spans="2:3">
       <c r="B50" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" ht="28" spans="2:3">
       <c r="B51" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C52" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" ht="28" spans="2:3">
       <c r="B54" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" ht="28" spans="2:3">
       <c r="B55" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:3">
       <c r="A58" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="B60" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C61" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="6" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C62" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6"/>
       <c r="B63" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C63" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="6"/>
       <c r="B64" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C64" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="6"/>
       <c r="B65" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C65" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B66" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C66" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -23575,37 +23588,37 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" ht="84" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -23632,28 +23645,28 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" s="4" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" ht="28" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -23679,94 +23692,94 @@
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" ht="98" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" ht="28" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -23776,135 +23789,135 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4"/>
       <c r="C14" s="3" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" ht="84" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" ht="70" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" ht="42" spans="1:3">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -23912,96 +23925,96 @@
     </row>
     <row r="29" ht="98" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="33" ht="42" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="35" ht="168" spans="1:3">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="4" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -24013,42 +24026,42 @@
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
     </row>
     <row r="42" ht="56" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="42" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -24066,7 +24079,7 @@
     <row r="47" ht="84" spans="1:3">
       <c r="A47" s="2"/>
       <c r="C47" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -24074,68 +24087,68 @@
         <v>397</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="50" ht="28" spans="1:3">
       <c r="A50" s="5"/>
       <c r="B50" s="2" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:3">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="54" ht="56" spans="1:3">
       <c r="A54" s="5" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
     </row>
     <row r="55" ht="56" spans="1:3">
       <c r="A55" s="5"/>
       <c r="B55" s="4" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="58" ht="42" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
     </row>
     <row r="59" ht="70" spans="1:3">
       <c r="A59" s="5"/>
       <c r="B59" s="3" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="60" ht="56" spans="2:3">
       <c r="B60" s="4" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -24144,46 +24157,46 @@
     </row>
     <row r="62" ht="56" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="4" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:3">
       <c r="A65" s="2"/>
       <c r="B65" s="4" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
     </row>
     <row r="66" ht="98" spans="1:3">
       <c r="A66" s="2"/>
       <c r="B66" s="4" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -24196,66 +24209,66 @@
     </row>
     <row r="69" ht="56" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:3">
       <c r="A70" s="2"/>
       <c r="B70" s="4" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
     </row>
     <row r="72" ht="84" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
     </row>
     <row r="73" ht="56" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
     </row>
     <row r="75" ht="28" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="3" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -24268,41 +24281,41 @@
     </row>
     <row r="80" ht="98" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
     </row>
     <row r="82" ht="28" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="4" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="4" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -24352,151 +24365,151 @@
   <sheetData>
     <row r="1" ht="28" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -24525,13 +24538,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" ht="112" spans="1:3">
@@ -24540,36 +24553,36 @@
         <v>237</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" ht="28" spans="1:3">
@@ -24578,14 +24591,14 @@
         <v>387</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" ht="70" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="30" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -24600,31 +24613,31 @@
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" ht="42" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -24634,13 +24647,13 @@
     </row>
     <row r="14" ht="112" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -24650,21 +24663,21 @@
     </row>
     <row r="16" ht="42" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
     </row>
   </sheetData>
@@ -24697,23 +24710,23 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" s="4" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3" ht="56" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" ht="84" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -24742,160 +24755,160 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" ht="98" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="20" ht="84" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="4" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" ht="42" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="5" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="3" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="3" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="33" ht="42" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -24928,300 +24941,300 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="C1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="2" ht="28" spans="1:3">
       <c r="A2" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="4" ht="42" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6" ht="84" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8" ht="98" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="11" ht="98" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="13" ht="140" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="3" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" ht="196" spans="1:3">
       <c r="A17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="19" ht="70" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="24" ht="56" spans="1:3">
       <c r="A24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="26" ht="84" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="33" ht="84" spans="1:3">
       <c r="A33" s="6"/>
       <c r="C33" s="1" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:3">
       <c r="A35" s="6" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="6"/>
       <c r="C36" s="1" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B37" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="C38" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:3">
       <c r="A40" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B40" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B42" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="C45" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="8" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
@@ -25944,10 +25957,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -26417,23 +26430,23 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" ht="42" spans="1:3">
-      <c r="A73" s="5" t="s">
+    <row r="72" ht="42" spans="1:3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="B73" s="25" t="s">
+      <c r="C72" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="C73" s="25" t="s">
+    </row>
+    <row r="74" ht="42" spans="1:3">
+      <c r="A74" s="5" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="25" t="s">
         <v>500</v>
       </c>
     </row>
@@ -26446,38 +26459,55 @@
         <v>502</v>
       </c>
     </row>
-    <row r="76" ht="28" spans="1:3">
+    <row r="76" spans="1:3">
       <c r="A76" s="5"/>
       <c r="B76" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" ht="28" spans="1:3">
       <c r="A77" s="5"/>
       <c r="B77" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>104</v>
+      <c r="C77" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="5"/>
       <c r="B78" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C78" s="23"/>
+        <v>507</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5"/>
       <c r="B79" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="C79" s="4" t="s">
         <v>508</v>
+      </c>
+      <c r="C79" s="23"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>511</v>
+      </c>
+      <c r="C82" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -26489,12 +26519,12 @@
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A63:A71"/>
-    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A74:A80"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C78:C79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C55" r:id="rId2" display="https://cloud.tencent.com/developer/article/1062946"/>
@@ -26511,7 +26541,7 @@
   <sheetPr/>
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -26523,20 +26553,20 @@
   <sheetData>
     <row r="1" ht="28" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
       <c r="A2" s="18"/>
       <c r="B2" s="17" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -26552,7 +26582,7 @@
         <v>475</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:3">
@@ -26560,41 +26590,41 @@
         <v>263</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" ht="56" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -26602,68 +26632,68 @@
         <v>389</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:3">
       <c r="A25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" ht="56" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" ht="56" spans="1:3">
       <c r="A29" s="2"/>
       <c r="B29" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" ht="42" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -26676,56 +26706,56 @@
         <v>83</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="2"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" ht="42" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="5"/>
       <c r="C37" s="3" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="39" ht="28" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="24" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" ht="28" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" ht="42" spans="1:3">
@@ -26734,113 +26764,113 @@
         <v>167</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" ht="28" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" ht="28" spans="1:3">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" ht="84" spans="1:3">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" ht="42" spans="1:3">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" ht="168" spans="1:3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="4" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" ht="56" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="53" ht="42" spans="1:3">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="54" ht="28" spans="1:3">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" ht="84" spans="1:3">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:3">
@@ -26849,16 +26879,16 @@
         <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" ht="28" spans="1:3">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -26868,55 +26898,55 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62" ht="98" spans="1:3">
       <c r="A62" s="2"/>
       <c r="B62" s="4" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:3">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" ht="70" spans="1:3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -26931,139 +26961,139 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69" ht="70" spans="1:3">
       <c r="A69" s="2"/>
       <c r="B69" s="4"/>
       <c r="C69" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" ht="182" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2"/>
       <c r="B72" s="4" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:3">
       <c r="A73" s="2"/>
       <c r="B73" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" ht="28" spans="1:3">
       <c r="A74" s="2"/>
       <c r="B74" s="5"/>
       <c r="C74" s="3" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2"/>
       <c r="B75" s="4" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" ht="28" spans="1:3">
       <c r="A76" s="2"/>
       <c r="B76" s="4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="B77" s="4" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="78" ht="98" spans="1:3">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" ht="42" spans="1:3">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" ht="84" spans="1:3">
       <c r="A80" s="2"/>
       <c r="B80" s="5" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" ht="57.6" customHeight="1" spans="1:3">
       <c r="A81" s="2"/>
       <c r="B81" s="5"/>
       <c r="C81" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" ht="42" spans="1:3">
       <c r="A82" s="2"/>
       <c r="B82" s="5"/>
       <c r="C82" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2"/>
       <c r="B83" s="5" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="84" ht="168" spans="1:3">
       <c r="A84" s="2"/>
       <c r="B84" s="4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -27109,37 +27139,37 @@
   <sheetData>
     <row r="1" ht="56" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27149,57 +27179,57 @@
     </row>
     <row r="7" ht="42" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:3">
       <c r="A8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="C9" s="3" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" ht="42" spans="1:3">
@@ -27208,7 +27238,7 @@
         <v>207</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:3">
@@ -27216,113 +27246,113 @@
         <v>237</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="5"/>
       <c r="C31" s="25" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" ht="56" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="5"/>
       <c r="C32" s="25" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="26" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="26" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" ht="42" spans="1:3">
       <c r="A43" s="2"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2"/>
       <c r="C44" s="4" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" ht="70" spans="1:3">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -27358,34 +27388,34 @@
   <sheetData>
     <row r="2" ht="112" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:3">
       <c r="A3" s="5"/>
       <c r="C3" s="3" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" ht="98" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -27394,28 +27424,28 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" ht="84" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -27423,109 +27453,109 @@
         <v>329</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="C13" s="4" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="21" ht="126" spans="1:3">
       <c r="A21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="4" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -27533,31 +27563,31 @@
     </row>
     <row r="30" ht="70" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" ht="42" spans="1:3">
       <c r="A31" s="2"/>
       <c r="B31" s="4" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:3">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" ht="28" spans="1:3">
@@ -27566,51 +27596,51 @@
         <v>263</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" ht="84" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" ht="115.2" customHeight="1" spans="1:3">
       <c r="A38" s="5" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C55" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/java.xlsx
+++ b/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" tabRatio="760" firstSheet="5" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="760" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="JAVA基础" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1169">
   <si>
     <t>SE,EE</t>
   </si>
@@ -6744,7 +6744,7 @@
     <t>WEB服务器</t>
   </si>
   <si>
-    <t>Tomcat:轻量级WEB服务器，支持jsp,servlet</t>
+    <t>Tomcat:Servlet容器，支持标准的servlet规范和JavaEE的规范，轻量级WEB服务器，支持jsp,servlet</t>
   </si>
   <si>
     <t>Jboss，Jetty</t>
@@ -6754,6 +6754,9 @@
   </si>
   <si>
     <t>WebSphere</t>
+  </si>
+  <si>
+    <t>netty:Tomcat是基于Http协议的，他的实质是一个基于http协议的web容器，但是Netty不一样，他能通过编程自定义各种协议，因为netty能够通过codec自己来编码/解码字节流，完成类似redis访问的功能。Netty是一款基于NIO（Nonblocking I/O，非阻塞IO）开发的网络通信框架，对比于BIO（Blocking I/O，阻塞IO），他的并发性能得到了很大提高。</t>
   </si>
   <si>
     <t>Tomcat</t>
@@ -6779,6 +6782,10 @@
   <si>
     <t>1.项目代码拷贝到webapps目录
 2.conf中新建xml文件配置</t>
+  </si>
+  <si>
+    <t>BootStrap是Tomcat的入口类
+bootstrap.init()</t>
   </si>
   <si>
     <t>maven</t>
@@ -19499,6 +19506,9 @@
     <t>CXF</t>
   </si>
   <si>
+    <t>开源的services框架，支持多种ws标准，</t>
+  </si>
+  <si>
     <t>Spring-ws</t>
   </si>
   <si>
@@ -19508,7 +19518,22 @@
     <t>qualified name, 构成为命名空间前缀+冒号+元素名称，&lt;/xsl:template&gt;中，xsl是命名空间前缀，template是元素名称，整体称为QName）</t>
   </si>
   <si>
-    <t>https://blog.csdn.net/BADAO_LIUMANG_QIZHI/article/details/89395156?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromBaidu%7ERate-1-89395156-blog-66974025.pc_relevant_3mothn_strategy_and_data_recovery&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7EBlogCommendFromBaidu%7ERate-1-89395156-blog-66974025.pc_relevant_3mothn_strategy_and_data_recovery&amp;utm_relevant_index=2</t>
+    <t>@Webservice</t>
+  </si>
+  <si>
+    <t>给类添加上@WebService注解后，类中所有的非静态方法都将会对外公布。该类至少要有一个公开的方法，否则将会启动失败</t>
+  </si>
+  <si>
+    <t>EndPoint</t>
+  </si>
+  <si>
+    <t>监听通信端口，是对传输层的抽象，用来实现 TCP/IP 协议的</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>消息总线？</t>
   </si>
 </sst>
 </file>
@@ -19521,7 +19546,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19540,7 +19565,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -19557,6 +19582,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -20040,10 +20073,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20052,34 +20085,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -20091,98 +20121,101 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20207,7 +20240,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -20225,10 +20258,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -20246,14 +20279,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20275,6 +20311,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -20367,8 +20406,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3125470" y="1499235"/>
-          <a:ext cx="4982210" cy="2466975"/>
+          <a:off x="3094990" y="1539875"/>
+          <a:ext cx="4982210" cy="2538095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20409,8 +20448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5532120" y="13091160"/>
-          <a:ext cx="6726555" cy="2886710"/>
+          <a:off x="5501640" y="13462000"/>
+          <a:ext cx="6536690" cy="2952750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20459,8 +20498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11660505" y="9633585"/>
-          <a:ext cx="4831080" cy="5445760"/>
+          <a:off x="11452860" y="9892665"/>
+          <a:ext cx="4739640" cy="5598160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20514,8 +20553,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11911330" y="16908780"/>
-          <a:ext cx="6026785" cy="3402965"/>
+          <a:off x="11703685" y="17381220"/>
+          <a:ext cx="5912485" cy="3504565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20562,8 +20601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11216640" y="7076440"/>
-          <a:ext cx="6029325" cy="2407920"/>
+          <a:off x="11186160" y="7269480"/>
+          <a:ext cx="5749290" cy="2473960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20612,8 +20651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4715510" y="1956435"/>
-          <a:ext cx="4922520" cy="1891665"/>
+          <a:off x="4678680" y="1991995"/>
+          <a:ext cx="4922520" cy="1962785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20665,8 +20704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5455920" y="4815205"/>
-          <a:ext cx="6816725" cy="1269365"/>
+          <a:off x="5433060" y="4952365"/>
+          <a:ext cx="6621780" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20715,8 +20754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12049760" y="1840230"/>
-          <a:ext cx="5457825" cy="3800475"/>
+          <a:off x="11833860" y="1891030"/>
+          <a:ext cx="5366385" cy="3907155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20763,8 +20802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6847840" y="257810"/>
-          <a:ext cx="6249670" cy="1908810"/>
+          <a:off x="6804660" y="262890"/>
+          <a:ext cx="6065520" cy="1959610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20806,8 +20845,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="911860"/>
-          <a:ext cx="6573520" cy="1758315"/>
+          <a:off x="236220" y="937260"/>
+          <a:ext cx="6545580" cy="1809115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20844,8 +20883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6901180" y="931545"/>
-          <a:ext cx="4442460" cy="2506345"/>
+          <a:off x="6873240" y="956945"/>
+          <a:ext cx="4442460" cy="2577465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20887,8 +20926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5996940" y="2489200"/>
-          <a:ext cx="6805295" cy="3932555"/>
+          <a:off x="5966460" y="2557780"/>
+          <a:ext cx="6614160" cy="4046855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20925,8 +20964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="556260" y="3930015"/>
-          <a:ext cx="4892040" cy="730250"/>
+          <a:off x="556260" y="4041775"/>
+          <a:ext cx="4861560" cy="750570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20963,8 +21002,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10398125" y="114300"/>
-          <a:ext cx="7778115" cy="2310765"/>
+          <a:off x="10210800" y="114300"/>
+          <a:ext cx="7640955" cy="2376805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21013,8 +21052,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2816225" y="16311880"/>
-          <a:ext cx="4135120" cy="2001520"/>
+          <a:off x="2788920" y="16733520"/>
+          <a:ext cx="4135120" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21066,8 +21105,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295265" y="980440"/>
-          <a:ext cx="6316980" cy="2946400"/>
+          <a:off x="5257800" y="1005840"/>
+          <a:ext cx="6150610" cy="3032760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21104,8 +21143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1593215" y="939165"/>
-          <a:ext cx="3923030" cy="2798445"/>
+          <a:off x="1577340" y="964565"/>
+          <a:ext cx="3901440" cy="2879725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21142,8 +21181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9158605" y="4371340"/>
-          <a:ext cx="3126740" cy="1732280"/>
+          <a:off x="9121140" y="4493260"/>
+          <a:ext cx="2948940" cy="1783080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21185,8 +21224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2106930" y="2564130"/>
-          <a:ext cx="4465320" cy="913130"/>
+          <a:off x="2086610" y="2635250"/>
+          <a:ext cx="4441825" cy="938530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21228,8 +21267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8404860" y="185420"/>
-          <a:ext cx="4386580" cy="2543810"/>
+          <a:off x="8366760" y="190500"/>
+          <a:ext cx="4199255" cy="2614930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21534,11 +21573,11 @@
       <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="11.8909090909091" customWidth="1"/>
-    <col min="3" max="3" width="149.445454545455" customWidth="1"/>
+    <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="149.444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -21557,14 +21596,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:3">
+    <row r="3" ht="28.8" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="42" spans="1:3">
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
@@ -21587,7 +21626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="42" spans="1:3">
+    <row r="21" ht="43.2" spans="1:3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -21595,7 +21634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:3">
+    <row r="22" ht="28.8" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -21603,7 +21642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="56" spans="1:3">
+    <row r="23" ht="57.6" spans="1:3">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -21611,7 +21650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:3">
+    <row r="24" ht="28.8" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -21619,12 +21658,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="3:3">
+    <row r="25" ht="28.8" spans="3:3">
       <c r="C25" s="3" t="s">
         <v>17</v>
     